--- a/config_3.2/shoping_config.xlsx
+++ b/config_3.2/shoping_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -8447,18 +8447,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>{type="permission_class",class_value = "fclb_free_001" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "fclb_v1v7_001" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "fclb_v8v12_001" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>{type="permission_class",class_value = "golden_egg_3" }</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8752,6 +8740,18 @@
   </si>
   <si>
     <t>249800000,-1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "fclb_free_002" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "fclb_v1v7_002" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "fclb_v8v12_002" }</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -9729,7 +9729,7 @@
         <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2029</v>
+        <v>2026</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1272</v>
@@ -15105,7 +15105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN579"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="M114" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -47784,7 +47784,7 @@
         <v>49800</v>
       </c>
       <c r="Q512" s="5" t="s">
-        <v>1985</v>
+        <v>1982</v>
       </c>
       <c r="R512" s="71" t="s">
         <v>1875</v>
@@ -49797,7 +49797,7 @@
         <v>1362</v>
       </c>
       <c r="I542" s="5" t="s">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="J542" s="5" t="s">
         <v>1477</v>
@@ -49862,7 +49862,7 @@
         <v>1465</v>
       </c>
       <c r="I543" s="5" t="s">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="J543" s="5" t="s">
         <v>1476</v>
@@ -49927,7 +49927,7 @@
         <v>1367</v>
       </c>
       <c r="I544" s="5" t="s">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="J544" s="5" t="s">
         <v>1475</v>
@@ -49992,7 +49992,7 @@
         <v>1370</v>
       </c>
       <c r="I545" s="5" t="s">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="J545" s="5" t="s">
         <v>1474</v>
@@ -50057,7 +50057,7 @@
         <v>1372</v>
       </c>
       <c r="I546" s="5" t="s">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="J546" s="5" t="s">
         <v>1473</v>
@@ -50122,7 +50122,7 @@
         <v>1373</v>
       </c>
       <c r="I547" s="5" t="s">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="J547" s="5" t="s">
         <v>1472</v>
@@ -50187,7 +50187,7 @@
         <v>1375</v>
       </c>
       <c r="I548" s="5" t="s">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="J548" s="5" t="s">
         <v>1471</v>
@@ -50249,13 +50249,13 @@
         <v>0</v>
       </c>
       <c r="G549" s="5" t="s">
-        <v>1976</v>
+        <v>1973</v>
       </c>
       <c r="I549" s="5" t="s">
-        <v>1977</v>
+        <v>1974</v>
       </c>
       <c r="J549" s="5" t="s">
-        <v>1981</v>
+        <v>1978</v>
       </c>
       <c r="L549" s="5">
         <v>-31</v>
@@ -50273,10 +50273,10 @@
         <v>49800</v>
       </c>
       <c r="Q549" s="5" t="s">
-        <v>1986</v>
+        <v>1983</v>
       </c>
       <c r="R549" s="71" t="s">
-        <v>1987</v>
+        <v>1984</v>
       </c>
       <c r="W549" s="5" t="s">
         <v>1529</v>
@@ -50317,13 +50317,13 @@
         <v>0</v>
       </c>
       <c r="G550" s="5" t="s">
-        <v>1976</v>
+        <v>1973</v>
       </c>
       <c r="I550" s="5" t="s">
-        <v>1978</v>
+        <v>1975</v>
       </c>
       <c r="J550" s="5" t="s">
-        <v>1982</v>
+        <v>1979</v>
       </c>
       <c r="L550" s="5">
         <v>-31</v>
@@ -50341,13 +50341,13 @@
         <v>19800</v>
       </c>
       <c r="Q550" s="5" t="s">
-        <v>1986</v>
+        <v>1983</v>
       </c>
       <c r="R550" s="71" t="s">
-        <v>1990</v>
+        <v>1987</v>
       </c>
       <c r="W550" s="5" t="s">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="X550" s="5">
         <v>9999999</v>
@@ -50385,13 +50385,13 @@
         <v>0</v>
       </c>
       <c r="G551" s="5" t="s">
+        <v>1973</v>
+      </c>
+      <c r="I551" s="5" t="s">
         <v>1976</v>
       </c>
-      <c r="I551" s="5" t="s">
-        <v>1979</v>
-      </c>
       <c r="J551" s="5" t="s">
-        <v>1983</v>
+        <v>1980</v>
       </c>
       <c r="L551" s="5">
         <v>-31</v>
@@ -50409,13 +50409,13 @@
         <v>9800</v>
       </c>
       <c r="Q551" s="5" t="s">
+        <v>1983</v>
+      </c>
+      <c r="R551" s="71" t="s">
         <v>1986</v>
       </c>
-      <c r="R551" s="71" t="s">
-        <v>1989</v>
-      </c>
       <c r="W551" s="5" t="s">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="X551" s="5">
         <v>9999999</v>
@@ -50453,13 +50453,13 @@
         <v>0</v>
       </c>
       <c r="G552" s="5" t="s">
-        <v>1976</v>
+        <v>1973</v>
       </c>
       <c r="I552" s="5" t="s">
-        <v>1980</v>
+        <v>1977</v>
       </c>
       <c r="J552" s="5" t="s">
-        <v>1984</v>
+        <v>1981</v>
       </c>
       <c r="L552" s="5">
         <v>-31</v>
@@ -50477,13 +50477,13 @@
         <v>4800</v>
       </c>
       <c r="Q552" s="5" t="s">
-        <v>1986</v>
+        <v>1983</v>
       </c>
       <c r="R552" s="71" t="s">
-        <v>1988</v>
+        <v>1985</v>
       </c>
       <c r="W552" s="5" t="s">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="X552" s="5">
         <v>9999999</v>
@@ -50521,13 +50521,13 @@
         <v>0</v>
       </c>
       <c r="G553" s="5" t="s">
-        <v>1991</v>
+        <v>1988</v>
       </c>
       <c r="I553" s="5" t="s">
-        <v>1977</v>
+        <v>1974</v>
       </c>
       <c r="J553" s="5" t="s">
-        <v>1995</v>
+        <v>1992</v>
       </c>
       <c r="L553" s="5">
         <v>-31</v>
@@ -50545,13 +50545,13 @@
         <v>49800</v>
       </c>
       <c r="Q553" s="5" t="s">
-        <v>1992</v>
+        <v>1989</v>
       </c>
       <c r="R553" s="71" t="s">
-        <v>1999</v>
+        <v>1996</v>
       </c>
       <c r="W553" s="5" t="s">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="X553" s="5">
         <v>9999999</v>
@@ -50589,13 +50589,13 @@
         <v>0</v>
       </c>
       <c r="G554" s="5" t="s">
-        <v>1991</v>
+        <v>1988</v>
       </c>
       <c r="I554" s="5" t="s">
-        <v>1978</v>
+        <v>1975</v>
       </c>
       <c r="J554" s="5" t="s">
-        <v>1996</v>
+        <v>1993</v>
       </c>
       <c r="L554" s="5">
         <v>-31</v>
@@ -50613,13 +50613,13 @@
         <v>19800</v>
       </c>
       <c r="Q554" s="5" t="s">
-        <v>1992</v>
+        <v>1989</v>
       </c>
       <c r="R554" s="71" t="s">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="W554" s="5" t="s">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="X554" s="5">
         <v>9999999</v>
@@ -50657,13 +50657,13 @@
         <v>0</v>
       </c>
       <c r="G555" s="5" t="s">
-        <v>1991</v>
+        <v>1988</v>
       </c>
       <c r="I555" s="5" t="s">
-        <v>1979</v>
+        <v>1976</v>
       </c>
       <c r="J555" s="5" t="s">
-        <v>1997</v>
+        <v>1994</v>
       </c>
       <c r="L555" s="5">
         <v>-31</v>
@@ -50681,13 +50681,13 @@
         <v>9800</v>
       </c>
       <c r="Q555" s="5" t="s">
-        <v>1993</v>
+        <v>1990</v>
       </c>
       <c r="R555" s="71" t="s">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="W555" s="5" t="s">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="X555" s="5">
         <v>9999999</v>
@@ -50725,13 +50725,13 @@
         <v>0</v>
       </c>
       <c r="G556" s="5" t="s">
-        <v>1991</v>
+        <v>1988</v>
       </c>
       <c r="I556" s="5" t="s">
-        <v>1980</v>
+        <v>1977</v>
       </c>
       <c r="J556" s="5" t="s">
-        <v>1998</v>
+        <v>1995</v>
       </c>
       <c r="L556" s="5">
         <v>-31</v>
@@ -50749,13 +50749,13 @@
         <v>4800</v>
       </c>
       <c r="Q556" s="5" t="s">
-        <v>1994</v>
+        <v>1991</v>
       </c>
       <c r="R556" s="71" t="s">
-        <v>2002</v>
+        <v>1999</v>
       </c>
       <c r="W556" s="5" t="s">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="X556" s="5">
         <v>9999999</v>
@@ -50796,10 +50796,10 @@
         <v>584</v>
       </c>
       <c r="I557" s="5" t="s">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="J557" s="5" t="s">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="L557" s="5">
         <v>-25</v>
@@ -50862,10 +50862,10 @@
         <v>536</v>
       </c>
       <c r="I558" s="5" t="s">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="J558" s="5" t="s">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="L558" s="5">
         <v>-25</v>
@@ -50928,10 +50928,10 @@
         <v>274</v>
       </c>
       <c r="I559" s="5" t="s">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="J559" s="5" t="s">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="L559" s="5">
         <v>-25</v>
@@ -50952,7 +50952,7 @@
         <v>87</v>
       </c>
       <c r="R559" s="71" t="s">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="W559" s="5" t="s">
         <v>546</v>
@@ -50994,10 +50994,10 @@
         <v>584</v>
       </c>
       <c r="I560" s="5" t="s">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="J560" s="5" t="s">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="L560" s="5">
         <f>J55-25</f>
@@ -51019,7 +51019,7 @@
         <v>87</v>
       </c>
       <c r="R560" s="71" t="s">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="W560" s="5" t="s">
         <v>546</v>
@@ -51061,10 +51061,10 @@
         <v>537</v>
       </c>
       <c r="I561" s="5" t="s">
+        <v>2000</v>
+      </c>
+      <c r="J561" s="5" t="s">
         <v>2003</v>
-      </c>
-      <c r="J561" s="5" t="s">
-        <v>2006</v>
       </c>
       <c r="L561" s="5">
         <v>-25</v>
@@ -51085,7 +51085,7 @@
         <v>87</v>
       </c>
       <c r="R561" s="71" t="s">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="W561" s="5" t="s">
         <v>546</v>
@@ -51127,10 +51127,10 @@
         <v>75</v>
       </c>
       <c r="I562" s="5" t="s">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="J562" s="5" t="s">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="L562" s="5">
         <v>-25</v>
@@ -51151,7 +51151,7 @@
         <v>87</v>
       </c>
       <c r="R562" s="71" t="s">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="W562" s="5" t="s">
         <v>546</v>
@@ -51193,10 +51193,10 @@
         <v>584</v>
       </c>
       <c r="I563" s="5" t="s">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="J563" s="5" t="s">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="L563" s="5">
         <v>-25</v>
@@ -51217,7 +51217,7 @@
         <v>87</v>
       </c>
       <c r="R563" s="71" t="s">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W563" s="5" t="s">
         <v>546</v>
@@ -51259,10 +51259,10 @@
         <v>274</v>
       </c>
       <c r="I564" s="5" t="s">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="J564" s="5" t="s">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="L564" s="5">
         <v>-25</v>
@@ -51283,7 +51283,7 @@
         <v>87</v>
       </c>
       <c r="R564" s="71" t="s">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="W564" s="5" t="s">
         <v>546</v>
@@ -51325,10 +51325,10 @@
         <v>79</v>
       </c>
       <c r="I565" s="5" t="s">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="J565" s="5" t="s">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="L565" s="5">
         <v>-25</v>
@@ -51349,7 +51349,7 @@
         <v>87</v>
       </c>
       <c r="R565" s="71" t="s">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="W565" s="5" t="s">
         <v>546</v>
@@ -51391,7 +51391,7 @@
         <v>131</v>
       </c>
       <c r="I566" s="22" t="s">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="J566" s="22" t="s">
         <v>1887</v>
@@ -51412,7 +51412,7 @@
         <v>49800</v>
       </c>
       <c r="Q566" s="22" t="s">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="R566" s="72" t="s">
         <v>1875</v>
@@ -51459,7 +51459,7 @@
         <v>131</v>
       </c>
       <c r="I567" s="22" t="s">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="J567" s="22" t="s">
         <v>1889</v>
@@ -51480,7 +51480,7 @@
         <v>19800</v>
       </c>
       <c r="Q567" s="22" t="s">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="R567" s="72" t="s">
         <v>1876</v>
@@ -51527,7 +51527,7 @@
         <v>131</v>
       </c>
       <c r="I568" s="22" t="s">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="J568" s="22" t="s">
         <v>1870</v>
@@ -51548,7 +51548,7 @@
         <v>9800</v>
       </c>
       <c r="Q568" s="22" t="s">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="R568" s="72" t="s">
         <v>1877</v>
@@ -51595,7 +51595,7 @@
         <v>131</v>
       </c>
       <c r="I569" s="22" t="s">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="J569" s="22" t="s">
         <v>1869</v>
@@ -51616,7 +51616,7 @@
         <v>4800</v>
       </c>
       <c r="Q569" s="22" t="s">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="R569" s="72" t="s">
         <v>1878</v>
@@ -51663,7 +51663,7 @@
         <v>131</v>
       </c>
       <c r="I570" s="22" t="s">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="J570" s="22" t="s">
         <v>1893</v>
@@ -51684,7 +51684,7 @@
         <v>49800</v>
       </c>
       <c r="Q570" s="22" t="s">
-        <v>2026</v>
+        <v>2023</v>
       </c>
       <c r="R570" s="72" t="s">
         <v>1896</v>
@@ -51731,7 +51731,7 @@
         <v>131</v>
       </c>
       <c r="I571" s="22" t="s">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="J571" s="22" t="s">
         <v>1897</v>
@@ -51752,7 +51752,7 @@
         <v>19800</v>
       </c>
       <c r="Q571" s="22" t="s">
-        <v>2026</v>
+        <v>2023</v>
       </c>
       <c r="R571" s="72" t="s">
         <v>1898</v>
@@ -51799,7 +51799,7 @@
         <v>131</v>
       </c>
       <c r="I572" s="22" t="s">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="J572" s="22" t="s">
         <v>1899</v>
@@ -51820,7 +51820,7 @@
         <v>9800</v>
       </c>
       <c r="Q572" s="22" t="s">
-        <v>2027</v>
+        <v>2024</v>
       </c>
       <c r="R572" s="72" t="s">
         <v>1882</v>
@@ -51867,7 +51867,7 @@
         <v>131</v>
       </c>
       <c r="I573" s="22" t="s">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="J573" s="22" t="s">
         <v>1900</v>
@@ -51888,7 +51888,7 @@
         <v>4800</v>
       </c>
       <c r="Q573" s="22" t="s">
-        <v>2028</v>
+        <v>2025</v>
       </c>
       <c r="R573" s="72" t="s">
         <v>1902</v>
@@ -51935,11 +51935,11 @@
         <v>1</v>
       </c>
       <c r="G574" s="22" t="s">
-        <v>2030</v>
+        <v>2027</v>
       </c>
       <c r="H574" s="22"/>
       <c r="I574" s="22" t="s">
-        <v>2042</v>
+        <v>2039</v>
       </c>
       <c r="J574" s="22"/>
       <c r="K574" s="22"/>
@@ -51959,10 +51959,10 @@
         <v>4500</v>
       </c>
       <c r="Q574" s="22" t="s">
-        <v>2031</v>
+        <v>2028</v>
       </c>
       <c r="R574" s="83" t="s">
-        <v>2048</v>
+        <v>2045</v>
       </c>
       <c r="S574" s="22"/>
       <c r="T574" s="22"/>
@@ -52007,11 +52007,11 @@
         <v>1</v>
       </c>
       <c r="G575" s="22" t="s">
-        <v>2032</v>
+        <v>2029</v>
       </c>
       <c r="H575" s="22"/>
       <c r="I575" s="22" t="s">
-        <v>2043</v>
+        <v>2040</v>
       </c>
       <c r="J575" s="22"/>
       <c r="K575" s="22"/>
@@ -52031,10 +52031,10 @@
         <v>8800</v>
       </c>
       <c r="Q575" s="22" t="s">
-        <v>2033</v>
+        <v>2030</v>
       </c>
       <c r="R575" s="83" t="s">
-        <v>2049</v>
+        <v>2046</v>
       </c>
       <c r="S575" s="22"/>
       <c r="T575" s="22"/>
@@ -52079,11 +52079,11 @@
         <v>1</v>
       </c>
       <c r="G576" s="22" t="s">
-        <v>2034</v>
+        <v>2031</v>
       </c>
       <c r="H576" s="22"/>
       <c r="I576" s="22" t="s">
-        <v>2044</v>
+        <v>2041</v>
       </c>
       <c r="J576" s="22"/>
       <c r="K576" s="22"/>
@@ -52103,10 +52103,10 @@
         <v>17800</v>
       </c>
       <c r="Q576" s="22" t="s">
-        <v>2035</v>
+        <v>2032</v>
       </c>
       <c r="R576" s="83" t="s">
-        <v>2050</v>
+        <v>2047</v>
       </c>
       <c r="S576" s="22"/>
       <c r="T576" s="22"/>
@@ -52151,11 +52151,11 @@
         <v>1</v>
       </c>
       <c r="G577" s="22" t="s">
-        <v>2036</v>
+        <v>2033</v>
       </c>
       <c r="H577" s="22"/>
       <c r="I577" s="22" t="s">
-        <v>2045</v>
+        <v>2042</v>
       </c>
       <c r="J577" s="22"/>
       <c r="K577" s="22"/>
@@ -52175,10 +52175,10 @@
         <v>44800</v>
       </c>
       <c r="Q577" s="22" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="R577" s="83" t="s">
-        <v>2051</v>
+        <v>2048</v>
       </c>
       <c r="S577" s="22"/>
       <c r="T577" s="22"/>
@@ -52223,11 +52223,11 @@
         <v>1</v>
       </c>
       <c r="G578" s="22" t="s">
-        <v>2038</v>
+        <v>2035</v>
       </c>
       <c r="H578" s="22"/>
       <c r="I578" s="22" t="s">
-        <v>2046</v>
+        <v>2043</v>
       </c>
       <c r="J578" s="22"/>
       <c r="K578" s="22"/>
@@ -52247,10 +52247,10 @@
         <v>89800</v>
       </c>
       <c r="Q578" s="22" t="s">
-        <v>2039</v>
+        <v>2036</v>
       </c>
       <c r="R578" s="83" t="s">
-        <v>2052</v>
+        <v>2049</v>
       </c>
       <c r="S578" s="22"/>
       <c r="T578" s="22"/>
@@ -52295,11 +52295,11 @@
         <v>1</v>
       </c>
       <c r="G579" s="22" t="s">
-        <v>2040</v>
+        <v>2037</v>
       </c>
       <c r="H579" s="22"/>
       <c r="I579" s="22" t="s">
-        <v>2047</v>
+        <v>2044</v>
       </c>
       <c r="J579" s="22"/>
       <c r="K579" s="22"/>
@@ -52319,10 +52319,10 @@
         <v>229800</v>
       </c>
       <c r="Q579" s="22" t="s">
-        <v>2041</v>
+        <v>2038</v>
       </c>
       <c r="R579" s="83" t="s">
-        <v>2053</v>
+        <v>2050</v>
       </c>
       <c r="S579" s="22"/>
       <c r="T579" s="22"/>
@@ -52368,7 +52368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
       <selection activeCell="B71" sqref="B71:B73"/>
     </sheetView>
   </sheetViews>
@@ -53382,7 +53382,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="66" t="s">
-        <v>1972</v>
+        <v>2051</v>
       </c>
       <c r="C71" s="65">
         <v>1</v>
@@ -53396,7 +53396,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="66" t="s">
-        <v>1973</v>
+        <v>2052</v>
       </c>
       <c r="C72" s="65">
         <v>1</v>
@@ -53410,7 +53410,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="66" t="s">
-        <v>1974</v>
+        <v>2053</v>
       </c>
       <c r="C73" s="65">
         <v>1</v>
@@ -53452,7 +53452,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="66" t="s">
-        <v>1975</v>
+        <v>1972</v>
       </c>
       <c r="C76" s="65">
         <v>1</v>

--- a/config_3.2/shoping_config.xlsx
+++ b/config_3.2/shoping_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4578" uniqueCount="2021">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4634" uniqueCount="2029">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8640,6 +8640,31 @@
   <si>
     <t>20900000,</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>女神礼包-冲金鸡</t>
+  </si>
+  <si>
+    <t>女神礼包-捕鱼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_ty_csbox",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_ty_ssbox",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_ty_xybox",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_2","prop_ty_csbox",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_ty_ssbox",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_ty_xybox",</t>
   </si>
 </sst>
 </file>
@@ -8717,7 +8742,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8796,18 +8821,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -8851,7 +8864,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9056,27 +9069,6 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="13" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -9114,15 +9106,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -11559,13 +11542,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN565"/>
+  <dimension ref="A1:AN573"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="O548" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H557" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R570" sqref="R570"/>
+      <selection pane="bottomRight" activeCell="H570" sqref="H570"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -11586,7 +11569,7 @@
     <col min="15" max="15" width="10.5" style="6" customWidth="1"/>
     <col min="16" max="16" width="13.5" style="6" customWidth="1"/>
     <col min="17" max="17" width="82.875" style="6" customWidth="1"/>
-    <col min="18" max="18" width="30.125" style="91" customWidth="1"/>
+    <col min="18" max="18" width="30.125" style="81" customWidth="1"/>
     <col min="19" max="19" width="40.5" style="6" customWidth="1"/>
     <col min="20" max="20" width="46" style="6" customWidth="1"/>
     <col min="21" max="22" width="30.125" style="6" customWidth="1"/>
@@ -11660,7 +11643,7 @@
       <c r="Q1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="75" t="s">
+      <c r="R1" s="68" t="s">
         <v>18</v>
       </c>
       <c r="S1" s="1" t="s">
@@ -11763,7 +11746,7 @@
       <c r="Q2" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="R2" s="76" t="s">
+      <c r="R2" s="69" t="s">
         <v>111</v>
       </c>
       <c r="S2" s="7"/>
@@ -11821,7 +11804,7 @@
       <c r="Q3" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="R3" s="76" t="s">
+      <c r="R3" s="69" t="s">
         <v>113</v>
       </c>
       <c r="S3" s="7"/>
@@ -11879,7 +11862,7 @@
       <c r="Q4" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="69" t="s">
         <v>115</v>
       </c>
       <c r="S4" s="7"/>
@@ -11942,7 +11925,7 @@
       <c r="Q5" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="R5" s="76" t="s">
+      <c r="R5" s="69" t="s">
         <v>693</v>
       </c>
       <c r="S5" s="7"/>
@@ -12006,7 +11989,7 @@
       <c r="Q6" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="R6" s="77" t="s">
+      <c r="R6" s="70" t="s">
         <v>121</v>
       </c>
       <c r="W6" s="5" t="s">
@@ -12061,7 +12044,7 @@
       <c r="Q7" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="R7" s="76" t="s">
+      <c r="R7" s="69" t="s">
         <v>124</v>
       </c>
       <c r="S7" s="7"/>
@@ -12122,7 +12105,7 @@
       <c r="Q8" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="R8" s="77" t="s">
+      <c r="R8" s="70" t="s">
         <v>694</v>
       </c>
       <c r="W8" s="5" t="s">
@@ -12177,7 +12160,7 @@
       <c r="Q9" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="R9" s="77" t="s">
+      <c r="R9" s="70" t="s">
         <v>128</v>
       </c>
       <c r="W9" s="5" t="s">
@@ -12232,7 +12215,7 @@
       <c r="Q10" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="R10" s="77" t="s">
+      <c r="R10" s="70" t="s">
         <v>130</v>
       </c>
       <c r="W10" s="5" t="s">
@@ -12287,7 +12270,7 @@
       <c r="Q11" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="R11" s="77" t="s">
+      <c r="R11" s="70" t="s">
         <v>133</v>
       </c>
       <c r="W11" s="5" t="s">
@@ -12342,7 +12325,7 @@
       <c r="Q12" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="R12" s="77" t="s">
+      <c r="R12" s="70" t="s">
         <v>136</v>
       </c>
       <c r="W12" s="5" t="s">
@@ -12400,7 +12383,7 @@
       <c r="Q13" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="R13" s="77" t="s">
+      <c r="R13" s="70" t="s">
         <v>695</v>
       </c>
       <c r="W13" s="5" t="s">
@@ -12455,7 +12438,7 @@
       <c r="Q14" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="R14" s="77" t="s">
+      <c r="R14" s="70" t="s">
         <v>139</v>
       </c>
       <c r="W14" s="5" t="s">
@@ -12513,7 +12496,7 @@
       <c r="Q15" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="R15" s="77" t="s">
+      <c r="R15" s="70" t="s">
         <v>143</v>
       </c>
       <c r="W15" s="5" t="s">
@@ -12571,7 +12554,7 @@
       <c r="Q16" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="R16" s="77" t="s">
+      <c r="R16" s="70" t="s">
         <v>143</v>
       </c>
       <c r="W16" s="5" t="s">
@@ -12626,7 +12609,7 @@
       <c r="Q17" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="R17" s="77" t="s">
+      <c r="R17" s="70" t="s">
         <v>147</v>
       </c>
       <c r="W17" s="5" t="s">
@@ -12684,7 +12667,7 @@
       <c r="Q18" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="R18" s="77" t="s">
+      <c r="R18" s="70" t="s">
         <v>151</v>
       </c>
       <c r="W18" s="5" t="s">
@@ -12745,7 +12728,7 @@
       <c r="Q19" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="R19" s="77" t="s">
+      <c r="R19" s="70" t="s">
         <v>154</v>
       </c>
       <c r="W19" s="5" t="s">
@@ -12803,7 +12786,7 @@
       <c r="Q20" s="5" t="s">
         <v>1043</v>
       </c>
-      <c r="R20" s="77" t="s">
+      <c r="R20" s="70" t="s">
         <v>696</v>
       </c>
       <c r="W20" s="5" t="s">
@@ -12861,7 +12844,7 @@
       <c r="Q21" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="R21" s="77" t="s">
+      <c r="R21" s="70" t="s">
         <v>697</v>
       </c>
       <c r="W21" s="5" t="s">
@@ -12922,7 +12905,7 @@
       <c r="Q22" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="R22" s="77" t="s">
+      <c r="R22" s="70" t="s">
         <v>698</v>
       </c>
       <c r="W22" s="5" t="s">
@@ -12983,7 +12966,7 @@
       <c r="Q23" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="R23" s="77" t="s">
+      <c r="R23" s="70" t="s">
         <v>158</v>
       </c>
       <c r="W23" s="5" t="s">
@@ -13041,7 +13024,7 @@
       <c r="Q24" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="R24" s="77" t="s">
+      <c r="R24" s="70" t="s">
         <v>158</v>
       </c>
       <c r="W24" s="5" t="s">
@@ -13099,7 +13082,7 @@
       <c r="Q25" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="R25" s="77" t="s">
+      <c r="R25" s="70" t="s">
         <v>154</v>
       </c>
       <c r="W25" s="5" t="s">
@@ -13154,7 +13137,7 @@
       <c r="Q26" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="R26" s="77" t="s">
+      <c r="R26" s="70" t="s">
         <v>699</v>
       </c>
       <c r="W26" s="5" t="s">
@@ -13209,7 +13192,7 @@
       <c r="Q27" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="R27" s="77" t="s">
+      <c r="R27" s="70" t="s">
         <v>700</v>
       </c>
       <c r="W27" s="5" t="s">
@@ -13264,7 +13247,7 @@
       <c r="Q28" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="R28" s="77" t="s">
+      <c r="R28" s="70" t="s">
         <v>700</v>
       </c>
       <c r="W28" s="5" t="s">
@@ -13319,7 +13302,7 @@
       <c r="Q29" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="R29" s="77" t="s">
+      <c r="R29" s="70" t="s">
         <v>701</v>
       </c>
       <c r="W29" s="5" t="s">
@@ -13374,7 +13357,7 @@
       <c r="Q30" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="R30" s="77" t="s">
+      <c r="R30" s="70" t="s">
         <v>701</v>
       </c>
       <c r="W30" s="5" t="s">
@@ -13429,7 +13412,7 @@
       <c r="Q31" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="R31" s="77" t="s">
+      <c r="R31" s="70" t="s">
         <v>702</v>
       </c>
       <c r="W31" s="5" t="s">
@@ -13484,7 +13467,7 @@
       <c r="Q32" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="R32" s="77" t="s">
+      <c r="R32" s="70" t="s">
         <v>703</v>
       </c>
       <c r="W32" s="5" t="s">
@@ -13539,7 +13522,7 @@
       <c r="Q33" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="R33" s="77" t="s">
+      <c r="R33" s="70" t="s">
         <v>700</v>
       </c>
       <c r="W33" s="5" t="s">
@@ -13594,7 +13577,7 @@
       <c r="Q34" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="R34" s="77" t="s">
+      <c r="R34" s="70" t="s">
         <v>700</v>
       </c>
       <c r="W34" s="5" t="s">
@@ -13649,7 +13632,7 @@
       <c r="Q35" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="R35" s="77" t="s">
+      <c r="R35" s="70" t="s">
         <v>700</v>
       </c>
       <c r="W35" s="5" t="s">
@@ -13704,7 +13687,7 @@
       <c r="Q36" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="R36" s="77" t="s">
+      <c r="R36" s="70" t="s">
         <v>700</v>
       </c>
       <c r="W36" s="5" t="s">
@@ -13759,7 +13742,7 @@
       <c r="Q37" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="R37" s="77" t="s">
+      <c r="R37" s="70" t="s">
         <v>699</v>
       </c>
       <c r="W37" s="5" t="s">
@@ -13814,7 +13797,7 @@
       <c r="Q38" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="R38" s="77" t="s">
+      <c r="R38" s="70" t="s">
         <v>704</v>
       </c>
       <c r="W38" s="5" t="s">
@@ -13869,7 +13852,7 @@
       <c r="Q39" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="R39" s="77" t="s">
+      <c r="R39" s="70" t="s">
         <v>702</v>
       </c>
       <c r="W39" s="5" t="s">
@@ -13924,7 +13907,7 @@
       <c r="Q40" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="R40" s="77" t="s">
+      <c r="R40" s="70" t="s">
         <v>702</v>
       </c>
       <c r="W40" s="5" t="s">
@@ -13979,7 +13962,7 @@
       <c r="Q41" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="R41" s="77" t="s">
+      <c r="R41" s="70" t="s">
         <v>705</v>
       </c>
       <c r="W41" s="5" t="s">
@@ -14034,7 +14017,7 @@
       <c r="Q42" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="R42" s="77" t="s">
+      <c r="R42" s="70" t="s">
         <v>706</v>
       </c>
       <c r="W42" s="5" t="s">
@@ -14089,7 +14072,7 @@
       <c r="Q43" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="R43" s="77" t="s">
+      <c r="R43" s="70" t="s">
         <v>707</v>
       </c>
       <c r="W43" s="5" t="s">
@@ -14144,7 +14127,7 @@
       <c r="Q44" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="R44" s="77" t="s">
+      <c r="R44" s="70" t="s">
         <v>708</v>
       </c>
       <c r="W44" s="5" t="s">
@@ -14199,7 +14182,7 @@
       <c r="Q45" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="R45" s="77" t="s">
+      <c r="R45" s="70" t="s">
         <v>708</v>
       </c>
       <c r="W45" s="5" t="s">
@@ -14254,7 +14237,7 @@
       <c r="Q46" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="R46" s="77" t="s">
+      <c r="R46" s="70" t="s">
         <v>708</v>
       </c>
       <c r="W46" s="5" t="s">
@@ -14309,7 +14292,7 @@
       <c r="Q47" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="R47" s="77" t="s">
+      <c r="R47" s="70" t="s">
         <v>708</v>
       </c>
       <c r="W47" s="5" t="s">
@@ -14364,7 +14347,7 @@
       <c r="Q48" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="R48" s="77" t="s">
+      <c r="R48" s="70" t="s">
         <v>708</v>
       </c>
       <c r="W48" s="5" t="s">
@@ -14419,7 +14402,7 @@
       <c r="Q49" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="R49" s="77" t="s">
+      <c r="R49" s="70" t="s">
         <v>709</v>
       </c>
       <c r="W49" s="5" t="s">
@@ -14474,7 +14457,7 @@
       <c r="Q50" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="R50" s="77" t="s">
+      <c r="R50" s="70" t="s">
         <v>710</v>
       </c>
       <c r="W50" s="5" t="s">
@@ -14531,7 +14514,7 @@
       <c r="Q51" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="R51" s="76" t="s">
+      <c r="R51" s="69" t="s">
         <v>711</v>
       </c>
       <c r="S51" s="7"/>
@@ -14591,7 +14574,7 @@
       <c r="Q52" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="R52" s="76" t="s">
+      <c r="R52" s="69" t="s">
         <v>712</v>
       </c>
       <c r="S52" s="7"/>
@@ -14651,7 +14634,7 @@
       <c r="Q53" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="R53" s="76" t="s">
+      <c r="R53" s="69" t="s">
         <v>712</v>
       </c>
       <c r="S53" s="7"/>
@@ -14712,7 +14695,7 @@
       <c r="Q54" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="R54" s="77" t="s">
+      <c r="R54" s="70" t="s">
         <v>1045</v>
       </c>
       <c r="W54" s="5" t="s">
@@ -14767,7 +14750,7 @@
       <c r="Q55" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="R55" s="77" t="s">
+      <c r="R55" s="70" t="s">
         <v>713</v>
       </c>
       <c r="W55" s="5" t="s">
@@ -14825,7 +14808,7 @@
       <c r="Q56" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="R56" s="78" t="s">
+      <c r="R56" s="71" t="s">
         <v>714</v>
       </c>
       <c r="W56" s="22" t="s">
@@ -14883,7 +14866,7 @@
       <c r="Q57" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="R57" s="77" t="s">
+      <c r="R57" s="70" t="s">
         <v>715</v>
       </c>
       <c r="W57" s="5" t="s">
@@ -14938,7 +14921,7 @@
       <c r="Q58" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="R58" s="77" t="s">
+      <c r="R58" s="70" t="s">
         <v>700</v>
       </c>
       <c r="W58" s="5" t="s">
@@ -14993,7 +14976,7 @@
       <c r="Q59" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="R59" s="77" t="s">
+      <c r="R59" s="70" t="s">
         <v>700</v>
       </c>
       <c r="W59" s="5" t="s">
@@ -15048,7 +15031,7 @@
       <c r="Q60" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="R60" s="77" t="s">
+      <c r="R60" s="70" t="s">
         <v>700</v>
       </c>
       <c r="W60" s="5" t="s">
@@ -15103,7 +15086,7 @@
       <c r="Q61" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="R61" s="77" t="s">
+      <c r="R61" s="70" t="s">
         <v>700</v>
       </c>
       <c r="W61" s="5" t="s">
@@ -15158,7 +15141,7 @@
       <c r="Q62" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="R62" s="77" t="s">
+      <c r="R62" s="70" t="s">
         <v>699</v>
       </c>
       <c r="W62" s="5" t="s">
@@ -15213,7 +15196,7 @@
       <c r="Q63" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="R63" s="77" t="s">
+      <c r="R63" s="70" t="s">
         <v>716</v>
       </c>
       <c r="W63" s="5" t="s">
@@ -15268,7 +15251,7 @@
       <c r="Q64" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="R64" s="77" t="s">
+      <c r="R64" s="70" t="s">
         <v>717</v>
       </c>
       <c r="W64" s="5" t="s">
@@ -15323,7 +15306,7 @@
       <c r="Q65" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="R65" s="77" t="s">
+      <c r="R65" s="70" t="s">
         <v>702</v>
       </c>
       <c r="W65" s="5" t="s">
@@ -15379,7 +15362,7 @@
       <c r="P66" s="5">
         <v>600</v>
       </c>
-      <c r="R66" s="77"/>
+      <c r="R66" s="70"/>
       <c r="W66" s="5" t="s">
         <v>546</v>
       </c>
@@ -15445,7 +15428,7 @@
       <c r="Q67" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="R67" s="79" t="s">
+      <c r="R67" s="72" t="s">
         <v>1800</v>
       </c>
       <c r="W67" s="55" t="s">
@@ -15504,7 +15487,7 @@
       <c r="Q68" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="R68" s="79" t="s">
+      <c r="R68" s="72" t="s">
         <v>1801</v>
       </c>
       <c r="W68" s="55" t="s">
@@ -15563,7 +15546,7 @@
       <c r="Q69" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="R69" s="79" t="s">
+      <c r="R69" s="72" t="s">
         <v>1802</v>
       </c>
       <c r="W69" s="55" t="s">
@@ -15622,7 +15605,7 @@
       <c r="Q70" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="R70" s="79" t="s">
+      <c r="R70" s="72" t="s">
         <v>709</v>
       </c>
       <c r="W70" s="55" t="s">
@@ -15681,7 +15664,7 @@
       <c r="Q71" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="R71" s="79" t="s">
+      <c r="R71" s="72" t="s">
         <v>1803</v>
       </c>
       <c r="W71" s="55" t="s">
@@ -15737,7 +15720,7 @@
       <c r="P72" s="5">
         <v>600</v>
       </c>
-      <c r="R72" s="77"/>
+      <c r="R72" s="70"/>
       <c r="W72" s="5" t="s">
         <v>546</v>
       </c>
@@ -15803,7 +15786,7 @@
       <c r="Q73" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="R73" s="77" t="s">
+      <c r="R73" s="70" t="s">
         <v>231</v>
       </c>
       <c r="W73" s="5" t="s">
@@ -15862,7 +15845,7 @@
       <c r="Q74" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="R74" s="77" t="s">
+      <c r="R74" s="70" t="s">
         <v>233</v>
       </c>
       <c r="W74" s="5" t="s">
@@ -15921,7 +15904,7 @@
       <c r="Q75" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="R75" s="77" t="s">
+      <c r="R75" s="70" t="s">
         <v>235</v>
       </c>
       <c r="W75" s="5" t="s">
@@ -15980,7 +15963,7 @@
       <c r="Q76" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="R76" s="77" t="s">
+      <c r="R76" s="70" t="s">
         <v>242</v>
       </c>
       <c r="W76" s="5" t="s">
@@ -16036,7 +16019,7 @@
       <c r="Q77" s="19" t="s">
         <v>500</v>
       </c>
-      <c r="R77" s="80" t="s">
+      <c r="R77" s="73" t="s">
         <v>1715</v>
       </c>
       <c r="W77" s="19" t="s">
@@ -16101,7 +16084,7 @@
       <c r="Q78" s="19" t="s">
         <v>500</v>
       </c>
-      <c r="R78" s="80" t="s">
+      <c r="R78" s="73" t="s">
         <v>1714</v>
       </c>
       <c r="W78" s="19" t="s">
@@ -16166,7 +16149,7 @@
       <c r="Q79" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="R79" s="77" t="s">
+      <c r="R79" s="70" t="s">
         <v>719</v>
       </c>
       <c r="W79" s="5" t="s">
@@ -16231,7 +16214,7 @@
       <c r="Q80" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="R80" s="77" t="s">
+      <c r="R80" s="70" t="s">
         <v>720</v>
       </c>
       <c r="W80" s="5" t="s">
@@ -16299,7 +16282,7 @@
       <c r="Q81" s="19" t="s">
         <v>500</v>
       </c>
-      <c r="R81" s="80" t="s">
+      <c r="R81" s="73" t="s">
         <v>1716</v>
       </c>
       <c r="W81" s="19" t="s">
@@ -16364,7 +16347,7 @@
       <c r="Q82" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="R82" s="77" t="s">
+      <c r="R82" s="70" t="s">
         <v>721</v>
       </c>
       <c r="W82" s="5" t="s">
@@ -16420,7 +16403,7 @@
       <c r="Q83" s="5" t="s">
         <v>1118</v>
       </c>
-      <c r="R83" s="77" t="s">
+      <c r="R83" s="70" t="s">
         <v>722</v>
       </c>
       <c r="W83" s="5" t="s">
@@ -16476,7 +16459,7 @@
       <c r="Q84" s="5" t="s">
         <v>1033</v>
       </c>
-      <c r="R84" s="77" t="s">
+      <c r="R84" s="70" t="s">
         <v>723</v>
       </c>
       <c r="W84" s="5" t="s">
@@ -16532,7 +16515,7 @@
       <c r="Q85" s="5" t="s">
         <v>1119</v>
       </c>
-      <c r="R85" s="77" t="s">
+      <c r="R85" s="70" t="s">
         <v>1120</v>
       </c>
       <c r="W85" s="5" t="s">
@@ -16585,7 +16568,7 @@
       <c r="P86" s="5">
         <v>4800</v>
       </c>
-      <c r="R86" s="77"/>
+      <c r="R86" s="70"/>
       <c r="W86" s="5" t="s">
         <v>621</v>
       </c>
@@ -16639,7 +16622,7 @@
       <c r="Q87" s="5" t="s">
         <v>1119</v>
       </c>
-      <c r="R87" s="77" t="s">
+      <c r="R87" s="70" t="s">
         <v>1121</v>
       </c>
       <c r="W87" s="5" t="s">
@@ -16695,7 +16678,7 @@
       <c r="Q88" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="R88" s="77" t="s">
+      <c r="R88" s="70" t="s">
         <v>724</v>
       </c>
       <c r="W88" s="5" t="s">
@@ -16751,7 +16734,7 @@
       <c r="Q89" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="R89" s="77" t="s">
+      <c r="R89" s="70" t="s">
         <v>725</v>
       </c>
       <c r="W89" s="5" t="s">
@@ -16807,7 +16790,7 @@
       <c r="Q90" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="R90" s="77" t="s">
+      <c r="R90" s="70" t="s">
         <v>726</v>
       </c>
       <c r="W90" s="5" t="s">
@@ -16863,7 +16846,7 @@
       <c r="Q91" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="R91" s="77" t="s">
+      <c r="R91" s="70" t="s">
         <v>222</v>
       </c>
       <c r="W91" s="5" t="s">
@@ -16919,7 +16902,7 @@
       <c r="Q92" s="5" t="s">
         <v>1033</v>
       </c>
-      <c r="R92" s="77" t="s">
+      <c r="R92" s="70" t="s">
         <v>727</v>
       </c>
       <c r="W92" s="5" t="s">
@@ -16975,7 +16958,7 @@
       <c r="Q93" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="R93" s="77" t="s">
+      <c r="R93" s="70" t="s">
         <v>728</v>
       </c>
       <c r="W93" s="5" t="s">
@@ -17028,7 +17011,7 @@
       <c r="Q94" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="R94" s="79" t="s">
+      <c r="R94" s="72" t="s">
         <v>729</v>
       </c>
       <c r="W94" s="55" t="s">
@@ -17084,7 +17067,7 @@
       <c r="Q95" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="R95" s="77" t="s">
+      <c r="R95" s="70" t="s">
         <v>730</v>
       </c>
       <c r="S95" s="7"/>
@@ -17143,7 +17126,7 @@
       <c r="Q96" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="R96" s="77" t="s">
+      <c r="R96" s="70" t="s">
         <v>255</v>
       </c>
       <c r="W96" s="5" t="s">
@@ -17199,7 +17182,7 @@
       <c r="Q97" s="5" t="s">
         <v>1034</v>
       </c>
-      <c r="R97" s="77" t="s">
+      <c r="R97" s="70" t="s">
         <v>265</v>
       </c>
       <c r="T97" s="5" t="s">
@@ -17261,7 +17244,7 @@
       <c r="Q98" s="5" t="s">
         <v>1036</v>
       </c>
-      <c r="R98" s="77" t="s">
+      <c r="R98" s="70" t="s">
         <v>268</v>
       </c>
       <c r="T98" s="5" t="s">
@@ -17323,7 +17306,7 @@
       <c r="Q99" s="5" t="s">
         <v>1038</v>
       </c>
-      <c r="R99" s="77" t="s">
+      <c r="R99" s="70" t="s">
         <v>271</v>
       </c>
       <c r="T99" s="5" t="s">
@@ -17385,7 +17368,7 @@
       <c r="Q100" s="19" t="s">
         <v>586</v>
       </c>
-      <c r="R100" s="80" t="s">
+      <c r="R100" s="73" t="s">
         <v>731</v>
       </c>
       <c r="W100" s="19" t="s">
@@ -17448,7 +17431,7 @@
       <c r="Q101" s="19" t="s">
         <v>587</v>
       </c>
-      <c r="R101" s="80" t="s">
+      <c r="R101" s="73" t="s">
         <v>732</v>
       </c>
       <c r="W101" s="19" t="s">
@@ -17511,7 +17494,7 @@
       <c r="Q102" s="19" t="s">
         <v>587</v>
       </c>
-      <c r="R102" s="80" t="s">
+      <c r="R102" s="73" t="s">
         <v>733</v>
       </c>
       <c r="W102" s="19" t="s">
@@ -17574,7 +17557,7 @@
       <c r="Q103" s="19" t="s">
         <v>587</v>
       </c>
-      <c r="R103" s="80" t="s">
+      <c r="R103" s="73" t="s">
         <v>731</v>
       </c>
       <c r="W103" s="19" t="s">
@@ -17637,7 +17620,7 @@
       <c r="Q104" s="19" t="s">
         <v>587</v>
       </c>
-      <c r="R104" s="80" t="s">
+      <c r="R104" s="73" t="s">
         <v>734</v>
       </c>
       <c r="W104" s="19" t="s">
@@ -17700,7 +17683,7 @@
       <c r="Q105" s="19" t="s">
         <v>586</v>
       </c>
-      <c r="R105" s="80" t="s">
+      <c r="R105" s="73" t="s">
         <v>735</v>
       </c>
       <c r="W105" s="19" t="s">
@@ -17763,7 +17746,7 @@
       <c r="Q106" s="19" t="s">
         <v>587</v>
       </c>
-      <c r="R106" s="80" t="s">
+      <c r="R106" s="73" t="s">
         <v>731</v>
       </c>
       <c r="W106" s="19" t="s">
@@ -17826,7 +17809,7 @@
       <c r="Q107" s="19" t="s">
         <v>586</v>
       </c>
-      <c r="R107" s="80" t="s">
+      <c r="R107" s="73" t="s">
         <v>736</v>
       </c>
       <c r="W107" s="19" t="s">
@@ -17889,7 +17872,7 @@
       <c r="Q108" s="19" t="s">
         <v>587</v>
       </c>
-      <c r="R108" s="80" t="s">
+      <c r="R108" s="73" t="s">
         <v>737</v>
       </c>
       <c r="W108" s="19" t="s">
@@ -17952,7 +17935,7 @@
       <c r="Q109" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="R109" s="77" t="s">
+      <c r="R109" s="70" t="s">
         <v>279</v>
       </c>
       <c r="S109" s="7"/>
@@ -18009,7 +17992,7 @@
       <c r="Q110" s="5" t="s">
         <v>1040</v>
       </c>
-      <c r="R110" s="77" t="s">
+      <c r="R110" s="70" t="s">
         <v>281</v>
       </c>
       <c r="T110" s="5" t="s">
@@ -18071,7 +18054,7 @@
       <c r="Q111" s="5" t="s">
         <v>1034</v>
       </c>
-      <c r="R111" s="77" t="s">
+      <c r="R111" s="70" t="s">
         <v>284</v>
       </c>
       <c r="T111" s="5" t="s">
@@ -18133,7 +18116,7 @@
       <c r="Q112" s="5" t="s">
         <v>1036</v>
       </c>
-      <c r="R112" s="77" t="s">
+      <c r="R112" s="70" t="s">
         <v>287</v>
       </c>
       <c r="T112" s="5" t="s">
@@ -18195,7 +18178,7 @@
       <c r="Q113" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="R113" s="77" t="s">
+      <c r="R113" s="70" t="s">
         <v>291</v>
       </c>
       <c r="W113" s="5" t="s">
@@ -18251,7 +18234,7 @@
       <c r="Q114" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="R114" s="77" t="s">
+      <c r="R114" s="70" t="s">
         <v>293</v>
       </c>
       <c r="W114" s="5" t="s">
@@ -18307,7 +18290,7 @@
       <c r="Q115" s="5" t="s">
         <v>1033</v>
       </c>
-      <c r="R115" s="77" t="s">
+      <c r="R115" s="70" t="s">
         <v>295</v>
       </c>
       <c r="W115" s="5" t="s">
@@ -18363,7 +18346,7 @@
       <c r="Q116" s="5" t="s">
         <v>1033</v>
       </c>
-      <c r="R116" s="77" t="s">
+      <c r="R116" s="70" t="s">
         <v>297</v>
       </c>
       <c r="T116" s="5" t="s">
@@ -18425,7 +18408,7 @@
       <c r="Q117" s="5" t="s">
         <v>1034</v>
       </c>
-      <c r="R117" s="77" t="s">
+      <c r="R117" s="70" t="s">
         <v>268</v>
       </c>
       <c r="T117" s="5" t="s">
@@ -18487,7 +18470,7 @@
       <c r="Q118" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="R118" s="77" t="s">
+      <c r="R118" s="70" t="s">
         <v>301</v>
       </c>
       <c r="W118" s="5" t="s">
@@ -18543,7 +18526,7 @@
       <c r="Q119" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="R119" s="77" t="s">
+      <c r="R119" s="70" t="s">
         <v>304</v>
       </c>
       <c r="W119" s="5" t="s">
@@ -18599,7 +18582,7 @@
       <c r="Q120" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="R120" s="77" t="s">
+      <c r="R120" s="70" t="s">
         <v>307</v>
       </c>
       <c r="W120" s="5" t="s">
@@ -18655,7 +18638,7 @@
       <c r="Q121" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="R121" s="77" t="s">
+      <c r="R121" s="70" t="s">
         <v>310</v>
       </c>
       <c r="S121" s="5" t="s">
@@ -18714,7 +18697,7 @@
       <c r="Q122" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="R122" s="77" t="s">
+      <c r="R122" s="70" t="s">
         <v>313</v>
       </c>
       <c r="S122" s="5" t="s">
@@ -18773,7 +18756,7 @@
       <c r="Q123" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="R123" s="77" t="s">
+      <c r="R123" s="70" t="s">
         <v>316</v>
       </c>
       <c r="S123" s="5" t="s">
@@ -18832,7 +18815,7 @@
       <c r="Q124" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="R124" s="77" t="s">
+      <c r="R124" s="70" t="s">
         <v>310</v>
       </c>
       <c r="W124" s="5" t="s">
@@ -18888,7 +18871,7 @@
       <c r="Q125" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="R125" s="77" t="s">
+      <c r="R125" s="70" t="s">
         <v>319</v>
       </c>
       <c r="W125" s="5" t="s">
@@ -18944,7 +18927,7 @@
       <c r="Q126" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="R126" s="77" t="s">
+      <c r="R126" s="70" t="s">
         <v>321</v>
       </c>
       <c r="W126" s="5" t="s">
@@ -19000,7 +18983,7 @@
       <c r="Q127" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="R127" s="77" t="s">
+      <c r="R127" s="70" t="s">
         <v>324</v>
       </c>
       <c r="T127" s="5" t="s">
@@ -19065,7 +19048,7 @@
       <c r="Q128" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="R128" s="79" t="s">
+      <c r="R128" s="72" t="s">
         <v>1804</v>
       </c>
       <c r="W128" s="55" t="s">
@@ -19124,7 +19107,7 @@
       <c r="Q129" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="R129" s="79" t="s">
+      <c r="R129" s="72" t="s">
         <v>1805</v>
       </c>
       <c r="W129" s="55" t="s">
@@ -19180,7 +19163,7 @@
       <c r="Q130" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="R130" s="77" t="s">
+      <c r="R130" s="70" t="s">
         <v>330</v>
       </c>
       <c r="W130" s="5" t="s">
@@ -19242,7 +19225,7 @@
       <c r="Q131" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="R131" s="77" t="s">
+      <c r="R131" s="70" t="s">
         <v>331</v>
       </c>
       <c r="W131" s="5" t="s">
@@ -19304,7 +19287,7 @@
       <c r="Q132" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="R132" s="77" t="s">
+      <c r="R132" s="70" t="s">
         <v>333</v>
       </c>
       <c r="W132" s="5" t="s">
@@ -19366,7 +19349,7 @@
       <c r="Q133" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="R133" s="77" t="s">
+      <c r="R133" s="70" t="s">
         <v>738</v>
       </c>
       <c r="W133" s="5" t="s">
@@ -19428,7 +19411,7 @@
       <c r="Q134" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="R134" s="77" t="s">
+      <c r="R134" s="70" t="s">
         <v>739</v>
       </c>
       <c r="W134" s="5" t="s">
@@ -19490,7 +19473,7 @@
       <c r="Q135" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="R135" s="77" t="s">
+      <c r="R135" s="70" t="s">
         <v>740</v>
       </c>
       <c r="W135" s="5" t="s">
@@ -19554,7 +19537,7 @@
       <c r="Q136" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="R136" s="77" t="s">
+      <c r="R136" s="70" t="s">
         <v>741</v>
       </c>
       <c r="W136" s="5" t="s">
@@ -19615,7 +19598,7 @@
       <c r="Q137" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="R137" s="77" t="s">
+      <c r="R137" s="70" t="s">
         <v>742</v>
       </c>
       <c r="W137" s="5" t="s">
@@ -19676,7 +19659,7 @@
       <c r="Q138" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="R138" s="77" t="s">
+      <c r="R138" s="70" t="s">
         <v>743</v>
       </c>
       <c r="W138" s="5" t="s">
@@ -19737,7 +19720,7 @@
       <c r="Q139" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="R139" s="77" t="s">
+      <c r="R139" s="70" t="s">
         <v>743</v>
       </c>
       <c r="W139" s="5" t="s">
@@ -19798,7 +19781,7 @@
       <c r="Q140" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="R140" s="77" t="s">
+      <c r="R140" s="70" t="s">
         <v>744</v>
       </c>
       <c r="W140" s="5" t="s">
@@ -19859,7 +19842,7 @@
       <c r="Q141" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="R141" s="77" t="s">
+      <c r="R141" s="70" t="s">
         <v>745</v>
       </c>
       <c r="W141" s="5" t="s">
@@ -19918,7 +19901,7 @@
       <c r="Q142" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="R142" s="77" t="s">
+      <c r="R142" s="70" t="s">
         <v>330</v>
       </c>
       <c r="W142" s="5" t="s">
@@ -19980,7 +19963,7 @@
       <c r="Q143" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="R143" s="77" t="s">
+      <c r="R143" s="70" t="s">
         <v>336</v>
       </c>
       <c r="W143" s="5" t="s">
@@ -20042,7 +20025,7 @@
       <c r="Q144" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="R144" s="77" t="s">
+      <c r="R144" s="70" t="s">
         <v>341</v>
       </c>
       <c r="W144" s="5" t="s">
@@ -20109,7 +20092,7 @@
       <c r="Q145" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="R145" s="77" t="s">
+      <c r="R145" s="70" t="s">
         <v>746</v>
       </c>
       <c r="T145" s="5" t="s">
@@ -20176,7 +20159,7 @@
       <c r="Q146" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="R146" s="77" t="s">
+      <c r="R146" s="70" t="s">
         <v>747</v>
       </c>
       <c r="T146" s="5" t="s">
@@ -20243,7 +20226,7 @@
       <c r="Q147" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="R147" s="77" t="s">
+      <c r="R147" s="70" t="s">
         <v>748</v>
       </c>
       <c r="T147" s="5" t="s">
@@ -20310,7 +20293,7 @@
       <c r="Q148" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="R148" s="77" t="s">
+      <c r="R148" s="70" t="s">
         <v>749</v>
       </c>
       <c r="T148" s="5" t="s">
@@ -20377,7 +20360,7 @@
       <c r="Q149" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="R149" s="77" t="s">
+      <c r="R149" s="70" t="s">
         <v>750</v>
       </c>
       <c r="T149" s="5" t="s">
@@ -20439,7 +20422,7 @@
       <c r="Q150" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="R150" s="77" t="s">
+      <c r="R150" s="70" t="s">
         <v>330</v>
       </c>
       <c r="W150" s="5" t="s">
@@ -20501,7 +20484,7 @@
       <c r="Q151" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="R151" s="77" t="s">
+      <c r="R151" s="70" t="s">
         <v>336</v>
       </c>
       <c r="W151" s="5" t="s">
@@ -20563,7 +20546,7 @@
       <c r="Q152" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="R152" s="77" t="s">
+      <c r="R152" s="70" t="s">
         <v>341</v>
       </c>
       <c r="W152" s="5" t="s">
@@ -20625,7 +20608,7 @@
       <c r="Q153" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="R153" s="77" t="s">
+      <c r="R153" s="70" t="s">
         <v>751</v>
       </c>
       <c r="T153" s="5" t="s">
@@ -20687,7 +20670,7 @@
       <c r="Q154" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="R154" s="77" t="s">
+      <c r="R154" s="70" t="s">
         <v>752</v>
       </c>
       <c r="T154" s="5" t="s">
@@ -20749,7 +20732,7 @@
       <c r="Q155" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="R155" s="77" t="s">
+      <c r="R155" s="70" t="s">
         <v>753</v>
       </c>
       <c r="T155" s="5" t="s">
@@ -20811,7 +20794,7 @@
       <c r="Q156" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="R156" s="77" t="s">
+      <c r="R156" s="70" t="s">
         <v>754</v>
       </c>
       <c r="T156" s="5" t="s">
@@ -20873,7 +20856,7 @@
       <c r="Q157" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="R157" s="77" t="s">
+      <c r="R157" s="70" t="s">
         <v>755</v>
       </c>
       <c r="T157" s="5" t="s">
@@ -20935,7 +20918,7 @@
       <c r="Q158" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="R158" s="77" t="s">
+      <c r="R158" s="70" t="s">
         <v>356</v>
       </c>
       <c r="W158" s="5" t="s">
@@ -20997,7 +20980,7 @@
       <c r="Q159" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="R159" s="77" t="s">
+      <c r="R159" s="70" t="s">
         <v>358</v>
       </c>
       <c r="W159" s="5" t="s">
@@ -21059,7 +21042,7 @@
       <c r="Q160" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="R160" s="77" t="s">
+      <c r="R160" s="70" t="s">
         <v>360</v>
       </c>
       <c r="W160" s="5" t="s">
@@ -21121,7 +21104,7 @@
       <c r="Q161" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="R161" s="77" t="s">
+      <c r="R161" s="70" t="s">
         <v>356</v>
       </c>
       <c r="W161" s="5" t="s">
@@ -21183,7 +21166,7 @@
       <c r="Q162" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="R162" s="77" t="s">
+      <c r="R162" s="70" t="s">
         <v>358</v>
       </c>
       <c r="W162" s="5" t="s">
@@ -21245,7 +21228,7 @@
       <c r="Q163" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="R163" s="77" t="s">
+      <c r="R163" s="70" t="s">
         <v>360</v>
       </c>
       <c r="W163" s="5" t="s">
@@ -21310,7 +21293,7 @@
       <c r="Q164" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="R164" s="77" t="s">
+      <c r="R164" s="70" t="s">
         <v>815</v>
       </c>
       <c r="W164" s="5" t="s">
@@ -21372,7 +21355,7 @@
       <c r="Q165" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="R165" s="77" t="s">
+      <c r="R165" s="70" t="s">
         <v>356</v>
       </c>
       <c r="W165" s="5" t="s">
@@ -21434,7 +21417,7 @@
       <c r="Q166" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="R166" s="77" t="s">
+      <c r="R166" s="70" t="s">
         <v>358</v>
       </c>
       <c r="W166" s="5" t="s">
@@ -21496,7 +21479,7 @@
       <c r="Q167" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="R167" s="77" t="s">
+      <c r="R167" s="70" t="s">
         <v>360</v>
       </c>
       <c r="W167" s="5" t="s">
@@ -21558,7 +21541,7 @@
       <c r="Q168" s="19" t="s">
         <v>1091</v>
       </c>
-      <c r="R168" s="80" t="s">
+      <c r="R168" s="73" t="s">
         <v>1092</v>
       </c>
       <c r="W168" s="19" t="s">
@@ -21623,7 +21606,7 @@
       <c r="Q169" s="19" t="s">
         <v>1091</v>
       </c>
-      <c r="R169" s="80" t="s">
+      <c r="R169" s="73" t="s">
         <v>1093</v>
       </c>
       <c r="W169" s="19" t="s">
@@ -21685,7 +21668,7 @@
       <c r="Q170" s="19" t="s">
         <v>1091</v>
       </c>
-      <c r="R170" s="80" t="s">
+      <c r="R170" s="73" t="s">
         <v>1094</v>
       </c>
       <c r="W170" s="19" t="s">
@@ -21750,7 +21733,7 @@
       <c r="Q171" s="43" t="s">
         <v>1049</v>
       </c>
-      <c r="R171" s="81" t="s">
+      <c r="R171" s="74" t="s">
         <v>756</v>
       </c>
       <c r="W171" s="43" t="s">
@@ -21818,7 +21801,7 @@
       <c r="Q172" s="43" t="s">
         <v>1050</v>
       </c>
-      <c r="R172" s="81" t="s">
+      <c r="R172" s="74" t="s">
         <v>757</v>
       </c>
       <c r="W172" s="43" t="s">
@@ -21886,7 +21869,7 @@
       <c r="Q173" s="43" t="s">
         <v>1049</v>
       </c>
-      <c r="R173" s="81" t="s">
+      <c r="R173" s="74" t="s">
         <v>758</v>
       </c>
       <c r="W173" s="43" t="s">
@@ -21954,7 +21937,7 @@
       <c r="Q174" s="43" t="s">
         <v>1050</v>
       </c>
-      <c r="R174" s="81" t="s">
+      <c r="R174" s="74" t="s">
         <v>759</v>
       </c>
       <c r="W174" s="43" t="s">
@@ -22022,7 +22005,7 @@
       <c r="Q175" s="43" t="s">
         <v>1055</v>
       </c>
-      <c r="R175" s="81" t="s">
+      <c r="R175" s="74" t="s">
         <v>1057</v>
       </c>
       <c r="W175" s="43" t="s">
@@ -22090,7 +22073,7 @@
       <c r="Q176" s="43" t="s">
         <v>1052</v>
       </c>
-      <c r="R176" s="81" t="s">
+      <c r="R176" s="74" t="s">
         <v>760</v>
       </c>
       <c r="W176" s="43" t="s">
@@ -22158,7 +22141,7 @@
       <c r="Q177" s="43" t="s">
         <v>1352</v>
       </c>
-      <c r="R177" s="81" t="s">
+      <c r="R177" s="74" t="s">
         <v>761</v>
       </c>
       <c r="W177" s="43" t="s">
@@ -22226,7 +22209,7 @@
       <c r="Q178" s="43" t="s">
         <v>1055</v>
       </c>
-      <c r="R178" s="81" t="s">
+      <c r="R178" s="74" t="s">
         <v>762</v>
       </c>
       <c r="W178" s="43" t="s">
@@ -22294,7 +22277,7 @@
       <c r="Q179" s="43" t="s">
         <v>1055</v>
       </c>
-      <c r="R179" s="81" t="s">
+      <c r="R179" s="74" t="s">
         <v>763</v>
       </c>
       <c r="W179" s="43" t="s">
@@ -22362,7 +22345,7 @@
       <c r="Q180" s="43" t="s">
         <v>1055</v>
       </c>
-      <c r="R180" s="81" t="s">
+      <c r="R180" s="74" t="s">
         <v>762</v>
       </c>
       <c r="W180" s="43" t="s">
@@ -22430,7 +22413,7 @@
       <c r="Q181" s="43" t="s">
         <v>1056</v>
       </c>
-      <c r="R181" s="81" t="s">
+      <c r="R181" s="74" t="s">
         <v>764</v>
       </c>
       <c r="W181" s="43" t="s">
@@ -22498,7 +22481,7 @@
       <c r="Q182" s="43" t="s">
         <v>1053</v>
       </c>
-      <c r="R182" s="81" t="s">
+      <c r="R182" s="74" t="s">
         <v>765</v>
       </c>
       <c r="W182" s="43" t="s">
@@ -22566,7 +22549,7 @@
       <c r="Q183" s="43" t="s">
         <v>1053</v>
       </c>
-      <c r="R183" s="81" t="s">
+      <c r="R183" s="74" t="s">
         <v>763</v>
       </c>
       <c r="W183" s="43" t="s">
@@ -22634,7 +22617,7 @@
       <c r="Q184" s="43" t="s">
         <v>1055</v>
       </c>
-      <c r="R184" s="81" t="s">
+      <c r="R184" s="74" t="s">
         <v>766</v>
       </c>
       <c r="W184" s="43" t="s">
@@ -22702,7 +22685,7 @@
       <c r="Q185" s="43" t="s">
         <v>1052</v>
       </c>
-      <c r="R185" s="81" t="s">
+      <c r="R185" s="74" t="s">
         <v>767</v>
       </c>
       <c r="W185" s="43" t="s">
@@ -22767,7 +22750,7 @@
       <c r="Q186" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="R186" s="77" t="s">
+      <c r="R186" s="70" t="s">
         <v>816</v>
       </c>
       <c r="T186" s="5" t="s">
@@ -22829,7 +22812,7 @@
       <c r="Q187" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="R187" s="77" t="s">
+      <c r="R187" s="70" t="s">
         <v>370</v>
       </c>
       <c r="W187" s="5" t="s">
@@ -22894,7 +22877,7 @@
       <c r="Q188" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="R188" s="77" t="s">
+      <c r="R188" s="70" t="s">
         <v>372</v>
       </c>
       <c r="W188" s="5" t="s">
@@ -22959,7 +22942,7 @@
       <c r="Q189" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="R189" s="77" t="s">
+      <c r="R189" s="70" t="s">
         <v>374</v>
       </c>
       <c r="W189" s="5" t="s">
@@ -23024,7 +23007,7 @@
       <c r="Q190" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="R190" s="77" t="s">
+      <c r="R190" s="70" t="s">
         <v>376</v>
       </c>
       <c r="W190" s="5" t="s">
@@ -23089,7 +23072,7 @@
       <c r="Q191" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="R191" s="77" t="s">
+      <c r="R191" s="70" t="s">
         <v>378</v>
       </c>
       <c r="W191" s="5" t="s">
@@ -23154,7 +23137,7 @@
       <c r="Q192" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="R192" s="77" t="s">
+      <c r="R192" s="70" t="s">
         <v>380</v>
       </c>
       <c r="W192" s="5" t="s">
@@ -23219,7 +23202,7 @@
       <c r="Q193" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="R193" s="77" t="s">
+      <c r="R193" s="70" t="s">
         <v>382</v>
       </c>
       <c r="W193" s="5" t="s">
@@ -23284,7 +23267,7 @@
       <c r="Q194" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="R194" s="77" t="s">
+      <c r="R194" s="70" t="s">
         <v>384</v>
       </c>
       <c r="W194" s="5" t="s">
@@ -23349,7 +23332,7 @@
       <c r="Q195" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="R195" s="77" t="s">
+      <c r="R195" s="70" t="s">
         <v>386</v>
       </c>
       <c r="W195" s="5" t="s">
@@ -23414,7 +23397,7 @@
       <c r="Q196" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="R196" s="77" t="s">
+      <c r="R196" s="70" t="s">
         <v>388</v>
       </c>
       <c r="W196" s="5" t="s">
@@ -23479,7 +23462,7 @@
       <c r="Q197" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="R197" s="77" t="s">
+      <c r="R197" s="70" t="s">
         <v>390</v>
       </c>
       <c r="W197" s="5" t="s">
@@ -23544,7 +23527,7 @@
       <c r="Q198" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="R198" s="77" t="s">
+      <c r="R198" s="70" t="s">
         <v>392</v>
       </c>
       <c r="W198" s="5" t="s">
@@ -23609,7 +23592,7 @@
       <c r="Q199" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="R199" s="77" t="s">
+      <c r="R199" s="70" t="s">
         <v>390</v>
       </c>
       <c r="W199" s="5" t="s">
@@ -23674,7 +23657,7 @@
       <c r="Q200" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="R200" s="77" t="s">
+      <c r="R200" s="70" t="s">
         <v>392</v>
       </c>
       <c r="W200" s="5" t="s">
@@ -23739,7 +23722,7 @@
       <c r="Q201" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="R201" s="77" t="s">
+      <c r="R201" s="70" t="s">
         <v>396</v>
       </c>
       <c r="W201" s="5" t="s">
@@ -23804,7 +23787,7 @@
       <c r="Q202" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="R202" s="77" t="s">
+      <c r="R202" s="70" t="s">
         <v>370</v>
       </c>
       <c r="W202" s="5" t="s">
@@ -23869,7 +23852,7 @@
       <c r="Q203" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="R203" s="77" t="s">
+      <c r="R203" s="70" t="s">
         <v>372</v>
       </c>
       <c r="W203" s="5" t="s">
@@ -23934,7 +23917,7 @@
       <c r="Q204" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="R204" s="77" t="s">
+      <c r="R204" s="70" t="s">
         <v>374</v>
       </c>
       <c r="W204" s="5" t="s">
@@ -23999,7 +23982,7 @@
       <c r="Q205" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="R205" s="77" t="s">
+      <c r="R205" s="70" t="s">
         <v>376</v>
       </c>
       <c r="W205" s="5" t="s">
@@ -24064,7 +24047,7 @@
       <c r="Q206" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="R206" s="77" t="s">
+      <c r="R206" s="70" t="s">
         <v>378</v>
       </c>
       <c r="W206" s="5" t="s">
@@ -24129,7 +24112,7 @@
       <c r="Q207" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="R207" s="77" t="s">
+      <c r="R207" s="70" t="s">
         <v>380</v>
       </c>
       <c r="W207" s="5" t="s">
@@ -24194,7 +24177,7 @@
       <c r="Q208" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="R208" s="77" t="s">
+      <c r="R208" s="70" t="s">
         <v>382</v>
       </c>
       <c r="W208" s="5" t="s">
@@ -24259,7 +24242,7 @@
       <c r="Q209" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="R209" s="77" t="s">
+      <c r="R209" s="70" t="s">
         <v>384</v>
       </c>
       <c r="W209" s="5" t="s">
@@ -24324,7 +24307,7 @@
       <c r="Q210" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="R210" s="77" t="s">
+      <c r="R210" s="70" t="s">
         <v>386</v>
       </c>
       <c r="W210" s="5" t="s">
@@ -24389,7 +24372,7 @@
       <c r="Q211" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="R211" s="77" t="s">
+      <c r="R211" s="70" t="s">
         <v>388</v>
       </c>
       <c r="W211" s="5" t="s">
@@ -24454,7 +24437,7 @@
       <c r="Q212" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="R212" s="77" t="s">
+      <c r="R212" s="70" t="s">
         <v>390</v>
       </c>
       <c r="W212" s="5" t="s">
@@ -24519,7 +24502,7 @@
       <c r="Q213" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="R213" s="77" t="s">
+      <c r="R213" s="70" t="s">
         <v>392</v>
       </c>
       <c r="W213" s="5" t="s">
@@ -24584,7 +24567,7 @@
       <c r="Q214" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="R214" s="77" t="s">
+      <c r="R214" s="70" t="s">
         <v>390</v>
       </c>
       <c r="W214" s="5" t="s">
@@ -24649,7 +24632,7 @@
       <c r="Q215" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="R215" s="77" t="s">
+      <c r="R215" s="70" t="s">
         <v>392</v>
       </c>
       <c r="W215" s="5" t="s">
@@ -24714,7 +24697,7 @@
       <c r="Q216" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="R216" s="77" t="s">
+      <c r="R216" s="70" t="s">
         <v>396</v>
       </c>
       <c r="W216" s="5" t="s">
@@ -24779,7 +24762,7 @@
       <c r="Q217" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="R217" s="77" t="s">
+      <c r="R217" s="70" t="s">
         <v>370</v>
       </c>
       <c r="W217" s="5" t="s">
@@ -24844,7 +24827,7 @@
       <c r="Q218" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="R218" s="77" t="s">
+      <c r="R218" s="70" t="s">
         <v>372</v>
       </c>
       <c r="W218" s="5" t="s">
@@ -24909,7 +24892,7 @@
       <c r="Q219" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="R219" s="77" t="s">
+      <c r="R219" s="70" t="s">
         <v>374</v>
       </c>
       <c r="W219" s="5" t="s">
@@ -24974,7 +24957,7 @@
       <c r="Q220" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="R220" s="77" t="s">
+      <c r="R220" s="70" t="s">
         <v>376</v>
       </c>
       <c r="W220" s="5" t="s">
@@ -25039,7 +25022,7 @@
       <c r="Q221" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="R221" s="77" t="s">
+      <c r="R221" s="70" t="s">
         <v>378</v>
       </c>
       <c r="W221" s="5" t="s">
@@ -25104,7 +25087,7 @@
       <c r="Q222" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="R222" s="77" t="s">
+      <c r="R222" s="70" t="s">
         <v>380</v>
       </c>
       <c r="W222" s="5" t="s">
@@ -25169,7 +25152,7 @@
       <c r="Q223" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="R223" s="77" t="s">
+      <c r="R223" s="70" t="s">
         <v>382</v>
       </c>
       <c r="W223" s="5" t="s">
@@ -25234,7 +25217,7 @@
       <c r="Q224" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="R224" s="77" t="s">
+      <c r="R224" s="70" t="s">
         <v>384</v>
       </c>
       <c r="W224" s="5" t="s">
@@ -25299,7 +25282,7 @@
       <c r="Q225" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="R225" s="77" t="s">
+      <c r="R225" s="70" t="s">
         <v>386</v>
       </c>
       <c r="W225" s="5" t="s">
@@ -25364,7 +25347,7 @@
       <c r="Q226" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="R226" s="77" t="s">
+      <c r="R226" s="70" t="s">
         <v>388</v>
       </c>
       <c r="W226" s="5" t="s">
@@ -25429,7 +25412,7 @@
       <c r="Q227" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="R227" s="77" t="s">
+      <c r="R227" s="70" t="s">
         <v>390</v>
       </c>
       <c r="W227" s="5" t="s">
@@ -25494,7 +25477,7 @@
       <c r="Q228" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="R228" s="77" t="s">
+      <c r="R228" s="70" t="s">
         <v>392</v>
       </c>
       <c r="W228" s="5" t="s">
@@ -25559,7 +25542,7 @@
       <c r="Q229" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="R229" s="77" t="s">
+      <c r="R229" s="70" t="s">
         <v>390</v>
       </c>
       <c r="W229" s="5" t="s">
@@ -25624,7 +25607,7 @@
       <c r="Q230" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="R230" s="77" t="s">
+      <c r="R230" s="70" t="s">
         <v>392</v>
       </c>
       <c r="W230" s="5" t="s">
@@ -25689,7 +25672,7 @@
       <c r="Q231" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="R231" s="77" t="s">
+      <c r="R231" s="70" t="s">
         <v>396</v>
       </c>
       <c r="W231" s="5" t="s">
@@ -25754,7 +25737,7 @@
       <c r="Q232" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="R232" s="77" t="s">
+      <c r="R232" s="70" t="s">
         <v>370</v>
       </c>
       <c r="W232" s="5" t="s">
@@ -25819,7 +25802,7 @@
       <c r="Q233" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="R233" s="77" t="s">
+      <c r="R233" s="70" t="s">
         <v>372</v>
       </c>
       <c r="W233" s="5" t="s">
@@ -25884,7 +25867,7 @@
       <c r="Q234" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="R234" s="77" t="s">
+      <c r="R234" s="70" t="s">
         <v>374</v>
       </c>
       <c r="W234" s="5" t="s">
@@ -25949,7 +25932,7 @@
       <c r="Q235" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="R235" s="77" t="s">
+      <c r="R235" s="70" t="s">
         <v>376</v>
       </c>
       <c r="W235" s="5" t="s">
@@ -26014,7 +25997,7 @@
       <c r="Q236" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="R236" s="77" t="s">
+      <c r="R236" s="70" t="s">
         <v>378</v>
       </c>
       <c r="W236" s="5" t="s">
@@ -26079,7 +26062,7 @@
       <c r="Q237" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="R237" s="77" t="s">
+      <c r="R237" s="70" t="s">
         <v>380</v>
       </c>
       <c r="W237" s="5" t="s">
@@ -26144,7 +26127,7 @@
       <c r="Q238" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="R238" s="77" t="s">
+      <c r="R238" s="70" t="s">
         <v>382</v>
       </c>
       <c r="W238" s="5" t="s">
@@ -26209,7 +26192,7 @@
       <c r="Q239" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="R239" s="77" t="s">
+      <c r="R239" s="70" t="s">
         <v>384</v>
       </c>
       <c r="W239" s="5" t="s">
@@ -26274,7 +26257,7 @@
       <c r="Q240" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="R240" s="77" t="s">
+      <c r="R240" s="70" t="s">
         <v>386</v>
       </c>
       <c r="W240" s="5" t="s">
@@ -26339,7 +26322,7 @@
       <c r="Q241" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="R241" s="77" t="s">
+      <c r="R241" s="70" t="s">
         <v>388</v>
       </c>
       <c r="W241" s="5" t="s">
@@ -26404,7 +26387,7 @@
       <c r="Q242" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="R242" s="77" t="s">
+      <c r="R242" s="70" t="s">
         <v>390</v>
       </c>
       <c r="W242" s="5" t="s">
@@ -26469,7 +26452,7 @@
       <c r="Q243" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="R243" s="77" t="s">
+      <c r="R243" s="70" t="s">
         <v>392</v>
       </c>
       <c r="W243" s="5" t="s">
@@ -26534,7 +26517,7 @@
       <c r="Q244" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="R244" s="77" t="s">
+      <c r="R244" s="70" t="s">
         <v>390</v>
       </c>
       <c r="W244" s="5" t="s">
@@ -26599,7 +26582,7 @@
       <c r="Q245" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="R245" s="77" t="s">
+      <c r="R245" s="70" t="s">
         <v>392</v>
       </c>
       <c r="W245" s="5" t="s">
@@ -26664,7 +26647,7 @@
       <c r="Q246" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="R246" s="77" t="s">
+      <c r="R246" s="70" t="s">
         <v>396</v>
       </c>
       <c r="W246" s="5" t="s">
@@ -26731,7 +26714,7 @@
       <c r="Q247" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="R247" s="77" t="s">
+      <c r="R247" s="70" t="s">
         <v>768</v>
       </c>
       <c r="W247" s="5" t="s">
@@ -26798,7 +26781,7 @@
       <c r="Q248" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="R248" s="77" t="s">
+      <c r="R248" s="70" t="s">
         <v>769</v>
       </c>
       <c r="W248" s="5" t="s">
@@ -26865,7 +26848,7 @@
       <c r="Q249" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="R249" s="77" t="s">
+      <c r="R249" s="70" t="s">
         <v>770</v>
       </c>
       <c r="W249" s="5" t="s">
@@ -26932,7 +26915,7 @@
       <c r="Q250" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="R250" s="80" t="s">
+      <c r="R250" s="73" t="s">
         <v>1065</v>
       </c>
       <c r="W250" s="19" t="s">
@@ -26994,7 +26977,7 @@
       <c r="Q251" s="5" t="s">
         <v>1109</v>
       </c>
-      <c r="R251" s="77" t="s">
+      <c r="R251" s="70" t="s">
         <v>817</v>
       </c>
       <c r="T251" s="5" t="s">
@@ -27062,7 +27045,7 @@
       <c r="Q252" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="R252" s="77" t="s">
+      <c r="R252" s="70" t="s">
         <v>771</v>
       </c>
       <c r="W252" s="5" t="s">
@@ -27124,7 +27107,7 @@
       <c r="Q253" s="5" t="s">
         <v>1361</v>
       </c>
-      <c r="R253" s="77" t="s">
+      <c r="R253" s="70" t="s">
         <v>818</v>
       </c>
       <c r="W253" s="5" t="s">
@@ -27186,7 +27169,7 @@
       <c r="Q254" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="R254" s="77" t="s">
+      <c r="R254" s="70" t="s">
         <v>819</v>
       </c>
       <c r="W254" s="5" t="s">
@@ -27251,7 +27234,7 @@
       <c r="Q255" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="R255" s="77" t="s">
+      <c r="R255" s="70" t="s">
         <v>772</v>
       </c>
       <c r="W255" s="5" t="s">
@@ -27316,7 +27299,7 @@
       <c r="Q256" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="R256" s="77" t="s">
+      <c r="R256" s="70" t="s">
         <v>773</v>
       </c>
       <c r="W256" s="5" t="s">
@@ -27381,7 +27364,7 @@
       <c r="Q257" s="5" t="s">
         <v>604</v>
       </c>
-      <c r="R257" s="77" t="s">
+      <c r="R257" s="70" t="s">
         <v>774</v>
       </c>
       <c r="T257" s="5" t="s">
@@ -27449,7 +27432,7 @@
       <c r="Q258" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="R258" s="77" t="s">
+      <c r="R258" s="70" t="s">
         <v>517</v>
       </c>
       <c r="W258" s="5" t="s">
@@ -27514,7 +27497,7 @@
       <c r="Q259" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="R259" s="77" t="s">
+      <c r="R259" s="70" t="s">
         <v>518</v>
       </c>
       <c r="W259" s="5" t="s">
@@ -27579,7 +27562,7 @@
       <c r="Q260" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="R260" s="77" t="s">
+      <c r="R260" s="70" t="s">
         <v>519</v>
       </c>
       <c r="W260" s="5" t="s">
@@ -27644,7 +27627,7 @@
       <c r="Q261" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="R261" s="77" t="s">
+      <c r="R261" s="70" t="s">
         <v>519</v>
       </c>
       <c r="W261" s="5" t="s">
@@ -27709,7 +27692,7 @@
       <c r="Q262" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="R262" s="77" t="s">
+      <c r="R262" s="70" t="s">
         <v>520</v>
       </c>
       <c r="W262" s="5" t="s">
@@ -27774,7 +27757,7 @@
       <c r="Q263" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="R263" s="77" t="s">
+      <c r="R263" s="70" t="s">
         <v>521</v>
       </c>
       <c r="W263" s="5" t="s">
@@ -27839,7 +27822,7 @@
       <c r="Q264" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="R264" s="77" t="s">
+      <c r="R264" s="70" t="s">
         <v>521</v>
       </c>
       <c r="W264" s="5" t="s">
@@ -27904,7 +27887,7 @@
       <c r="Q265" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="R265" s="77" t="s">
+      <c r="R265" s="70" t="s">
         <v>522</v>
       </c>
       <c r="W265" s="5" t="s">
@@ -27969,7 +27952,7 @@
       <c r="Q266" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="R266" s="77" t="s">
+      <c r="R266" s="70" t="s">
         <v>523</v>
       </c>
       <c r="W266" s="5" t="s">
@@ -28034,7 +28017,7 @@
       <c r="Q267" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="R267" s="77" t="s">
+      <c r="R267" s="70" t="s">
         <v>522</v>
       </c>
       <c r="W267" s="5" t="s">
@@ -28099,7 +28082,7 @@
       <c r="Q268" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="R268" s="77" t="s">
+      <c r="R268" s="70" t="s">
         <v>523</v>
       </c>
       <c r="W268" s="5" t="s">
@@ -28164,7 +28147,7 @@
       <c r="Q269" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="R269" s="77" t="s">
+      <c r="R269" s="70" t="s">
         <v>524</v>
       </c>
       <c r="W269" s="5" t="s">
@@ -28229,7 +28212,7 @@
       <c r="Q270" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="R270" s="77" t="s">
+      <c r="R270" s="70" t="s">
         <v>523</v>
       </c>
       <c r="W270" s="5" t="s">
@@ -28294,7 +28277,7 @@
       <c r="Q271" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="R271" s="77" t="s">
+      <c r="R271" s="70" t="s">
         <v>524</v>
       </c>
       <c r="W271" s="5" t="s">
@@ -28359,7 +28342,7 @@
       <c r="Q272" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="R272" s="77" t="s">
+      <c r="R272" s="70" t="s">
         <v>525</v>
       </c>
       <c r="W272" s="5" t="s">
@@ -28427,7 +28410,7 @@
       <c r="Q273" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="R273" s="82" t="s">
+      <c r="R273" s="75" t="s">
         <v>1806</v>
       </c>
       <c r="W273" s="58" t="s">
@@ -28488,7 +28471,7 @@
       <c r="Q274" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="R274" s="77" t="s">
+      <c r="R274" s="70" t="s">
         <v>775</v>
       </c>
       <c r="S274" s="5"/>
@@ -28560,7 +28543,7 @@
       <c r="Q275" s="5" t="s">
         <v>583</v>
       </c>
-      <c r="R275" s="77" t="s">
+      <c r="R275" s="70" t="s">
         <v>776</v>
       </c>
       <c r="W275" s="5" t="s">
@@ -28625,7 +28608,7 @@
       <c r="Q276" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="R276" s="77" t="s">
+      <c r="R276" s="70" t="s">
         <v>777</v>
       </c>
       <c r="W276" s="5" t="s">
@@ -28690,7 +28673,7 @@
       <c r="Q277" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="R277" s="77" t="s">
+      <c r="R277" s="70" t="s">
         <v>778</v>
       </c>
       <c r="W277" s="5" t="s">
@@ -28755,7 +28738,7 @@
       <c r="Q278" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="R278" s="77" t="s">
+      <c r="R278" s="70" t="s">
         <v>779</v>
       </c>
       <c r="W278" s="5" t="s">
@@ -28820,7 +28803,7 @@
       <c r="Q279" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="R279" s="77" t="s">
+      <c r="R279" s="70" t="s">
         <v>780</v>
       </c>
       <c r="W279" s="5" t="s">
@@ -28885,7 +28868,7 @@
       <c r="Q280" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="R280" s="77" t="s">
+      <c r="R280" s="70" t="s">
         <v>781</v>
       </c>
       <c r="W280" s="5" t="s">
@@ -28950,7 +28933,7 @@
       <c r="Q281" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="R281" s="77" t="s">
+      <c r="R281" s="70" t="s">
         <v>779</v>
       </c>
       <c r="W281" s="5" t="s">
@@ -29015,7 +28998,7 @@
       <c r="Q282" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="R282" s="77" t="s">
+      <c r="R282" s="70" t="s">
         <v>782</v>
       </c>
       <c r="W282" s="5" t="s">
@@ -29080,7 +29063,7 @@
       <c r="Q283" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="R283" s="77" t="s">
+      <c r="R283" s="70" t="s">
         <v>783</v>
       </c>
       <c r="W283" s="5" t="s">
@@ -29145,7 +29128,7 @@
       <c r="Q284" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="R284" s="77" t="s">
+      <c r="R284" s="70" t="s">
         <v>784</v>
       </c>
       <c r="W284" s="5" t="s">
@@ -29210,7 +29193,7 @@
       <c r="Q285" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="R285" s="77" t="s">
+      <c r="R285" s="70" t="s">
         <v>785</v>
       </c>
       <c r="W285" s="5" t="s">
@@ -29272,7 +29255,7 @@
       <c r="Q286" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="R286" s="77" t="s">
+      <c r="R286" s="70" t="s">
         <v>786</v>
       </c>
       <c r="W286" s="5" t="s">
@@ -29334,7 +29317,7 @@
       <c r="Q287" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="R287" s="77" t="s">
+      <c r="R287" s="70" t="s">
         <v>787</v>
       </c>
       <c r="W287" s="5" t="s">
@@ -29396,7 +29379,7 @@
       <c r="Q288" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="R288" s="77" t="s">
+      <c r="R288" s="70" t="s">
         <v>788</v>
       </c>
       <c r="W288" s="5" t="s">
@@ -29458,7 +29441,7 @@
       <c r="Q289" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="R289" s="77" t="s">
+      <c r="R289" s="70" t="s">
         <v>789</v>
       </c>
       <c r="W289" s="5" t="s">
@@ -29520,7 +29503,7 @@
       <c r="Q290" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="R290" s="77" t="s">
+      <c r="R290" s="70" t="s">
         <v>790</v>
       </c>
       <c r="W290" s="5" t="s">
@@ -29582,7 +29565,7 @@
       <c r="Q291" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="R291" s="77" t="s">
+      <c r="R291" s="70" t="s">
         <v>791</v>
       </c>
       <c r="W291" s="5" t="s">
@@ -29644,7 +29627,7 @@
       <c r="Q292" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="R292" s="77" t="s">
+      <c r="R292" s="70" t="s">
         <v>792</v>
       </c>
       <c r="W292" s="5" t="s">
@@ -29706,7 +29689,7 @@
       <c r="Q293" s="5" t="s">
         <v>608</v>
       </c>
-      <c r="R293" s="77" t="s">
+      <c r="R293" s="70" t="s">
         <v>793</v>
       </c>
       <c r="W293" s="5" t="s">
@@ -29768,7 +29751,7 @@
       <c r="Q294" s="5" t="s">
         <v>603</v>
       </c>
-      <c r="R294" s="77" t="s">
+      <c r="R294" s="70" t="s">
         <v>794</v>
       </c>
       <c r="W294" s="5" t="s">
@@ -29830,7 +29813,7 @@
       <c r="Q295" s="5" t="s">
         <v>603</v>
       </c>
-      <c r="R295" s="77" t="s">
+      <c r="R295" s="70" t="s">
         <v>795</v>
       </c>
       <c r="W295" s="5" t="s">
@@ -29892,7 +29875,7 @@
       <c r="Q296" s="5" t="s">
         <v>603</v>
       </c>
-      <c r="R296" s="77" t="s">
+      <c r="R296" s="70" t="s">
         <v>796</v>
       </c>
       <c r="W296" s="5" t="s">
@@ -29954,7 +29937,7 @@
       <c r="Q297" s="5" t="s">
         <v>603</v>
       </c>
-      <c r="R297" s="77" t="s">
+      <c r="R297" s="70" t="s">
         <v>797</v>
       </c>
       <c r="W297" s="5" t="s">
@@ -30016,7 +29999,7 @@
       <c r="Q298" s="5" t="s">
         <v>602</v>
       </c>
-      <c r="R298" s="77" t="s">
+      <c r="R298" s="70" t="s">
         <v>798</v>
       </c>
       <c r="W298" s="5" t="s">
@@ -30078,7 +30061,7 @@
       <c r="Q299" s="5" t="s">
         <v>601</v>
       </c>
-      <c r="R299" s="77" t="s">
+      <c r="R299" s="70" t="s">
         <v>799</v>
       </c>
       <c r="W299" s="5" t="s">
@@ -30140,7 +30123,7 @@
       <c r="Q300" s="5" t="s">
         <v>601</v>
       </c>
-      <c r="R300" s="77" t="s">
+      <c r="R300" s="70" t="s">
         <v>800</v>
       </c>
       <c r="W300" s="5" t="s">
@@ -30202,7 +30185,7 @@
       <c r="Q301" s="5" t="s">
         <v>601</v>
       </c>
-      <c r="R301" s="77" t="s">
+      <c r="R301" s="70" t="s">
         <v>801</v>
       </c>
       <c r="W301" s="5" t="s">
@@ -30264,7 +30247,7 @@
       <c r="Q302" s="5" t="s">
         <v>601</v>
       </c>
-      <c r="R302" s="77" t="s">
+      <c r="R302" s="70" t="s">
         <v>802</v>
       </c>
       <c r="W302" s="5" t="s">
@@ -30326,7 +30309,7 @@
       <c r="Q303" s="5" t="s">
         <v>601</v>
       </c>
-      <c r="R303" s="77" t="s">
+      <c r="R303" s="70" t="s">
         <v>803</v>
       </c>
       <c r="W303" s="5" t="s">
@@ -30388,7 +30371,7 @@
       <c r="Q304" s="5" t="s">
         <v>601</v>
       </c>
-      <c r="R304" s="77" t="s">
+      <c r="R304" s="70" t="s">
         <v>804</v>
       </c>
       <c r="W304" s="5" t="s">
@@ -30450,7 +30433,7 @@
       <c r="Q305" s="5" t="s">
         <v>601</v>
       </c>
-      <c r="R305" s="77" t="s">
+      <c r="R305" s="70" t="s">
         <v>805</v>
       </c>
       <c r="W305" s="5" t="s">
@@ -30512,7 +30495,7 @@
       <c r="Q306" s="5" t="s">
         <v>601</v>
       </c>
-      <c r="R306" s="77" t="s">
+      <c r="R306" s="70" t="s">
         <v>806</v>
       </c>
       <c r="W306" s="5" t="s">
@@ -30574,7 +30557,7 @@
       <c r="Q307" s="5" t="s">
         <v>601</v>
       </c>
-      <c r="R307" s="77" t="s">
+      <c r="R307" s="70" t="s">
         <v>807</v>
       </c>
       <c r="W307" s="5" t="s">
@@ -30636,7 +30619,7 @@
       <c r="Q308" s="5" t="s">
         <v>607</v>
       </c>
-      <c r="R308" s="77" t="s">
+      <c r="R308" s="70" t="s">
         <v>808</v>
       </c>
       <c r="W308" s="5" t="s">
@@ -30698,7 +30681,7 @@
       <c r="Q309" s="5" t="s">
         <v>609</v>
       </c>
-      <c r="R309" s="77" t="s">
+      <c r="R309" s="70" t="s">
         <v>809</v>
       </c>
       <c r="W309" s="5" t="s">
@@ -30760,7 +30743,7 @@
       <c r="Q310" s="5" t="s">
         <v>610</v>
       </c>
-      <c r="R310" s="77" t="s">
+      <c r="R310" s="70" t="s">
         <v>810</v>
       </c>
       <c r="W310" s="5" t="s">
@@ -30822,7 +30805,7 @@
       <c r="Q311" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="R311" s="77" t="s">
+      <c r="R311" s="70" t="s">
         <v>778</v>
       </c>
       <c r="W311" s="5" t="s">
@@ -30884,7 +30867,7 @@
       <c r="Q312" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="R312" s="77" t="s">
+      <c r="R312" s="70" t="s">
         <v>811</v>
       </c>
       <c r="W312" s="5" t="s">
@@ -30946,7 +30929,7 @@
       <c r="Q313" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="R313" s="77" t="s">
+      <c r="R313" s="70" t="s">
         <v>782</v>
       </c>
       <c r="W313" s="5" t="s">
@@ -31008,7 +30991,7 @@
       <c r="Q314" s="5" t="s">
         <v>610</v>
       </c>
-      <c r="R314" s="77" t="s">
+      <c r="R314" s="70" t="s">
         <v>783</v>
       </c>
       <c r="W314" s="5" t="s">
@@ -31070,7 +31053,7 @@
       <c r="Q315" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="R315" s="77" t="s">
+      <c r="R315" s="70" t="s">
         <v>812</v>
       </c>
       <c r="W315" s="5" t="s">
@@ -31132,7 +31115,7 @@
       <c r="Q316" s="5" t="s">
         <v>612</v>
       </c>
-      <c r="R316" s="77" t="s">
+      <c r="R316" s="70" t="s">
         <v>615</v>
       </c>
       <c r="W316" s="5" t="s">
@@ -31194,7 +31177,7 @@
       <c r="Q317" s="5" t="s">
         <v>613</v>
       </c>
-      <c r="R317" s="77" t="s">
+      <c r="R317" s="70" t="s">
         <v>616</v>
       </c>
       <c r="W317" s="5" t="s">
@@ -31256,7 +31239,7 @@
       <c r="Q318" s="5" t="s">
         <v>614</v>
       </c>
-      <c r="R318" s="77" t="s">
+      <c r="R318" s="70" t="s">
         <v>617</v>
       </c>
       <c r="W318" s="5" t="s">
@@ -31318,7 +31301,7 @@
       <c r="Q319" s="5" t="s">
         <v>640</v>
       </c>
-      <c r="R319" s="77" t="s">
+      <c r="R319" s="70" t="s">
         <v>1123</v>
       </c>
       <c r="W319" s="5" t="s">
@@ -31374,7 +31357,7 @@
       <c r="Q320" s="5" t="s">
         <v>641</v>
       </c>
-      <c r="R320" s="77" t="s">
+      <c r="R320" s="70" t="s">
         <v>813</v>
       </c>
       <c r="W320" s="5" t="s">
@@ -31430,7 +31413,7 @@
       <c r="Q321" s="5" t="s">
         <v>644</v>
       </c>
-      <c r="R321" s="77" t="s">
+      <c r="R321" s="70" t="s">
         <v>814</v>
       </c>
       <c r="W321" s="5" t="s">
@@ -31492,7 +31475,7 @@
       <c r="Q322" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="R322" s="77" t="s">
+      <c r="R322" s="70" t="s">
         <v>685</v>
       </c>
       <c r="W322" s="5" t="s">
@@ -31554,7 +31537,7 @@
       <c r="Q323" s="43" t="s">
         <v>1052</v>
       </c>
-      <c r="R323" s="81" t="s">
+      <c r="R323" s="74" t="s">
         <v>1048</v>
       </c>
       <c r="W323" s="43" t="s">
@@ -31619,7 +31602,7 @@
       <c r="Q324" s="43" t="s">
         <v>1053</v>
       </c>
-      <c r="R324" s="81" t="s">
+      <c r="R324" s="74" t="s">
         <v>762</v>
       </c>
       <c r="W324" s="43" t="s">
@@ -31684,7 +31667,7 @@
       <c r="Q325" s="43" t="s">
         <v>1054</v>
       </c>
-      <c r="R325" s="81" t="s">
+      <c r="R325" s="74" t="s">
         <v>763</v>
       </c>
       <c r="W325" s="43" t="s">
@@ -31746,7 +31729,7 @@
       <c r="P326" s="40">
         <v>100</v>
       </c>
-      <c r="R326" s="83"/>
+      <c r="R326" s="76"/>
       <c r="W326" s="40" t="s">
         <v>1083</v>
       </c>
@@ -31809,7 +31792,7 @@
       <c r="Q327" s="43" t="s">
         <v>1069</v>
       </c>
-      <c r="R327" s="81" t="s">
+      <c r="R327" s="74" t="s">
         <v>1085</v>
       </c>
       <c r="W327" s="43" t="s">
@@ -31877,7 +31860,7 @@
       <c r="Q328" s="43" t="s">
         <v>1684</v>
       </c>
-      <c r="R328" s="81" t="s">
+      <c r="R328" s="74" t="s">
         <v>1082</v>
       </c>
       <c r="S328" s="43"/>
@@ -31960,7 +31943,7 @@
       <c r="Q329" s="43" t="s">
         <v>1684</v>
       </c>
-      <c r="R329" s="81" t="s">
+      <c r="R329" s="74" t="s">
         <v>1703</v>
       </c>
       <c r="S329" s="43"/>
@@ -32043,7 +32026,7 @@
       <c r="Q330" s="43" t="s">
         <v>1684</v>
       </c>
-      <c r="R330" s="81" t="s">
+      <c r="R330" s="74" t="s">
         <v>1702</v>
       </c>
       <c r="S330" s="43"/>
@@ -32126,7 +32109,7 @@
       <c r="Q331" s="43" t="s">
         <v>1684</v>
       </c>
-      <c r="R331" s="81" t="s">
+      <c r="R331" s="74" t="s">
         <v>1701</v>
       </c>
       <c r="S331" s="43"/>
@@ -32209,7 +32192,7 @@
       <c r="Q332" s="43" t="s">
         <v>1684</v>
       </c>
-      <c r="R332" s="81" t="s">
+      <c r="R332" s="74" t="s">
         <v>1700</v>
       </c>
       <c r="S332" s="43"/>
@@ -32292,7 +32275,7 @@
       <c r="Q333" s="43" t="s">
         <v>1684</v>
       </c>
-      <c r="R333" s="81" t="s">
+      <c r="R333" s="74" t="s">
         <v>1699</v>
       </c>
       <c r="S333" s="43"/>
@@ -32375,7 +32358,7 @@
       <c r="Q334" s="43" t="s">
         <v>1684</v>
       </c>
-      <c r="R334" s="81" t="s">
+      <c r="R334" s="74" t="s">
         <v>1698</v>
       </c>
       <c r="S334" s="43"/>
@@ -32458,7 +32441,7 @@
       <c r="Q335" s="43" t="s">
         <v>1684</v>
       </c>
-      <c r="R335" s="81" t="s">
+      <c r="R335" s="74" t="s">
         <v>1697</v>
       </c>
       <c r="S335" s="43"/>
@@ -32541,7 +32524,7 @@
       <c r="Q336" s="43" t="s">
         <v>1684</v>
       </c>
-      <c r="R336" s="81" t="s">
+      <c r="R336" s="74" t="s">
         <v>1696</v>
       </c>
       <c r="S336" s="43"/>
@@ -32624,7 +32607,7 @@
       <c r="Q337" s="43" t="s">
         <v>1684</v>
       </c>
-      <c r="R337" s="81" t="s">
+      <c r="R337" s="74" t="s">
         <v>1695</v>
       </c>
       <c r="S337" s="43"/>
@@ -32701,7 +32684,7 @@
       <c r="Q338" s="19" t="s">
         <v>1099</v>
       </c>
-      <c r="R338" s="80" t="s">
+      <c r="R338" s="73" t="s">
         <v>1107</v>
       </c>
       <c r="W338" s="19" t="s">
@@ -32775,7 +32758,7 @@
       <c r="Q339" s="19" t="s">
         <v>1099</v>
       </c>
-      <c r="R339" s="80" t="s">
+      <c r="R339" s="73" t="s">
         <v>1108</v>
       </c>
       <c r="S339" s="19"/>
@@ -32860,7 +32843,7 @@
       <c r="Q340" s="19" t="s">
         <v>1099</v>
       </c>
-      <c r="R340" s="80" t="s">
+      <c r="R340" s="73" t="s">
         <v>1106</v>
       </c>
       <c r="S340" s="19"/>
@@ -32941,7 +32924,7 @@
       <c r="Q341" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="R341" s="77" t="s">
+      <c r="R341" s="70" t="s">
         <v>1148</v>
       </c>
       <c r="W341" s="5" t="s">
@@ -33012,7 +32995,7 @@
       <c r="Q342" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="R342" s="77" t="s">
+      <c r="R342" s="70" t="s">
         <v>1149</v>
       </c>
       <c r="W342" s="5" t="s">
@@ -33083,7 +33066,7 @@
       <c r="Q343" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="R343" s="77" t="s">
+      <c r="R343" s="70" t="s">
         <v>1150</v>
       </c>
       <c r="W343" s="5" t="s">
@@ -33154,7 +33137,7 @@
       <c r="Q344" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="R344" s="77" t="s">
+      <c r="R344" s="70" t="s">
         <v>1151</v>
       </c>
       <c r="W344" s="5" t="s">
@@ -33225,7 +33208,7 @@
       <c r="Q345" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="R345" s="77" t="s">
+      <c r="R345" s="70" t="s">
         <v>1152</v>
       </c>
       <c r="W345" s="5" t="s">
@@ -33296,7 +33279,7 @@
       <c r="Q346" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="R346" s="77" t="s">
+      <c r="R346" s="70" t="s">
         <v>1153</v>
       </c>
       <c r="W346" s="5" t="s">
@@ -33367,7 +33350,7 @@
       <c r="Q347" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="R347" s="77" t="s">
+      <c r="R347" s="70" t="s">
         <v>1155</v>
       </c>
       <c r="W347" s="5" t="s">
@@ -33438,7 +33421,7 @@
       <c r="Q348" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="R348" s="77" t="s">
+      <c r="R348" s="70" t="s">
         <v>1156</v>
       </c>
       <c r="W348" s="5" t="s">
@@ -33509,7 +33492,7 @@
       <c r="Q349" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="R349" s="77" t="s">
+      <c r="R349" s="70" t="s">
         <v>1154</v>
       </c>
       <c r="W349" s="5" t="s">
@@ -33580,7 +33563,7 @@
       <c r="Q350" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="R350" s="77" t="s">
+      <c r="R350" s="70" t="s">
         <v>1157</v>
       </c>
       <c r="W350" s="5" t="s">
@@ -33651,7 +33634,7 @@
       <c r="Q351" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="R351" s="77" t="s">
+      <c r="R351" s="70" t="s">
         <v>1158</v>
       </c>
       <c r="W351" s="5" t="s">
@@ -33722,7 +33705,7 @@
       <c r="Q352" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="R352" s="77" t="s">
+      <c r="R352" s="70" t="s">
         <v>1159</v>
       </c>
       <c r="W352" s="5" t="s">
@@ -33796,7 +33779,7 @@
       <c r="Q353" s="5" t="s">
         <v>1191</v>
       </c>
-      <c r="R353" s="77" t="s">
+      <c r="R353" s="70" t="s">
         <v>1184</v>
       </c>
       <c r="W353" s="5" t="s">
@@ -33864,7 +33847,7 @@
       <c r="Q354" s="5" t="s">
         <v>1192</v>
       </c>
-      <c r="R354" s="77" t="s">
+      <c r="R354" s="70" t="s">
         <v>1185</v>
       </c>
       <c r="W354" s="5" t="s">
@@ -33932,7 +33915,7 @@
       <c r="Q355" s="5" t="s">
         <v>1193</v>
       </c>
-      <c r="R355" s="77" t="s">
+      <c r="R355" s="70" t="s">
         <v>1184</v>
       </c>
       <c r="W355" s="5" t="s">
@@ -34000,7 +33983,7 @@
       <c r="Q356" s="5" t="s">
         <v>1194</v>
       </c>
-      <c r="R356" s="77" t="s">
+      <c r="R356" s="70" t="s">
         <v>279</v>
       </c>
       <c r="W356" s="5" t="s">
@@ -34068,7 +34051,7 @@
       <c r="Q357" s="5" t="s">
         <v>1195</v>
       </c>
-      <c r="R357" s="77" t="s">
+      <c r="R357" s="70" t="s">
         <v>279</v>
       </c>
       <c r="W357" s="5" t="s">
@@ -34136,7 +34119,7 @@
       <c r="Q358" s="5" t="s">
         <v>1196</v>
       </c>
-      <c r="R358" s="77" t="s">
+      <c r="R358" s="70" t="s">
         <v>279</v>
       </c>
       <c r="W358" s="5" t="s">
@@ -34204,7 +34187,7 @@
       <c r="Q359" s="5" t="s">
         <v>1197</v>
       </c>
-      <c r="R359" s="77" t="s">
+      <c r="R359" s="70" t="s">
         <v>279</v>
       </c>
       <c r="W359" s="5" t="s">
@@ -34272,7 +34255,7 @@
       <c r="Q360" s="5" t="s">
         <v>1198</v>
       </c>
-      <c r="R360" s="77" t="s">
+      <c r="R360" s="70" t="s">
         <v>279</v>
       </c>
       <c r="W360" s="5" t="s">
@@ -34340,7 +34323,7 @@
       <c r="Q361" s="5" t="s">
         <v>1199</v>
       </c>
-      <c r="R361" s="77" t="s">
+      <c r="R361" s="70" t="s">
         <v>279</v>
       </c>
       <c r="W361" s="5" t="s">
@@ -34408,7 +34391,7 @@
       <c r="Q362" s="5" t="s">
         <v>1193</v>
       </c>
-      <c r="R362" s="77" t="s">
+      <c r="R362" s="70" t="s">
         <v>1184</v>
       </c>
       <c r="W362" s="5" t="s">
@@ -34482,7 +34465,7 @@
       <c r="Q363" s="5" t="s">
         <v>1196</v>
       </c>
-      <c r="R363" s="77" t="s">
+      <c r="R363" s="70" t="s">
         <v>279</v>
       </c>
       <c r="W363" s="5" t="s">
@@ -34556,7 +34539,7 @@
       <c r="Q364" s="5" t="s">
         <v>1199</v>
       </c>
-      <c r="R364" s="77" t="s">
+      <c r="R364" s="70" t="s">
         <v>279</v>
       </c>
       <c r="W364" s="5" t="s">
@@ -34627,7 +34610,7 @@
       <c r="Q365" s="5" t="s">
         <v>1253</v>
       </c>
-      <c r="R365" s="77" t="s">
+      <c r="R365" s="70" t="s">
         <v>1254</v>
       </c>
       <c r="W365" s="5" t="s">
@@ -34692,7 +34675,7 @@
       <c r="Q366" s="5" t="s">
         <v>1253</v>
       </c>
-      <c r="R366" s="77" t="s">
+      <c r="R366" s="70" t="s">
         <v>1255</v>
       </c>
       <c r="W366" s="5" t="s">
@@ -34757,7 +34740,7 @@
       <c r="Q367" s="5" t="s">
         <v>1253</v>
       </c>
-      <c r="R367" s="77" t="s">
+      <c r="R367" s="70" t="s">
         <v>1256</v>
       </c>
       <c r="W367" s="5" t="s">
@@ -34822,7 +34805,7 @@
       <c r="Q368" s="5" t="s">
         <v>1253</v>
       </c>
-      <c r="R368" s="77" t="s">
+      <c r="R368" s="70" t="s">
         <v>1257</v>
       </c>
       <c r="W368" s="5" t="s">
@@ -34887,7 +34870,7 @@
       <c r="Q369" s="5" t="s">
         <v>1669</v>
       </c>
-      <c r="R369" s="77" t="s">
+      <c r="R369" s="70" t="s">
         <v>1258</v>
       </c>
       <c r="W369" s="5" t="s">
@@ -34952,7 +34935,7 @@
       <c r="Q370" s="5" t="s">
         <v>1273</v>
       </c>
-      <c r="R370" s="77" t="s">
+      <c r="R370" s="70" t="s">
         <v>1267</v>
       </c>
       <c r="W370" s="5" t="s">
@@ -35014,7 +34997,7 @@
       <c r="Q371" s="5" t="s">
         <v>1273</v>
       </c>
-      <c r="R371" s="77" t="s">
+      <c r="R371" s="70" t="s">
         <v>1268</v>
       </c>
       <c r="W371" s="5" t="s">
@@ -35076,7 +35059,7 @@
       <c r="Q372" s="5" t="s">
         <v>1273</v>
       </c>
-      <c r="R372" s="77" t="s">
+      <c r="R372" s="70" t="s">
         <v>1269</v>
       </c>
       <c r="W372" s="5" t="s">
@@ -35138,7 +35121,7 @@
       <c r="Q373" s="5" t="s">
         <v>1273</v>
       </c>
-      <c r="R373" s="77" t="s">
+      <c r="R373" s="70" t="s">
         <v>1270</v>
       </c>
       <c r="W373" s="5" t="s">
@@ -35203,7 +35186,7 @@
       <c r="Q374" s="5" t="s">
         <v>1282</v>
       </c>
-      <c r="R374" s="77" t="s">
+      <c r="R374" s="70" t="s">
         <v>1413</v>
       </c>
       <c r="W374" s="5" t="s">
@@ -35271,7 +35254,7 @@
       <c r="Q375" s="5" t="s">
         <v>1282</v>
       </c>
-      <c r="R375" s="77" t="s">
+      <c r="R375" s="70" t="s">
         <v>1277</v>
       </c>
       <c r="W375" s="5" t="s">
@@ -35339,7 +35322,7 @@
       <c r="Q376" s="5" t="s">
         <v>1303</v>
       </c>
-      <c r="R376" s="77" t="s">
+      <c r="R376" s="70" t="s">
         <v>776</v>
       </c>
       <c r="W376" s="5" t="s">
@@ -35407,7 +35390,7 @@
       <c r="Q377" s="5" t="s">
         <v>1303</v>
       </c>
-      <c r="R377" s="77" t="s">
+      <c r="R377" s="70" t="s">
         <v>777</v>
       </c>
       <c r="W377" s="5" t="s">
@@ -35475,7 +35458,7 @@
       <c r="Q378" s="5" t="s">
         <v>1303</v>
       </c>
-      <c r="R378" s="77" t="s">
+      <c r="R378" s="70" t="s">
         <v>1304</v>
       </c>
       <c r="W378" s="5" t="s">
@@ -35543,7 +35526,7 @@
       <c r="Q379" s="5" t="s">
         <v>1303</v>
       </c>
-      <c r="R379" s="77" t="s">
+      <c r="R379" s="70" t="s">
         <v>779</v>
       </c>
       <c r="W379" s="5" t="s">
@@ -35611,7 +35594,7 @@
       <c r="Q380" s="5" t="s">
         <v>1303</v>
       </c>
-      <c r="R380" s="77" t="s">
+      <c r="R380" s="70" t="s">
         <v>780</v>
       </c>
       <c r="W380" s="5" t="s">
@@ -35679,7 +35662,7 @@
       <c r="Q381" s="5" t="s">
         <v>1303</v>
       </c>
-      <c r="R381" s="77" t="s">
+      <c r="R381" s="70" t="s">
         <v>776</v>
       </c>
       <c r="W381" s="5" t="s">
@@ -35747,7 +35730,7 @@
       <c r="Q382" s="5" t="s">
         <v>1303</v>
       </c>
-      <c r="R382" s="77" t="s">
+      <c r="R382" s="70" t="s">
         <v>779</v>
       </c>
       <c r="W382" s="5" t="s">
@@ -35815,7 +35798,7 @@
       <c r="Q383" s="5" t="s">
         <v>1303</v>
       </c>
-      <c r="R383" s="77" t="s">
+      <c r="R383" s="70" t="s">
         <v>780</v>
       </c>
       <c r="W383" s="5" t="s">
@@ -35883,7 +35866,7 @@
       <c r="Q384" s="5" t="s">
         <v>1303</v>
       </c>
-      <c r="R384" s="77" t="s">
+      <c r="R384" s="70" t="s">
         <v>783</v>
       </c>
       <c r="W384" s="5" t="s">
@@ -35951,7 +35934,7 @@
       <c r="Q385" s="5" t="s">
         <v>1303</v>
       </c>
-      <c r="R385" s="77" t="s">
+      <c r="R385" s="70" t="s">
         <v>784</v>
       </c>
       <c r="W385" s="5" t="s">
@@ -36019,7 +36002,7 @@
       <c r="Q386" s="52" t="s">
         <v>1322</v>
       </c>
-      <c r="R386" s="84" t="s">
+      <c r="R386" s="77" t="s">
         <v>1331</v>
       </c>
       <c r="W386" s="52" t="s">
@@ -36087,7 +36070,7 @@
       <c r="Q387" s="52" t="s">
         <v>1324</v>
       </c>
-      <c r="R387" s="84" t="s">
+      <c r="R387" s="77" t="s">
         <v>1332</v>
       </c>
       <c r="W387" s="52" t="s">
@@ -36155,7 +36138,7 @@
       <c r="Q388" s="52" t="s">
         <v>1325</v>
       </c>
-      <c r="R388" s="84" t="s">
+      <c r="R388" s="77" t="s">
         <v>1333</v>
       </c>
       <c r="W388" s="52" t="s">
@@ -36223,7 +36206,7 @@
       <c r="Q389" s="51" t="s">
         <v>1326</v>
       </c>
-      <c r="R389" s="85" t="s">
+      <c r="R389" s="78" t="s">
         <v>1334</v>
       </c>
       <c r="W389" s="51" t="s">
@@ -36291,7 +36274,7 @@
       <c r="Q390" s="51" t="s">
         <v>1327</v>
       </c>
-      <c r="R390" s="85" t="s">
+      <c r="R390" s="78" t="s">
         <v>1335</v>
       </c>
       <c r="W390" s="51" t="s">
@@ -36359,7 +36342,7 @@
       <c r="Q391" s="51" t="s">
         <v>1328</v>
       </c>
-      <c r="R391" s="85" t="s">
+      <c r="R391" s="78" t="s">
         <v>1336</v>
       </c>
       <c r="W391" s="51" t="s">
@@ -36427,7 +36410,7 @@
       <c r="Q392" s="52" t="s">
         <v>1323</v>
       </c>
-      <c r="R392" s="84" t="s">
+      <c r="R392" s="77" t="s">
         <v>1337</v>
       </c>
       <c r="W392" s="52" t="s">
@@ -36495,7 +36478,7 @@
       <c r="Q393" s="52" t="s">
         <v>1329</v>
       </c>
-      <c r="R393" s="84" t="s">
+      <c r="R393" s="77" t="s">
         <v>1339</v>
       </c>
       <c r="W393" s="52" t="s">
@@ -36563,7 +36546,7 @@
       <c r="Q394" s="52" t="s">
         <v>1330</v>
       </c>
-      <c r="R394" s="84" t="s">
+      <c r="R394" s="77" t="s">
         <v>1338</v>
       </c>
       <c r="W394" s="52" t="s">
@@ -36628,7 +36611,7 @@
       <c r="Q395" s="5" t="s">
         <v>1360</v>
       </c>
-      <c r="R395" s="77" t="s">
+      <c r="R395" s="70" t="s">
         <v>1354</v>
       </c>
       <c r="W395" s="5" t="s">
@@ -36690,7 +36673,7 @@
       <c r="Q396" s="5" t="s">
         <v>1353</v>
       </c>
-      <c r="R396" s="77" t="s">
+      <c r="R396" s="70" t="s">
         <v>1359</v>
       </c>
       <c r="W396" s="5" t="s">
@@ -36752,7 +36735,7 @@
       <c r="Q397" s="5" t="s">
         <v>1353</v>
       </c>
-      <c r="R397" s="77" t="s">
+      <c r="R397" s="70" t="s">
         <v>1358</v>
       </c>
       <c r="W397" s="5" t="s">
@@ -36814,7 +36797,7 @@
       <c r="Q398" s="5" t="s">
         <v>1470</v>
       </c>
-      <c r="R398" s="77" t="s">
+      <c r="R398" s="70" t="s">
         <v>1357</v>
       </c>
       <c r="W398" s="5" t="s">
@@ -36876,7 +36859,7 @@
       <c r="Q399" s="5" t="s">
         <v>1353</v>
       </c>
-      <c r="R399" s="77" t="s">
+      <c r="R399" s="70" t="s">
         <v>1356</v>
       </c>
       <c r="W399" s="5" t="s">
@@ -36938,7 +36921,7 @@
       <c r="Q400" s="5" t="s">
         <v>1353</v>
       </c>
-      <c r="R400" s="77" t="s">
+      <c r="R400" s="70" t="s">
         <v>1355</v>
       </c>
       <c r="W400" s="5" t="s">
@@ -37000,7 +36983,7 @@
       <c r="Q401" s="5" t="s">
         <v>1364</v>
       </c>
-      <c r="R401" s="86" t="s">
+      <c r="R401" s="79" t="s">
         <v>1389</v>
       </c>
       <c r="W401" s="5" t="s">
@@ -37065,7 +37048,7 @@
       <c r="Q402" s="5" t="s">
         <v>1364</v>
       </c>
-      <c r="R402" s="86" t="s">
+      <c r="R402" s="79" t="s">
         <v>1385</v>
       </c>
       <c r="W402" s="5" t="s">
@@ -37130,7 +37113,7 @@
       <c r="Q403" s="5" t="s">
         <v>1369</v>
       </c>
-      <c r="R403" s="86" t="s">
+      <c r="R403" s="79" t="s">
         <v>1390</v>
       </c>
       <c r="W403" s="5" t="s">
@@ -37195,7 +37178,7 @@
       <c r="Q404" s="5" t="s">
         <v>1371</v>
       </c>
-      <c r="R404" s="86" t="s">
+      <c r="R404" s="79" t="s">
         <v>1384</v>
       </c>
       <c r="W404" s="5" t="s">
@@ -37260,7 +37243,7 @@
       <c r="Q405" s="5" t="s">
         <v>1371</v>
       </c>
-      <c r="R405" s="86" t="s">
+      <c r="R405" s="79" t="s">
         <v>1391</v>
       </c>
       <c r="W405" s="5" t="s">
@@ -37325,7 +37308,7 @@
       <c r="Q406" s="5" t="s">
         <v>1374</v>
       </c>
-      <c r="R406" s="86" t="s">
+      <c r="R406" s="79" t="s">
         <v>1386</v>
       </c>
       <c r="W406" s="5" t="s">
@@ -37390,7 +37373,7 @@
       <c r="Q407" s="5" t="s">
         <v>1376</v>
       </c>
-      <c r="R407" s="86" t="s">
+      <c r="R407" s="79" t="s">
         <v>1387</v>
       </c>
       <c r="W407" s="5" t="s">
@@ -37455,7 +37438,7 @@
       <c r="Q408" s="5" t="s">
         <v>1408</v>
       </c>
-      <c r="R408" s="77" t="s">
+      <c r="R408" s="70" t="s">
         <v>1525</v>
       </c>
       <c r="W408" s="5" t="s">
@@ -37520,7 +37503,7 @@
       <c r="Q409" s="5" t="s">
         <v>1408</v>
       </c>
-      <c r="R409" s="77" t="s">
+      <c r="R409" s="70" t="s">
         <v>1523</v>
       </c>
       <c r="W409" s="5" t="s">
@@ -37585,7 +37568,7 @@
       <c r="Q410" s="5" t="s">
         <v>1408</v>
       </c>
-      <c r="R410" s="77" t="s">
+      <c r="R410" s="70" t="s">
         <v>1358</v>
       </c>
       <c r="W410" s="5" t="s">
@@ -37650,7 +37633,7 @@
       <c r="Q411" s="5" t="s">
         <v>1408</v>
       </c>
-      <c r="R411" s="77" t="s">
+      <c r="R411" s="70" t="s">
         <v>1520</v>
       </c>
       <c r="W411" s="5" t="s">
@@ -37715,7 +37698,7 @@
       <c r="Q412" s="5" t="s">
         <v>1408</v>
       </c>
-      <c r="R412" s="77" t="s">
+      <c r="R412" s="70" t="s">
         <v>1518</v>
       </c>
       <c r="W412" s="5" t="s">
@@ -37780,7 +37763,7 @@
       <c r="Q413" s="5" t="s">
         <v>1408</v>
       </c>
-      <c r="R413" s="77" t="s">
+      <c r="R413" s="70" t="s">
         <v>1516</v>
       </c>
       <c r="W413" s="5" t="s">
@@ -37848,7 +37831,7 @@
       <c r="Q414" s="55" t="s">
         <v>456</v>
       </c>
-      <c r="R414" s="79" t="s">
+      <c r="R414" s="72" t="s">
         <v>1415</v>
       </c>
       <c r="W414" s="55" t="s">
@@ -37913,7 +37896,7 @@
       <c r="Q415" s="40" t="s">
         <v>1191</v>
       </c>
-      <c r="R415" s="83" t="s">
+      <c r="R415" s="76" t="s">
         <v>1810</v>
       </c>
       <c r="W415" s="40" t="s">
@@ -37981,7 +37964,7 @@
       <c r="Q416" s="40" t="s">
         <v>1192</v>
       </c>
-      <c r="R416" s="83" t="s">
+      <c r="R416" s="76" t="s">
         <v>1810</v>
       </c>
       <c r="W416" s="40" t="s">
@@ -38049,7 +38032,7 @@
       <c r="Q417" s="40" t="s">
         <v>1193</v>
       </c>
-      <c r="R417" s="83" t="s">
+      <c r="R417" s="76" t="s">
         <v>1809</v>
       </c>
       <c r="W417" s="40" t="s">
@@ -38117,7 +38100,7 @@
       <c r="Q418" s="40" t="s">
         <v>1194</v>
       </c>
-      <c r="R418" s="83" t="s">
+      <c r="R418" s="76" t="s">
         <v>1809</v>
       </c>
       <c r="W418" s="40" t="s">
@@ -38185,7 +38168,7 @@
       <c r="Q419" s="40" t="s">
         <v>1195</v>
       </c>
-      <c r="R419" s="83" t="s">
+      <c r="R419" s="76" t="s">
         <v>1809</v>
       </c>
       <c r="W419" s="40" t="s">
@@ -38253,7 +38236,7 @@
       <c r="Q420" s="40" t="s">
         <v>1196</v>
       </c>
-      <c r="R420" s="83" t="s">
+      <c r="R420" s="76" t="s">
         <v>1809</v>
       </c>
       <c r="W420" s="40" t="s">
@@ -38318,7 +38301,7 @@
       <c r="Q421" s="19" t="s">
         <v>1429</v>
       </c>
-      <c r="R421" s="80" t="s">
+      <c r="R421" s="73" t="s">
         <v>1426</v>
       </c>
       <c r="W421" s="19" t="s">
@@ -38389,7 +38372,7 @@
       <c r="Q422" s="67" t="s">
         <v>1496</v>
       </c>
-      <c r="R422" s="87" t="s">
+      <c r="R422" s="80" t="s">
         <v>1488</v>
       </c>
       <c r="W422" s="67" t="s">
@@ -38457,7 +38440,7 @@
       <c r="Q423" s="67" t="s">
         <v>1497</v>
       </c>
-      <c r="R423" s="87" t="s">
+      <c r="R423" s="80" t="s">
         <v>1490</v>
       </c>
       <c r="W423" s="67" t="s">
@@ -38525,7 +38508,7 @@
       <c r="Q424" s="67" t="s">
         <v>1498</v>
       </c>
-      <c r="R424" s="87" t="s">
+      <c r="R424" s="80" t="s">
         <v>1492</v>
       </c>
       <c r="W424" s="67" t="s">
@@ -38590,7 +38573,7 @@
       <c r="Q425" s="67" t="s">
         <v>1442</v>
       </c>
-      <c r="R425" s="87" t="s">
+      <c r="R425" s="80" t="s">
         <v>1451</v>
       </c>
       <c r="W425" s="67" t="s">
@@ -38646,7 +38629,7 @@
       <c r="Q426" s="67" t="s">
         <v>1443</v>
       </c>
-      <c r="R426" s="87" t="s">
+      <c r="R426" s="80" t="s">
         <v>1451</v>
       </c>
       <c r="W426" s="67" t="s">
@@ -38702,7 +38685,7 @@
       <c r="Q427" s="67" t="s">
         <v>1444</v>
       </c>
-      <c r="R427" s="87" t="s">
+      <c r="R427" s="80" t="s">
         <v>1451</v>
       </c>
       <c r="W427" s="67" t="s">
@@ -38758,7 +38741,7 @@
       <c r="Q428" s="67" t="s">
         <v>1445</v>
       </c>
-      <c r="R428" s="87" t="s">
+      <c r="R428" s="80" t="s">
         <v>1451</v>
       </c>
       <c r="W428" s="67" t="s">
@@ -38814,7 +38797,7 @@
       <c r="Q429" s="67" t="s">
         <v>1446</v>
       </c>
-      <c r="R429" s="87" t="s">
+      <c r="R429" s="80" t="s">
         <v>1451</v>
       </c>
       <c r="W429" s="67" t="s">
@@ -38873,7 +38856,7 @@
       <c r="Q430" s="67" t="s">
         <v>1453</v>
       </c>
-      <c r="R430" s="87" t="s">
+      <c r="R430" s="80" t="s">
         <v>1454</v>
       </c>
       <c r="W430" s="67" t="s">
@@ -38941,7 +38924,7 @@
       <c r="Q431" s="67" t="s">
         <v>1453</v>
       </c>
-      <c r="R431" s="87" t="s">
+      <c r="R431" s="80" t="s">
         <v>1458</v>
       </c>
       <c r="W431" s="67" t="s">
@@ -39009,7 +38992,7 @@
       <c r="Q432" s="67" t="s">
         <v>1453</v>
       </c>
-      <c r="R432" s="87" t="s">
+      <c r="R432" s="80" t="s">
         <v>1460</v>
       </c>
       <c r="W432" s="67" t="s">
@@ -39077,7 +39060,7 @@
       <c r="Q433" s="67" t="s">
         <v>1573</v>
       </c>
-      <c r="R433" s="87" t="s">
+      <c r="R433" s="80" t="s">
         <v>1462</v>
       </c>
       <c r="W433" s="67" t="s">
@@ -39145,7 +39128,7 @@
       <c r="Q434" s="5" t="s">
         <v>1705</v>
       </c>
-      <c r="R434" s="77" t="s">
+      <c r="R434" s="70" t="s">
         <v>1478</v>
       </c>
       <c r="W434" s="5" t="s">
@@ -39210,7 +39193,7 @@
       <c r="Q435" s="5" t="s">
         <v>1705</v>
       </c>
-      <c r="R435" s="77" t="s">
+      <c r="R435" s="70" t="s">
         <v>1481</v>
       </c>
       <c r="W435" s="5" t="s">
@@ -39275,7 +39258,7 @@
       <c r="Q436" s="5" t="s">
         <v>1706</v>
       </c>
-      <c r="R436" s="77" t="s">
+      <c r="R436" s="70" t="s">
         <v>1479</v>
       </c>
       <c r="W436" s="5" t="s">
@@ -39340,7 +39323,7 @@
       <c r="Q437" s="5" t="s">
         <v>1706</v>
       </c>
-      <c r="R437" s="77" t="s">
+      <c r="R437" s="70" t="s">
         <v>1482</v>
       </c>
       <c r="W437" s="5" t="s">
@@ -39405,7 +39388,7 @@
       <c r="Q438" s="5" t="s">
         <v>1499</v>
       </c>
-      <c r="R438" s="77" t="s">
+      <c r="R438" s="70" t="s">
         <v>1483</v>
       </c>
       <c r="W438" s="5" t="s">
@@ -39470,7 +39453,7 @@
       <c r="Q439" s="5" t="s">
         <v>1708</v>
       </c>
-      <c r="R439" s="77" t="s">
+      <c r="R439" s="70" t="s">
         <v>1484</v>
       </c>
       <c r="W439" s="5" t="s">
@@ -39535,7 +39518,7 @@
       <c r="Q440" s="5" t="s">
         <v>1707</v>
       </c>
-      <c r="R440" s="77" t="s">
+      <c r="R440" s="70" t="s">
         <v>1480</v>
       </c>
       <c r="W440" s="5" t="s">
@@ -39597,7 +39580,7 @@
       <c r="Q441" s="5" t="s">
         <v>1515</v>
       </c>
-      <c r="R441" s="77" t="s">
+      <c r="R441" s="70" t="s">
         <v>1517</v>
       </c>
       <c r="W441" s="5" t="s">
@@ -39659,7 +39642,7 @@
       <c r="Q442" s="5" t="s">
         <v>1515</v>
       </c>
-      <c r="R442" s="77" t="s">
+      <c r="R442" s="70" t="s">
         <v>1519</v>
       </c>
       <c r="W442" s="5" t="s">
@@ -39721,7 +39704,7 @@
       <c r="Q443" s="5" t="s">
         <v>1515</v>
       </c>
-      <c r="R443" s="77" t="s">
+      <c r="R443" s="70" t="s">
         <v>1521</v>
       </c>
       <c r="W443" s="5" t="s">
@@ -39783,7 +39766,7 @@
       <c r="Q444" s="5" t="s">
         <v>1515</v>
       </c>
-      <c r="R444" s="77" t="s">
+      <c r="R444" s="70" t="s">
         <v>1522</v>
       </c>
       <c r="W444" s="5" t="s">
@@ -39845,7 +39828,7 @@
       <c r="Q445" s="5" t="s">
         <v>1515</v>
       </c>
-      <c r="R445" s="77" t="s">
+      <c r="R445" s="70" t="s">
         <v>1524</v>
       </c>
       <c r="W445" s="5" t="s">
@@ -39907,7 +39890,7 @@
       <c r="Q446" s="5" t="s">
         <v>1515</v>
       </c>
-      <c r="R446" s="77" t="s">
+      <c r="R446" s="70" t="s">
         <v>1526</v>
       </c>
       <c r="W446" s="5" t="s">
@@ -39972,7 +39955,7 @@
       <c r="Q447" s="67" t="s">
         <v>1574</v>
       </c>
-      <c r="R447" s="87" t="s">
+      <c r="R447" s="80" t="s">
         <v>1616</v>
       </c>
       <c r="W447" s="67" t="s">
@@ -40040,7 +40023,7 @@
       <c r="Q448" s="67" t="s">
         <v>1574</v>
       </c>
-      <c r="R448" s="87" t="s">
+      <c r="R448" s="80" t="s">
         <v>1617</v>
       </c>
       <c r="W448" s="67" t="s">
@@ -40105,7 +40088,7 @@
       <c r="Q449" s="67" t="s">
         <v>1574</v>
       </c>
-      <c r="R449" s="87" t="s">
+      <c r="R449" s="80" t="s">
         <v>1618</v>
       </c>
       <c r="W449" s="67" t="s">
@@ -40173,7 +40156,7 @@
       <c r="Q450" s="67" t="s">
         <v>1574</v>
       </c>
-      <c r="R450" s="87" t="s">
+      <c r="R450" s="80" t="s">
         <v>1619</v>
       </c>
       <c r="W450" s="67" t="s">
@@ -40241,7 +40224,7 @@
       <c r="Q451" s="67" t="s">
         <v>1574</v>
       </c>
-      <c r="R451" s="87" t="s">
+      <c r="R451" s="80" t="s">
         <v>1620</v>
       </c>
       <c r="W451" s="67" t="s">
@@ -40306,7 +40289,7 @@
       <c r="Q452" s="67" t="s">
         <v>1574</v>
       </c>
-      <c r="R452" s="87" t="s">
+      <c r="R452" s="80" t="s">
         <v>1621</v>
       </c>
       <c r="W452" s="67" t="s">
@@ -40374,7 +40357,7 @@
       <c r="Q453" s="67" t="s">
         <v>1574</v>
       </c>
-      <c r="R453" s="87" t="s">
+      <c r="R453" s="80" t="s">
         <v>1622</v>
       </c>
       <c r="W453" s="67" t="s">
@@ -40442,7 +40425,7 @@
       <c r="Q454" s="67" t="s">
         <v>1574</v>
       </c>
-      <c r="R454" s="87" t="s">
+      <c r="R454" s="80" t="s">
         <v>1623</v>
       </c>
       <c r="W454" s="67" t="s">
@@ -40507,7 +40490,7 @@
       <c r="Q455" s="67" t="s">
         <v>1574</v>
       </c>
-      <c r="R455" s="87" t="s">
+      <c r="R455" s="80" t="s">
         <v>1704</v>
       </c>
       <c r="W455" s="67" t="s">
@@ -40575,7 +40558,7 @@
       <c r="Q456" s="67" t="s">
         <v>1574</v>
       </c>
-      <c r="R456" s="87" t="s">
+      <c r="R456" s="80" t="s">
         <v>1624</v>
       </c>
       <c r="W456" s="67" t="s">
@@ -40643,7 +40626,7 @@
       <c r="Q457" s="67" t="s">
         <v>1574</v>
       </c>
-      <c r="R457" s="87" t="s">
+      <c r="R457" s="80" t="s">
         <v>1625</v>
       </c>
       <c r="W457" s="67" t="s">
@@ -40708,7 +40691,7 @@
       <c r="Q458" s="67" t="s">
         <v>1574</v>
       </c>
-      <c r="R458" s="87" t="s">
+      <c r="R458" s="80" t="s">
         <v>1626</v>
       </c>
       <c r="W458" s="67" t="s">
@@ -40776,7 +40759,7 @@
       <c r="Q459" s="67" t="s">
         <v>1574</v>
       </c>
-      <c r="R459" s="87" t="s">
+      <c r="R459" s="80" t="s">
         <v>1627</v>
       </c>
       <c r="W459" s="67" t="s">
@@ -40844,7 +40827,7 @@
       <c r="Q460" s="67" t="s">
         <v>1574</v>
       </c>
-      <c r="R460" s="87" t="s">
+      <c r="R460" s="80" t="s">
         <v>1628</v>
       </c>
       <c r="W460" s="67" t="s">
@@ -40909,7 +40892,7 @@
       <c r="Q461" s="67" t="s">
         <v>1574</v>
       </c>
-      <c r="R461" s="87" t="s">
+      <c r="R461" s="80" t="s">
         <v>1629</v>
       </c>
       <c r="W461" s="67" t="s">
@@ -40977,7 +40960,7 @@
       <c r="Q462" s="67" t="s">
         <v>1574</v>
       </c>
-      <c r="R462" s="87" t="s">
+      <c r="R462" s="80" t="s">
         <v>1630</v>
       </c>
       <c r="W462" s="67" t="s">
@@ -41045,7 +41028,7 @@
       <c r="Q463" s="67" t="s">
         <v>1574</v>
       </c>
-      <c r="R463" s="87" t="s">
+      <c r="R463" s="80" t="s">
         <v>1631</v>
       </c>
       <c r="W463" s="67" t="s">
@@ -41110,7 +41093,7 @@
       <c r="Q464" s="67" t="s">
         <v>1574</v>
       </c>
-      <c r="R464" s="87" t="s">
+      <c r="R464" s="80" t="s">
         <v>1632</v>
       </c>
       <c r="W464" s="67" t="s">
@@ -41178,7 +41161,7 @@
       <c r="Q465" s="67" t="s">
         <v>1574</v>
       </c>
-      <c r="R465" s="87" t="s">
+      <c r="R465" s="80" t="s">
         <v>1633</v>
       </c>
       <c r="W465" s="67" t="s">
@@ -41246,7 +41229,7 @@
       <c r="Q466" s="67" t="s">
         <v>1574</v>
       </c>
-      <c r="R466" s="87" t="s">
+      <c r="R466" s="80" t="s">
         <v>1634</v>
       </c>
       <c r="W466" s="67" t="s">
@@ -41311,7 +41294,7 @@
       <c r="Q467" s="67" t="s">
         <v>1592</v>
       </c>
-      <c r="R467" s="87" t="s">
+      <c r="R467" s="80" t="s">
         <v>1635</v>
       </c>
       <c r="W467" s="67" t="s">
@@ -41379,7 +41362,7 @@
       <c r="Q468" s="67" t="s">
         <v>1593</v>
       </c>
-      <c r="R468" s="87" t="s">
+      <c r="R468" s="80" t="s">
         <v>1636</v>
       </c>
       <c r="W468" s="67" t="s">
@@ -41444,7 +41427,7 @@
       <c r="Q469" s="67" t="s">
         <v>1593</v>
       </c>
-      <c r="R469" s="87" t="s">
+      <c r="R469" s="80" t="s">
         <v>1637</v>
       </c>
       <c r="W469" s="67" t="s">
@@ -41509,7 +41492,7 @@
       <c r="Q470" s="67" t="s">
         <v>1593</v>
       </c>
-      <c r="R470" s="87" t="s">
+      <c r="R470" s="80" t="s">
         <v>839</v>
       </c>
       <c r="W470" s="67" t="s">
@@ -41574,7 +41557,7 @@
       <c r="Q471" s="67" t="s">
         <v>1593</v>
       </c>
-      <c r="R471" s="87" t="s">
+      <c r="R471" s="80" t="s">
         <v>1638</v>
       </c>
       <c r="W471" s="67" t="s">
@@ -41639,7 +41622,7 @@
       <c r="Q472" s="67" t="s">
         <v>1593</v>
       </c>
-      <c r="R472" s="87" t="s">
+      <c r="R472" s="80" t="s">
         <v>840</v>
       </c>
       <c r="W472" s="67" t="s">
@@ -41704,7 +41687,7 @@
       <c r="Q473" s="67" t="s">
         <v>1593</v>
       </c>
-      <c r="R473" s="87" t="s">
+      <c r="R473" s="80" t="s">
         <v>1639</v>
       </c>
       <c r="W473" s="67" t="s">
@@ -41769,7 +41752,7 @@
       <c r="Q474" s="67" t="s">
         <v>1593</v>
       </c>
-      <c r="R474" s="87" t="s">
+      <c r="R474" s="80" t="s">
         <v>1640</v>
       </c>
       <c r="W474" s="67" t="s">
@@ -41834,7 +41817,7 @@
       <c r="Q475" s="67" t="s">
         <v>1668</v>
       </c>
-      <c r="R475" s="87" t="s">
+      <c r="R475" s="80" t="s">
         <v>1683</v>
       </c>
       <c r="W475" s="67" t="s">
@@ -41899,7 +41882,7 @@
       <c r="Q476" s="67" t="s">
         <v>1670</v>
       </c>
-      <c r="R476" s="87" t="s">
+      <c r="R476" s="80" t="s">
         <v>1674</v>
       </c>
       <c r="W476" s="67" t="s">
@@ -41964,7 +41947,7 @@
       <c r="Q477" s="67" t="s">
         <v>1670</v>
       </c>
-      <c r="R477" s="87" t="s">
+      <c r="R477" s="80" t="s">
         <v>1675</v>
       </c>
       <c r="W477" s="67" t="s">
@@ -42029,7 +42012,7 @@
       <c r="Q478" s="67" t="s">
         <v>1671</v>
       </c>
-      <c r="R478" s="87" t="s">
+      <c r="R478" s="80" t="s">
         <v>1676</v>
       </c>
       <c r="W478" s="67" t="s">
@@ -42094,7 +42077,7 @@
       <c r="Q479" s="67" t="s">
         <v>1680</v>
       </c>
-      <c r="R479" s="87" t="s">
+      <c r="R479" s="80" t="s">
         <v>1677</v>
       </c>
       <c r="W479" s="67" t="s">
@@ -42156,7 +42139,7 @@
       <c r="Q480" s="5" t="s">
         <v>1712</v>
       </c>
-      <c r="R480" s="77" t="s">
+      <c r="R480" s="70" t="s">
         <v>1516</v>
       </c>
       <c r="W480" s="5" t="s">
@@ -42218,7 +42201,7 @@
       <c r="Q481" s="5" t="s">
         <v>1712</v>
       </c>
-      <c r="R481" s="77" t="s">
+      <c r="R481" s="70" t="s">
         <v>1518</v>
       </c>
       <c r="W481" s="5" t="s">
@@ -42280,7 +42263,7 @@
       <c r="Q482" s="5" t="s">
         <v>1712</v>
       </c>
-      <c r="R482" s="77" t="s">
+      <c r="R482" s="70" t="s">
         <v>1357</v>
       </c>
       <c r="W482" s="5" t="s">
@@ -42342,7 +42325,7 @@
       <c r="Q483" s="5" t="s">
         <v>1712</v>
       </c>
-      <c r="R483" s="77" t="s">
+      <c r="R483" s="70" t="s">
         <v>1522</v>
       </c>
       <c r="W483" s="5" t="s">
@@ -42404,7 +42387,7 @@
       <c r="Q484" s="5" t="s">
         <v>1712</v>
       </c>
-      <c r="R484" s="77" t="s">
+      <c r="R484" s="70" t="s">
         <v>1523</v>
       </c>
       <c r="W484" s="5" t="s">
@@ -42466,7 +42449,7 @@
       <c r="Q485" s="5" t="s">
         <v>1712</v>
       </c>
-      <c r="R485" s="77" t="s">
+      <c r="R485" s="70" t="s">
         <v>1525</v>
       </c>
       <c r="W485" s="5" t="s">
@@ -42531,7 +42514,7 @@
       <c r="Q486" s="5" t="s">
         <v>1705</v>
       </c>
-      <c r="R486" s="77" t="s">
+      <c r="R486" s="70" t="s">
         <v>1389</v>
       </c>
       <c r="W486" s="5" t="s">
@@ -42596,7 +42579,7 @@
       <c r="Q487" s="5" t="s">
         <v>1931</v>
       </c>
-      <c r="R487" s="77" t="s">
+      <c r="R487" s="70" t="s">
         <v>1385</v>
       </c>
       <c r="W487" s="5" t="s">
@@ -42661,7 +42644,7 @@
       <c r="Q488" s="5" t="s">
         <v>1499</v>
       </c>
-      <c r="R488" s="77" t="s">
+      <c r="R488" s="70" t="s">
         <v>1390</v>
       </c>
       <c r="W488" s="5" t="s">
@@ -42726,7 +42709,7 @@
       <c r="Q489" s="5" t="s">
         <v>1499</v>
       </c>
-      <c r="R489" s="77" t="s">
+      <c r="R489" s="70" t="s">
         <v>1384</v>
       </c>
       <c r="W489" s="5" t="s">
@@ -42791,7 +42774,7 @@
       <c r="Q490" s="5" t="s">
         <v>1499</v>
       </c>
-      <c r="R490" s="77" t="s">
+      <c r="R490" s="70" t="s">
         <v>1391</v>
       </c>
       <c r="W490" s="5" t="s">
@@ -42856,7 +42839,7 @@
       <c r="Q491" s="5" t="s">
         <v>1707</v>
       </c>
-      <c r="R491" s="77" t="s">
+      <c r="R491" s="70" t="s">
         <v>1386</v>
       </c>
       <c r="W491" s="5" t="s">
@@ -42921,7 +42904,7 @@
       <c r="Q492" s="5" t="s">
         <v>1707</v>
       </c>
-      <c r="R492" s="77" t="s">
+      <c r="R492" s="70" t="s">
         <v>1387</v>
       </c>
       <c r="W492" s="5" t="s">
@@ -42986,7 +42969,7 @@
       <c r="Q493" s="67" t="s">
         <v>1816</v>
       </c>
-      <c r="R493" s="87" t="s">
+      <c r="R493" s="80" t="s">
         <v>1817</v>
       </c>
       <c r="W493" s="67" t="s">
@@ -43051,7 +43034,7 @@
       <c r="Q494" s="67" t="s">
         <v>1816</v>
       </c>
-      <c r="R494" s="87" t="s">
+      <c r="R494" s="80" t="s">
         <v>1818</v>
       </c>
       <c r="W494" s="67" t="s">
@@ -43113,7 +43096,7 @@
       <c r="Q495" s="67" t="s">
         <v>1684</v>
       </c>
-      <c r="R495" s="87" t="s">
+      <c r="R495" s="80" t="s">
         <v>1828</v>
       </c>
       <c r="W495" s="67" t="s">
@@ -43178,7 +43161,7 @@
       <c r="Q496" s="67" t="s">
         <v>1684</v>
       </c>
-      <c r="R496" s="87" t="s">
+      <c r="R496" s="80" t="s">
         <v>1831</v>
       </c>
       <c r="W496" s="67" t="s">
@@ -43246,7 +43229,7 @@
       <c r="Q497" s="5" t="s">
         <v>1847</v>
       </c>
-      <c r="R497" s="84" t="s">
+      <c r="R497" s="77" t="s">
         <v>1949</v>
       </c>
       <c r="W497" s="52" t="s">
@@ -43314,7 +43297,7 @@
       <c r="Q498" s="5" t="s">
         <v>1847</v>
       </c>
-      <c r="R498" s="84" t="s">
+      <c r="R498" s="77" t="s">
         <v>1950</v>
       </c>
       <c r="W498" s="52" t="s">
@@ -43382,7 +43365,7 @@
       <c r="Q499" s="5" t="s">
         <v>1872</v>
       </c>
-      <c r="R499" s="84" t="s">
+      <c r="R499" s="77" t="s">
         <v>1951</v>
       </c>
       <c r="W499" s="52" t="s">
@@ -43450,7 +43433,7 @@
       <c r="Q500" s="5" t="s">
         <v>1847</v>
       </c>
-      <c r="R500" s="84" t="s">
+      <c r="R500" s="77" t="s">
         <v>1952</v>
       </c>
       <c r="W500" s="52" t="s">
@@ -43518,7 +43501,7 @@
       <c r="Q501" s="5" t="s">
         <v>1847</v>
       </c>
-      <c r="R501" s="84" t="s">
+      <c r="R501" s="77" t="s">
         <v>1953</v>
       </c>
       <c r="W501" s="52" t="s">
@@ -43586,7 +43569,7 @@
       <c r="Q502" s="5" t="s">
         <v>1847</v>
       </c>
-      <c r="R502" s="84" t="s">
+      <c r="R502" s="77" t="s">
         <v>1954</v>
       </c>
       <c r="W502" s="52" t="s">
@@ -43654,7 +43637,7 @@
       <c r="Q503" s="5" t="s">
         <v>1848</v>
       </c>
-      <c r="R503" s="85" t="s">
+      <c r="R503" s="78" t="s">
         <v>1955</v>
       </c>
       <c r="W503" s="52" t="s">
@@ -43722,7 +43705,7 @@
       <c r="Q504" s="5" t="s">
         <v>1848</v>
       </c>
-      <c r="R504" s="85" t="s">
+      <c r="R504" s="78" t="s">
         <v>1950</v>
       </c>
       <c r="W504" s="52" t="s">
@@ -43790,7 +43773,7 @@
       <c r="Q505" s="5" t="s">
         <v>1880</v>
       </c>
-      <c r="R505" s="85" t="s">
+      <c r="R505" s="78" t="s">
         <v>1956</v>
       </c>
       <c r="W505" s="52" t="s">
@@ -43858,7 +43841,7 @@
       <c r="Q506" s="5" t="s">
         <v>1849</v>
       </c>
-      <c r="R506" s="85" t="s">
+      <c r="R506" s="78" t="s">
         <v>1957</v>
       </c>
       <c r="W506" s="52" t="s">
@@ -43926,7 +43909,7 @@
       <c r="Q507" s="5" t="s">
         <v>1849</v>
       </c>
-      <c r="R507" s="85" t="s">
+      <c r="R507" s="78" t="s">
         <v>1958</v>
       </c>
       <c r="W507" s="52" t="s">
@@ -43994,7 +43977,7 @@
       <c r="Q508" s="5" t="s">
         <v>1849</v>
       </c>
-      <c r="R508" s="85" t="s">
+      <c r="R508" s="78" t="s">
         <v>1959</v>
       </c>
       <c r="W508" s="52" t="s">
@@ -44025,183 +44008,183 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:39" s="67" customFormat="1">
-      <c r="A509" s="67">
+    <row r="509" spans="1:39" s="5" customFormat="1">
+      <c r="A509" s="5">
         <v>508</v>
       </c>
-      <c r="B509" s="67">
+      <c r="B509" s="5">
         <v>10425</v>
       </c>
-      <c r="F509" s="67">
-        <v>1</v>
-      </c>
-      <c r="G509" s="67" t="s">
+      <c r="F509" s="5">
+        <v>1</v>
+      </c>
+      <c r="G509" s="5" t="s">
         <v>1855</v>
       </c>
-      <c r="J509" s="67" t="s">
+      <c r="J509" s="5" t="s">
         <v>1858</v>
       </c>
-      <c r="L509" s="67">
+      <c r="L509" s="5">
         <v>-4</v>
       </c>
-      <c r="M509" s="67">
-        <v>1</v>
-      </c>
-      <c r="N509" s="67">
-        <v>0</v>
-      </c>
-      <c r="O509" s="67" t="s">
+      <c r="M509" s="5">
+        <v>1</v>
+      </c>
+      <c r="N509" s="5">
+        <v>0</v>
+      </c>
+      <c r="O509" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P509" s="67">
+      <c r="P509" s="5">
         <v>1800</v>
       </c>
-      <c r="R509" s="87"/>
-      <c r="W509" s="67" t="s">
+      <c r="R509" s="70"/>
+      <c r="W509" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="X509" s="69" t="s">
+      <c r="X509" s="14" t="s">
         <v>1948</v>
       </c>
-      <c r="Y509" s="70">
-        <v>0</v>
-      </c>
-      <c r="Z509" s="67">
+      <c r="Y509" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z509" s="5">
         <v>2552233600</v>
       </c>
-      <c r="AB509" s="67" t="s">
+      <c r="AB509" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="AC509" s="67" t="s">
+      <c r="AC509" s="5" t="s">
         <v>1861</v>
       </c>
-      <c r="AD509" s="68" t="s">
+      <c r="AD509" s="10" t="s">
         <v>1864</v>
       </c>
-      <c r="AH509" s="67">
-        <v>1</v>
-      </c>
-      <c r="AI509" s="67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="510" spans="1:39" s="67" customFormat="1">
-      <c r="A510" s="67">
+      <c r="AH509" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI509" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:39" s="5" customFormat="1">
+      <c r="A510" s="5">
         <v>509</v>
       </c>
-      <c r="B510" s="67">
+      <c r="B510" s="5">
         <v>10426</v>
       </c>
-      <c r="F510" s="67">
-        <v>1</v>
-      </c>
-      <c r="G510" s="67" t="s">
+      <c r="F510" s="5">
+        <v>1</v>
+      </c>
+      <c r="G510" s="5" t="s">
         <v>1856</v>
       </c>
-      <c r="J510" s="67" t="s">
+      <c r="J510" s="5" t="s">
         <v>1859</v>
       </c>
-      <c r="L510" s="67">
+      <c r="L510" s="5">
         <v>-4</v>
       </c>
-      <c r="M510" s="67">
-        <v>1</v>
-      </c>
-      <c r="N510" s="67">
-        <v>0</v>
-      </c>
-      <c r="O510" s="67" t="s">
+      <c r="M510" s="5">
+        <v>1</v>
+      </c>
+      <c r="N510" s="5">
+        <v>0</v>
+      </c>
+      <c r="O510" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P510" s="67">
+      <c r="P510" s="5">
         <v>4800</v>
       </c>
-      <c r="R510" s="87"/>
-      <c r="W510" s="67" t="s">
+      <c r="R510" s="70"/>
+      <c r="W510" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="X510" s="69" t="s">
+      <c r="X510" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="Y510" s="70">
-        <v>0</v>
-      </c>
-      <c r="Z510" s="67">
+      <c r="Y510" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z510" s="5">
         <v>2552233600</v>
       </c>
-      <c r="AB510" s="67" t="s">
+      <c r="AB510" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="AC510" s="67" t="s">
+      <c r="AC510" s="5" t="s">
         <v>1862</v>
       </c>
-      <c r="AD510" s="68" t="s">
+      <c r="AD510" s="10" t="s">
         <v>1865</v>
       </c>
-      <c r="AH510" s="67">
-        <v>1</v>
-      </c>
-      <c r="AI510" s="67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="511" spans="1:39" s="67" customFormat="1">
-      <c r="A511" s="67">
+      <c r="AH510" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI510" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:39" s="5" customFormat="1">
+      <c r="A511" s="5">
         <v>510</v>
       </c>
-      <c r="B511" s="67">
+      <c r="B511" s="5">
         <v>10427</v>
       </c>
-      <c r="F511" s="67">
-        <v>1</v>
-      </c>
-      <c r="G511" s="67" t="s">
+      <c r="F511" s="5">
+        <v>1</v>
+      </c>
+      <c r="G511" s="5" t="s">
         <v>1857</v>
       </c>
-      <c r="J511" s="67" t="s">
+      <c r="J511" s="5" t="s">
         <v>1860</v>
       </c>
-      <c r="L511" s="67">
+      <c r="L511" s="5">
         <v>-4</v>
       </c>
-      <c r="M511" s="67">
-        <v>1</v>
-      </c>
-      <c r="N511" s="67">
-        <v>0</v>
-      </c>
-      <c r="O511" s="67" t="s">
+      <c r="M511" s="5">
+        <v>1</v>
+      </c>
+      <c r="N511" s="5">
+        <v>0</v>
+      </c>
+      <c r="O511" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P511" s="67">
+      <c r="P511" s="5">
         <v>9800</v>
       </c>
-      <c r="R511" s="87"/>
-      <c r="W511" s="67" t="s">
+      <c r="R511" s="70"/>
+      <c r="W511" s="5" t="s">
         <v>1879</v>
       </c>
-      <c r="X511" s="69" t="s">
+      <c r="X511" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="Y511" s="70">
-        <v>0</v>
-      </c>
-      <c r="Z511" s="67">
+      <c r="Y511" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z511" s="5">
         <v>2552233600</v>
       </c>
-      <c r="AB511" s="67" t="s">
+      <c r="AB511" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="AC511" s="67" t="s">
+      <c r="AC511" s="5" t="s">
         <v>1863</v>
       </c>
-      <c r="AD511" s="68" t="s">
+      <c r="AD511" s="10" t="s">
         <v>1866</v>
       </c>
-      <c r="AH511" s="67">
-        <v>1</v>
-      </c>
-      <c r="AI511" s="67">
+      <c r="AH511" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI511" s="5">
         <v>1</v>
       </c>
     </row>
@@ -44242,7 +44225,7 @@
       <c r="Q512" s="5" t="s">
         <v>1985</v>
       </c>
-      <c r="R512" s="77" t="s">
+      <c r="R512" s="70" t="s">
         <v>1875</v>
       </c>
       <c r="W512" s="5" t="s">
@@ -44310,7 +44293,7 @@
       <c r="Q513" s="5" t="s">
         <v>1873</v>
       </c>
-      <c r="R513" s="77" t="s">
+      <c r="R513" s="70" t="s">
         <v>1876</v>
       </c>
       <c r="W513" s="5" t="s">
@@ -44378,7 +44361,7 @@
       <c r="Q514" s="5" t="s">
         <v>1874</v>
       </c>
-      <c r="R514" s="77" t="s">
+      <c r="R514" s="70" t="s">
         <v>1877</v>
       </c>
       <c r="W514" s="5" t="s">
@@ -44446,7 +44429,7 @@
       <c r="Q515" s="5" t="s">
         <v>1891</v>
       </c>
-      <c r="R515" s="77" t="s">
+      <c r="R515" s="70" t="s">
         <v>1878</v>
       </c>
       <c r="W515" s="5" t="s">
@@ -44514,7 +44497,7 @@
       <c r="Q516" s="5" t="s">
         <v>1895</v>
       </c>
-      <c r="R516" s="77" t="s">
+      <c r="R516" s="70" t="s">
         <v>1896</v>
       </c>
       <c r="W516" s="5" t="s">
@@ -44582,7 +44565,7 @@
       <c r="Q517" s="5" t="s">
         <v>1895</v>
       </c>
-      <c r="R517" s="77" t="s">
+      <c r="R517" s="70" t="s">
         <v>1898</v>
       </c>
       <c r="W517" s="5" t="s">
@@ -44650,7 +44633,7 @@
       <c r="Q518" s="5" t="s">
         <v>1881</v>
       </c>
-      <c r="R518" s="77" t="s">
+      <c r="R518" s="70" t="s">
         <v>1882</v>
       </c>
       <c r="W518" s="5" t="s">
@@ -44718,7 +44701,7 @@
       <c r="Q519" s="5" t="s">
         <v>1901</v>
       </c>
-      <c r="R519" s="77" t="s">
+      <c r="R519" s="70" t="s">
         <v>1902</v>
       </c>
       <c r="W519" s="5" t="s">
@@ -44786,7 +44769,7 @@
       <c r="Q520" s="5" t="s">
         <v>1907</v>
       </c>
-      <c r="R520" s="77" t="s">
+      <c r="R520" s="70" t="s">
         <v>1908</v>
       </c>
       <c r="S520" s="5" t="s">
@@ -44811,819 +44794,819 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:39" s="19" customFormat="1">
-      <c r="A521" s="19">
+    <row r="521" spans="1:39" s="5" customFormat="1">
+      <c r="A521" s="5">
         <v>520</v>
       </c>
-      <c r="B521" s="19">
+      <c r="B521" s="5">
         <v>10437</v>
       </c>
-      <c r="F521" s="19">
-        <v>1</v>
-      </c>
-      <c r="G521" s="19" t="s">
+      <c r="F521" s="5">
+        <v>0</v>
+      </c>
+      <c r="G521" s="5" t="s">
         <v>1912</v>
       </c>
-      <c r="I521" s="19" t="s">
+      <c r="I521" s="5" t="s">
         <v>1916</v>
       </c>
-      <c r="J521" s="19" t="s">
+      <c r="J521" s="5" t="s">
         <v>1919</v>
       </c>
-      <c r="L521" s="19">
+      <c r="L521" s="5">
         <v>-33</v>
       </c>
-      <c r="M521" s="19">
-        <v>0</v>
-      </c>
-      <c r="N521" s="19">
-        <v>0</v>
-      </c>
-      <c r="O521" s="19" t="s">
+      <c r="M521" s="5">
+        <v>0</v>
+      </c>
+      <c r="N521" s="5">
+        <v>0</v>
+      </c>
+      <c r="O521" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P521" s="19">
+      <c r="P521" s="5">
         <v>600</v>
       </c>
-      <c r="Q521" s="19" t="s">
+      <c r="Q521" s="5" t="s">
         <v>1932</v>
       </c>
-      <c r="R521" s="80" t="s">
+      <c r="R521" s="70" t="s">
         <v>1971</v>
       </c>
-      <c r="W521" s="19" t="s">
+      <c r="W521" s="5" t="s">
         <v>1947</v>
       </c>
-      <c r="X521" s="19">
+      <c r="X521" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y521" s="19">
+      <c r="Y521" s="5">
         <v>1613433600</v>
       </c>
-      <c r="Z521" s="19">
+      <c r="Z521" s="5">
         <v>1614009599</v>
       </c>
-      <c r="AA521" s="19">
+      <c r="AA521" s="5">
         <v>70</v>
       </c>
-      <c r="AH521" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI521" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL521" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM521" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="522" spans="1:39" s="19" customFormat="1">
-      <c r="A522" s="19">
+      <c r="AH521" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI521" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL521" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM521" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:39" s="5" customFormat="1">
+      <c r="A522" s="5">
         <v>521</v>
       </c>
-      <c r="B522" s="19">
+      <c r="B522" s="5">
         <v>10438</v>
       </c>
-      <c r="F522" s="19">
-        <v>1</v>
-      </c>
-      <c r="G522" s="19" t="s">
+      <c r="F522" s="5">
+        <v>0</v>
+      </c>
+      <c r="G522" s="5" t="s">
         <v>1913</v>
       </c>
-      <c r="I522" s="19" t="s">
+      <c r="I522" s="5" t="s">
         <v>1916</v>
       </c>
-      <c r="J522" s="19" t="s">
+      <c r="J522" s="5" t="s">
         <v>1921</v>
       </c>
-      <c r="L522" s="19">
+      <c r="L522" s="5">
         <v>-33</v>
       </c>
-      <c r="M522" s="19">
-        <v>0</v>
-      </c>
-      <c r="N522" s="19">
-        <v>0</v>
-      </c>
-      <c r="O522" s="19" t="s">
+      <c r="M522" s="5">
+        <v>0</v>
+      </c>
+      <c r="N522" s="5">
+        <v>0</v>
+      </c>
+      <c r="O522" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P522" s="19">
+      <c r="P522" s="5">
         <v>1000</v>
       </c>
-      <c r="Q522" s="19" t="s">
+      <c r="Q522" s="5" t="s">
         <v>1933</v>
       </c>
-      <c r="R522" s="80" t="s">
+      <c r="R522" s="70" t="s">
         <v>1936</v>
       </c>
-      <c r="W522" s="19" t="s">
+      <c r="W522" s="5" t="s">
         <v>1200</v>
       </c>
-      <c r="X522" s="19">
+      <c r="X522" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y522" s="19">
+      <c r="Y522" s="5">
         <v>1613433600</v>
       </c>
-      <c r="Z522" s="19">
+      <c r="Z522" s="5">
         <v>1614009599</v>
       </c>
-      <c r="AA522" s="19">
+      <c r="AA522" s="5">
         <v>70</v>
       </c>
-      <c r="AH522" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI522" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL522" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM522" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="523" spans="1:39" s="19" customFormat="1">
-      <c r="A523" s="19">
+      <c r="AH522" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI522" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL522" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM522" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:39" s="5" customFormat="1">
+      <c r="A523" s="5">
         <v>522</v>
       </c>
-      <c r="B523" s="19">
+      <c r="B523" s="5">
         <v>10439</v>
       </c>
-      <c r="F523" s="19">
-        <v>1</v>
-      </c>
-      <c r="G523" s="19" t="s">
+      <c r="F523" s="5">
+        <v>0</v>
+      </c>
+      <c r="G523" s="5" t="s">
         <v>1914</v>
       </c>
-      <c r="I523" s="19" t="s">
+      <c r="I523" s="5" t="s">
         <v>1916</v>
       </c>
-      <c r="J523" s="19" t="s">
+      <c r="J523" s="5" t="s">
         <v>1922</v>
       </c>
-      <c r="L523" s="19">
+      <c r="L523" s="5">
         <v>-33</v>
       </c>
-      <c r="M523" s="19">
-        <v>0</v>
-      </c>
-      <c r="N523" s="19">
-        <v>0</v>
-      </c>
-      <c r="O523" s="19" t="s">
+      <c r="M523" s="5">
+        <v>0</v>
+      </c>
+      <c r="N523" s="5">
+        <v>0</v>
+      </c>
+      <c r="O523" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P523" s="19">
+      <c r="P523" s="5">
         <v>1800</v>
       </c>
-      <c r="Q523" s="19" t="s">
+      <c r="Q523" s="5" t="s">
         <v>1934</v>
       </c>
-      <c r="R523" s="80" t="s">
+      <c r="R523" s="70" t="s">
         <v>1937</v>
       </c>
-      <c r="W523" s="19" t="s">
+      <c r="W523" s="5" t="s">
         <v>1200</v>
       </c>
-      <c r="X523" s="19">
+      <c r="X523" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y523" s="19">
+      <c r="Y523" s="5">
         <v>1613433600</v>
       </c>
-      <c r="Z523" s="19">
+      <c r="Z523" s="5">
         <v>1614009599</v>
       </c>
-      <c r="AA523" s="19">
+      <c r="AA523" s="5">
         <v>70</v>
       </c>
-      <c r="AH523" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI523" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL523" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM523" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="524" spans="1:39" s="19" customFormat="1">
-      <c r="A524" s="19">
+      <c r="AH523" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI523" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL523" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM523" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:39" s="5" customFormat="1">
+      <c r="A524" s="5">
         <v>523</v>
       </c>
-      <c r="B524" s="19">
+      <c r="B524" s="5">
         <v>10440</v>
       </c>
-      <c r="F524" s="19">
-        <v>1</v>
-      </c>
-      <c r="G524" s="19" t="s">
+      <c r="F524" s="5">
+        <v>0</v>
+      </c>
+      <c r="G524" s="5" t="s">
         <v>1915</v>
       </c>
-      <c r="I524" s="19" t="s">
+      <c r="I524" s="5" t="s">
         <v>1916</v>
       </c>
-      <c r="J524" s="19" t="s">
+      <c r="J524" s="5" t="s">
         <v>1923</v>
       </c>
-      <c r="L524" s="19">
+      <c r="L524" s="5">
         <v>-33</v>
       </c>
-      <c r="M524" s="19">
-        <v>0</v>
-      </c>
-      <c r="N524" s="19">
-        <v>0</v>
-      </c>
-      <c r="O524" s="19" t="s">
+      <c r="M524" s="5">
+        <v>0</v>
+      </c>
+      <c r="N524" s="5">
+        <v>0</v>
+      </c>
+      <c r="O524" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P524" s="19">
+      <c r="P524" s="5">
         <v>4800</v>
       </c>
-      <c r="Q524" s="19" t="s">
+      <c r="Q524" s="5" t="s">
         <v>1935</v>
       </c>
-      <c r="R524" s="80" t="s">
+      <c r="R524" s="70" t="s">
         <v>1938</v>
       </c>
-      <c r="W524" s="19" t="s">
+      <c r="W524" s="5" t="s">
         <v>1200</v>
       </c>
-      <c r="X524" s="19">
+      <c r="X524" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y524" s="19">
+      <c r="Y524" s="5">
         <v>1613433600</v>
       </c>
-      <c r="Z524" s="19">
+      <c r="Z524" s="5">
         <v>1614009599</v>
       </c>
-      <c r="AA524" s="19">
+      <c r="AA524" s="5">
         <v>70</v>
       </c>
-      <c r="AH524" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI524" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL524" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM524" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="525" spans="1:39" s="19" customFormat="1">
-      <c r="A525" s="19">
+      <c r="AH524" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI524" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL524" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM524" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:39" s="5" customFormat="1">
+      <c r="A525" s="5">
         <v>524</v>
       </c>
-      <c r="B525" s="19">
+      <c r="B525" s="5">
         <v>10441</v>
       </c>
-      <c r="F525" s="19">
-        <v>1</v>
-      </c>
-      <c r="G525" s="19" t="s">
+      <c r="F525" s="5">
+        <v>0</v>
+      </c>
+      <c r="G525" s="5" t="s">
         <v>1912</v>
       </c>
-      <c r="I525" s="19" t="s">
+      <c r="I525" s="5" t="s">
         <v>1917</v>
       </c>
-      <c r="J525" s="19" t="s">
+      <c r="J525" s="5" t="s">
         <v>1920</v>
       </c>
-      <c r="L525" s="19">
+      <c r="L525" s="5">
         <v>-33</v>
       </c>
-      <c r="M525" s="19">
-        <v>0</v>
-      </c>
-      <c r="N525" s="19">
-        <v>0</v>
-      </c>
-      <c r="O525" s="19" t="s">
+      <c r="M525" s="5">
+        <v>0</v>
+      </c>
+      <c r="N525" s="5">
+        <v>0</v>
+      </c>
+      <c r="O525" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P525" s="19">
+      <c r="P525" s="5">
         <v>1800</v>
       </c>
-      <c r="Q525" s="19" t="s">
+      <c r="Q525" s="5" t="s">
         <v>1932</v>
       </c>
-      <c r="R525" s="80" t="s">
+      <c r="R525" s="70" t="s">
         <v>1944</v>
       </c>
-      <c r="W525" s="19" t="s">
+      <c r="W525" s="5" t="s">
         <v>1200</v>
       </c>
-      <c r="X525" s="19">
+      <c r="X525" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y525" s="19">
+      <c r="Y525" s="5">
         <v>1613433600</v>
       </c>
-      <c r="Z525" s="19">
+      <c r="Z525" s="5">
         <v>1614009599</v>
       </c>
-      <c r="AA525" s="19">
+      <c r="AA525" s="5">
         <v>71</v>
       </c>
-      <c r="AH525" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI525" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL525" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM525" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="526" spans="1:39" s="19" customFormat="1">
-      <c r="A526" s="19">
+      <c r="AH525" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI525" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL525" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM525" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:39" s="5" customFormat="1">
+      <c r="A526" s="5">
         <v>525</v>
       </c>
-      <c r="B526" s="19">
+      <c r="B526" s="5">
         <v>10442</v>
       </c>
-      <c r="F526" s="19">
-        <v>1</v>
-      </c>
-      <c r="G526" s="19" t="s">
+      <c r="F526" s="5">
+        <v>0</v>
+      </c>
+      <c r="G526" s="5" t="s">
         <v>1913</v>
       </c>
-      <c r="I526" s="19" t="s">
+      <c r="I526" s="5" t="s">
         <v>1917</v>
       </c>
-      <c r="J526" s="19" t="s">
+      <c r="J526" s="5" t="s">
         <v>1924</v>
       </c>
-      <c r="L526" s="19">
+      <c r="L526" s="5">
         <v>-33</v>
       </c>
-      <c r="M526" s="19">
-        <v>0</v>
-      </c>
-      <c r="N526" s="19">
-        <v>0</v>
-      </c>
-      <c r="O526" s="19" t="s">
+      <c r="M526" s="5">
+        <v>0</v>
+      </c>
+      <c r="N526" s="5">
+        <v>0</v>
+      </c>
+      <c r="O526" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P526" s="19">
+      <c r="P526" s="5">
         <v>4800</v>
       </c>
-      <c r="Q526" s="19" t="s">
+      <c r="Q526" s="5" t="s">
         <v>1933</v>
       </c>
-      <c r="R526" s="80" t="s">
+      <c r="R526" s="70" t="s">
         <v>1945</v>
       </c>
-      <c r="W526" s="19" t="s">
+      <c r="W526" s="5" t="s">
         <v>1200</v>
       </c>
-      <c r="X526" s="19">
+      <c r="X526" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y526" s="19">
+      <c r="Y526" s="5">
         <v>1613433600</v>
       </c>
-      <c r="Z526" s="19">
+      <c r="Z526" s="5">
         <v>1614009599</v>
       </c>
-      <c r="AA526" s="19">
+      <c r="AA526" s="5">
         <v>71</v>
       </c>
-      <c r="AH526" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI526" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL526" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM526" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="527" spans="1:39" s="19" customFormat="1">
-      <c r="A527" s="19">
+      <c r="AH526" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI526" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL526" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM526" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:39" s="5" customFormat="1">
+      <c r="A527" s="5">
         <v>526</v>
       </c>
-      <c r="B527" s="19">
+      <c r="B527" s="5">
         <v>10443</v>
       </c>
-      <c r="F527" s="19">
-        <v>1</v>
-      </c>
-      <c r="G527" s="19" t="s">
+      <c r="F527" s="5">
+        <v>0</v>
+      </c>
+      <c r="G527" s="5" t="s">
         <v>1914</v>
       </c>
-      <c r="I527" s="19" t="s">
+      <c r="I527" s="5" t="s">
         <v>1917</v>
       </c>
-      <c r="J527" s="19" t="s">
+      <c r="J527" s="5" t="s">
         <v>1925</v>
       </c>
-      <c r="L527" s="19">
+      <c r="L527" s="5">
         <v>-33</v>
       </c>
-      <c r="M527" s="19">
-        <v>0</v>
-      </c>
-      <c r="N527" s="19">
-        <v>0</v>
-      </c>
-      <c r="O527" s="19" t="s">
+      <c r="M527" s="5">
+        <v>0</v>
+      </c>
+      <c r="N527" s="5">
+        <v>0</v>
+      </c>
+      <c r="O527" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P527" s="19">
+      <c r="P527" s="5">
         <v>9800</v>
       </c>
-      <c r="Q527" s="19" t="s">
+      <c r="Q527" s="5" t="s">
         <v>1934</v>
       </c>
-      <c r="R527" s="80" t="s">
+      <c r="R527" s="70" t="s">
         <v>1946</v>
       </c>
-      <c r="W527" s="19" t="s">
+      <c r="W527" s="5" t="s">
         <v>1200</v>
       </c>
-      <c r="X527" s="19">
+      <c r="X527" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y527" s="19">
+      <c r="Y527" s="5">
         <v>1613433600</v>
       </c>
-      <c r="Z527" s="19">
+      <c r="Z527" s="5">
         <v>1614009599</v>
       </c>
-      <c r="AA527" s="19">
+      <c r="AA527" s="5">
         <v>71</v>
       </c>
-      <c r="AH527" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI527" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL527" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM527" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="528" spans="1:39" s="19" customFormat="1">
-      <c r="A528" s="19">
+      <c r="AH527" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI527" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL527" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM527" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:39" s="5" customFormat="1">
+      <c r="A528" s="5">
         <v>527</v>
       </c>
-      <c r="B528" s="19">
+      <c r="B528" s="5">
         <v>10444</v>
       </c>
-      <c r="F528" s="19">
-        <v>1</v>
-      </c>
-      <c r="G528" s="19" t="s">
+      <c r="F528" s="5">
+        <v>0</v>
+      </c>
+      <c r="G528" s="5" t="s">
         <v>1915</v>
       </c>
-      <c r="I528" s="19" t="s">
+      <c r="I528" s="5" t="s">
         <v>1917</v>
       </c>
-      <c r="J528" s="19" t="s">
+      <c r="J528" s="5" t="s">
         <v>1926</v>
       </c>
-      <c r="L528" s="19">
+      <c r="L528" s="5">
         <v>-33</v>
       </c>
-      <c r="M528" s="19">
-        <v>0</v>
-      </c>
-      <c r="N528" s="19">
-        <v>0</v>
-      </c>
-      <c r="O528" s="19" t="s">
+      <c r="M528" s="5">
+        <v>0</v>
+      </c>
+      <c r="N528" s="5">
+        <v>0</v>
+      </c>
+      <c r="O528" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P528" s="19">
+      <c r="P528" s="5">
         <v>19800</v>
       </c>
-      <c r="Q528" s="19" t="s">
+      <c r="Q528" s="5" t="s">
         <v>1935</v>
       </c>
-      <c r="R528" s="80" t="s">
+      <c r="R528" s="70" t="s">
         <v>1941</v>
       </c>
-      <c r="W528" s="19" t="s">
+      <c r="W528" s="5" t="s">
         <v>1200</v>
       </c>
-      <c r="X528" s="19">
+      <c r="X528" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y528" s="19">
+      <c r="Y528" s="5">
         <v>1613433600</v>
       </c>
-      <c r="Z528" s="19">
+      <c r="Z528" s="5">
         <v>1614009599</v>
       </c>
-      <c r="AA528" s="19">
+      <c r="AA528" s="5">
         <v>71</v>
       </c>
-      <c r="AH528" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI528" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL528" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM528" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="529" spans="1:39" s="19" customFormat="1">
-      <c r="A529" s="19">
+      <c r="AH528" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI528" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL528" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM528" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:39" s="5" customFormat="1">
+      <c r="A529" s="5">
         <v>528</v>
       </c>
-      <c r="B529" s="19">
+      <c r="B529" s="5">
         <v>10445</v>
       </c>
-      <c r="F529" s="19">
-        <v>1</v>
-      </c>
-      <c r="G529" s="19" t="s">
+      <c r="F529" s="5">
+        <v>0</v>
+      </c>
+      <c r="G529" s="5" t="s">
         <v>1912</v>
       </c>
-      <c r="I529" s="19" t="s">
+      <c r="I529" s="5" t="s">
         <v>1918</v>
       </c>
-      <c r="J529" s="19" t="s">
+      <c r="J529" s="5" t="s">
         <v>1927</v>
       </c>
-      <c r="L529" s="19">
+      <c r="L529" s="5">
         <v>-33</v>
       </c>
-      <c r="M529" s="19">
-        <v>0</v>
-      </c>
-      <c r="N529" s="19">
-        <v>0</v>
-      </c>
-      <c r="O529" s="19" t="s">
+      <c r="M529" s="5">
+        <v>0</v>
+      </c>
+      <c r="N529" s="5">
+        <v>0</v>
+      </c>
+      <c r="O529" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P529" s="19">
+      <c r="P529" s="5">
         <v>4800</v>
       </c>
-      <c r="Q529" s="19" t="s">
+      <c r="Q529" s="5" t="s">
         <v>1932</v>
       </c>
-      <c r="R529" s="80" t="s">
+      <c r="R529" s="70" t="s">
         <v>1939</v>
       </c>
-      <c r="W529" s="19" t="s">
+      <c r="W529" s="5" t="s">
         <v>1200</v>
       </c>
-      <c r="X529" s="19">
+      <c r="X529" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y529" s="19">
+      <c r="Y529" s="5">
         <v>1613433600</v>
       </c>
-      <c r="Z529" s="19">
+      <c r="Z529" s="5">
         <v>1614009599</v>
       </c>
-      <c r="AA529" s="19">
+      <c r="AA529" s="5">
         <v>72</v>
       </c>
-      <c r="AH529" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI529" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL529" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM529" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="530" spans="1:39" s="19" customFormat="1">
-      <c r="A530" s="19">
+      <c r="AH529" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI529" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL529" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM529" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:39" s="5" customFormat="1">
+      <c r="A530" s="5">
         <v>529</v>
       </c>
-      <c r="B530" s="19">
+      <c r="B530" s="5">
         <v>10446</v>
       </c>
-      <c r="F530" s="19">
-        <v>1</v>
-      </c>
-      <c r="G530" s="19" t="s">
+      <c r="F530" s="5">
+        <v>0</v>
+      </c>
+      <c r="G530" s="5" t="s">
         <v>1913</v>
       </c>
-      <c r="I530" s="19" t="s">
+      <c r="I530" s="5" t="s">
         <v>1918</v>
       </c>
-      <c r="J530" s="19" t="s">
+      <c r="J530" s="5" t="s">
         <v>1928</v>
       </c>
-      <c r="L530" s="19">
+      <c r="L530" s="5">
         <v>-33</v>
       </c>
-      <c r="M530" s="19">
-        <v>0</v>
-      </c>
-      <c r="N530" s="19">
-        <v>0</v>
-      </c>
-      <c r="O530" s="19" t="s">
+      <c r="M530" s="5">
+        <v>0</v>
+      </c>
+      <c r="N530" s="5">
+        <v>0</v>
+      </c>
+      <c r="O530" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P530" s="19">
+      <c r="P530" s="5">
         <v>9800</v>
       </c>
-      <c r="Q530" s="19" t="s">
+      <c r="Q530" s="5" t="s">
         <v>1933</v>
       </c>
-      <c r="R530" s="80" t="s">
+      <c r="R530" s="70" t="s">
         <v>1943</v>
       </c>
-      <c r="W530" s="19" t="s">
+      <c r="W530" s="5" t="s">
         <v>1200</v>
       </c>
-      <c r="X530" s="19">
+      <c r="X530" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y530" s="19">
+      <c r="Y530" s="5">
         <v>1613433600</v>
       </c>
-      <c r="Z530" s="19">
+      <c r="Z530" s="5">
         <v>1614009599</v>
       </c>
-      <c r="AA530" s="19">
+      <c r="AA530" s="5">
         <v>72</v>
       </c>
-      <c r="AH530" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI530" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL530" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM530" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="531" spans="1:39" s="19" customFormat="1">
-      <c r="A531" s="19">
+      <c r="AH530" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI530" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL530" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM530" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:39" s="5" customFormat="1">
+      <c r="A531" s="5">
         <v>530</v>
       </c>
-      <c r="B531" s="19">
+      <c r="B531" s="5">
         <v>10447</v>
       </c>
-      <c r="F531" s="19">
-        <v>1</v>
-      </c>
-      <c r="G531" s="19" t="s">
+      <c r="F531" s="5">
+        <v>0</v>
+      </c>
+      <c r="G531" s="5" t="s">
         <v>1914</v>
       </c>
-      <c r="I531" s="19" t="s">
+      <c r="I531" s="5" t="s">
         <v>1918</v>
       </c>
-      <c r="J531" s="19" t="s">
+      <c r="J531" s="5" t="s">
         <v>1929</v>
       </c>
-      <c r="L531" s="19">
+      <c r="L531" s="5">
         <v>-33</v>
       </c>
-      <c r="M531" s="19">
-        <v>0</v>
-      </c>
-      <c r="N531" s="19">
-        <v>0</v>
-      </c>
-      <c r="O531" s="19" t="s">
+      <c r="M531" s="5">
+        <v>0</v>
+      </c>
+      <c r="N531" s="5">
+        <v>0</v>
+      </c>
+      <c r="O531" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P531" s="19">
+      <c r="P531" s="5">
         <v>19800</v>
       </c>
-      <c r="Q531" s="19" t="s">
+      <c r="Q531" s="5" t="s">
         <v>1934</v>
       </c>
-      <c r="R531" s="80" t="s">
+      <c r="R531" s="70" t="s">
         <v>1940</v>
       </c>
-      <c r="W531" s="19" t="s">
+      <c r="W531" s="5" t="s">
         <v>1200</v>
       </c>
-      <c r="X531" s="19">
+      <c r="X531" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y531" s="19">
+      <c r="Y531" s="5">
         <v>1613433600</v>
       </c>
-      <c r="Z531" s="19">
+      <c r="Z531" s="5">
         <v>1614009599</v>
       </c>
-      <c r="AA531" s="19">
+      <c r="AA531" s="5">
         <v>72</v>
       </c>
-      <c r="AH531" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI531" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL531" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM531" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="532" spans="1:39" s="19" customFormat="1">
-      <c r="A532" s="19">
+      <c r="AH531" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI531" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL531" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM531" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:39" s="5" customFormat="1">
+      <c r="A532" s="5">
         <v>531</v>
       </c>
-      <c r="B532" s="19">
+      <c r="B532" s="5">
         <v>10448</v>
       </c>
-      <c r="F532" s="19">
-        <v>1</v>
-      </c>
-      <c r="G532" s="19" t="s">
+      <c r="F532" s="5">
+        <v>0</v>
+      </c>
+      <c r="G532" s="5" t="s">
         <v>1915</v>
       </c>
-      <c r="I532" s="19" t="s">
+      <c r="I532" s="5" t="s">
         <v>1918</v>
       </c>
-      <c r="J532" s="19" t="s">
+      <c r="J532" s="5" t="s">
         <v>1930</v>
       </c>
-      <c r="L532" s="19">
+      <c r="L532" s="5">
         <v>-33</v>
       </c>
-      <c r="M532" s="19">
-        <v>0</v>
-      </c>
-      <c r="N532" s="19">
-        <v>0</v>
-      </c>
-      <c r="O532" s="19" t="s">
+      <c r="M532" s="5">
+        <v>0</v>
+      </c>
+      <c r="N532" s="5">
+        <v>0</v>
+      </c>
+      <c r="O532" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P532" s="19">
+      <c r="P532" s="5">
         <v>49800</v>
       </c>
-      <c r="Q532" s="19" t="s">
+      <c r="Q532" s="5" t="s">
         <v>1935</v>
       </c>
-      <c r="R532" s="80" t="s">
+      <c r="R532" s="70" t="s">
         <v>1942</v>
       </c>
-      <c r="W532" s="19" t="s">
+      <c r="W532" s="5" t="s">
         <v>1200</v>
       </c>
-      <c r="X532" s="19">
+      <c r="X532" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y532" s="19">
+      <c r="Y532" s="5">
         <v>1613433600</v>
       </c>
-      <c r="Z532" s="19">
+      <c r="Z532" s="5">
         <v>1614009599</v>
       </c>
-      <c r="AA532" s="19">
+      <c r="AA532" s="5">
         <v>72</v>
       </c>
-      <c r="AH532" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI532" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL532" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM532" s="19">
+      <c r="AH532" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI532" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL532" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM532" s="5">
         <v>1</v>
       </c>
     </row>
@@ -45635,7 +45618,7 @@
         <v>10449</v>
       </c>
       <c r="F533" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G533" s="5" t="s">
         <v>1962</v>
@@ -45664,7 +45647,7 @@
       <c r="Q533" s="5" t="s">
         <v>1968</v>
       </c>
-      <c r="R533" s="77" t="s">
+      <c r="R533" s="70" t="s">
         <v>1331</v>
       </c>
       <c r="W533" s="5" t="s">
@@ -45679,7 +45662,7 @@
       <c r="Z533" s="5">
         <v>1612195199</v>
       </c>
-      <c r="AA533" s="52">
+      <c r="AA533" s="5">
         <v>73</v>
       </c>
       <c r="AH533" s="5">
@@ -45703,7 +45686,7 @@
         <v>10450</v>
       </c>
       <c r="F534" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G534" s="5" t="s">
         <v>1963</v>
@@ -45732,7 +45715,7 @@
       <c r="Q534" s="5" t="s">
         <v>1324</v>
       </c>
-      <c r="R534" s="77" t="s">
+      <c r="R534" s="70" t="s">
         <v>1332</v>
       </c>
       <c r="W534" s="5" t="s">
@@ -45747,7 +45730,7 @@
       <c r="Z534" s="5">
         <v>1612195199</v>
       </c>
-      <c r="AA534" s="52">
+      <c r="AA534" s="5">
         <v>73</v>
       </c>
       <c r="AH534" s="5">
@@ -45771,7 +45754,7 @@
         <v>10451</v>
       </c>
       <c r="F535" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G535" s="5" t="s">
         <v>1964</v>
@@ -45800,7 +45783,7 @@
       <c r="Q535" s="5" t="s">
         <v>1325</v>
       </c>
-      <c r="R535" s="77" t="s">
+      <c r="R535" s="70" t="s">
         <v>1333</v>
       </c>
       <c r="W535" s="5" t="s">
@@ -45815,7 +45798,7 @@
       <c r="Z535" s="5">
         <v>1612195199</v>
       </c>
-      <c r="AA535" s="52">
+      <c r="AA535" s="5">
         <v>73</v>
       </c>
       <c r="AH535" s="5">
@@ -45839,7 +45822,7 @@
         <v>10452</v>
       </c>
       <c r="F536" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G536" s="5" t="s">
         <v>1962</v>
@@ -45868,7 +45851,7 @@
       <c r="Q536" s="5" t="s">
         <v>1326</v>
       </c>
-      <c r="R536" s="77" t="s">
+      <c r="R536" s="70" t="s">
         <v>1333</v>
       </c>
       <c r="W536" s="5" t="s">
@@ -45883,7 +45866,7 @@
       <c r="Z536" s="5">
         <v>1612195199</v>
       </c>
-      <c r="AA536" s="51">
+      <c r="AA536" s="5">
         <v>74</v>
       </c>
       <c r="AH536" s="5">
@@ -45907,7 +45890,7 @@
         <v>10453</v>
       </c>
       <c r="F537" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G537" s="5" t="s">
         <v>1963</v>
@@ -45936,7 +45919,7 @@
       <c r="Q537" s="5" t="s">
         <v>1327</v>
       </c>
-      <c r="R537" s="77" t="s">
+      <c r="R537" s="70" t="s">
         <v>1335</v>
       </c>
       <c r="W537" s="5" t="s">
@@ -45951,7 +45934,7 @@
       <c r="Z537" s="5">
         <v>1612195199</v>
       </c>
-      <c r="AA537" s="51">
+      <c r="AA537" s="5">
         <v>74</v>
       </c>
       <c r="AH537" s="5">
@@ -45975,7 +45958,7 @@
         <v>10454</v>
       </c>
       <c r="F538" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G538" s="5" t="s">
         <v>1964</v>
@@ -46004,7 +45987,7 @@
       <c r="Q538" s="5" t="s">
         <v>1328</v>
       </c>
-      <c r="R538" s="77" t="s">
+      <c r="R538" s="70" t="s">
         <v>1336</v>
       </c>
       <c r="W538" s="5" t="s">
@@ -46019,7 +46002,7 @@
       <c r="Z538" s="5">
         <v>1612195199</v>
       </c>
-      <c r="AA538" s="51">
+      <c r="AA538" s="5">
         <v>74</v>
       </c>
       <c r="AH538" s="5">
@@ -46043,7 +46026,7 @@
         <v>10455</v>
       </c>
       <c r="F539" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G539" s="5" t="s">
         <v>1962</v>
@@ -46072,7 +46055,7 @@
       <c r="Q539" s="5" t="s">
         <v>1323</v>
       </c>
-      <c r="R539" s="77" t="s">
+      <c r="R539" s="70" t="s">
         <v>1337</v>
       </c>
       <c r="W539" s="5" t="s">
@@ -46087,7 +46070,7 @@
       <c r="Z539" s="5">
         <v>1612195199</v>
       </c>
-      <c r="AA539" s="52">
+      <c r="AA539" s="5">
         <v>75</v>
       </c>
       <c r="AH539" s="5">
@@ -46111,7 +46094,7 @@
         <v>10456</v>
       </c>
       <c r="F540" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G540" s="5" t="s">
         <v>1963</v>
@@ -46140,7 +46123,7 @@
       <c r="Q540" s="5" t="s">
         <v>1329</v>
       </c>
-      <c r="R540" s="77" t="s">
+      <c r="R540" s="70" t="s">
         <v>1336</v>
       </c>
       <c r="W540" s="5" t="s">
@@ -46155,7 +46138,7 @@
       <c r="Z540" s="5">
         <v>1612195199</v>
       </c>
-      <c r="AA540" s="52">
+      <c r="AA540" s="5">
         <v>75</v>
       </c>
       <c r="AH540" s="5">
@@ -46179,7 +46162,7 @@
         <v>10457</v>
       </c>
       <c r="F541" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G541" s="5" t="s">
         <v>1964</v>
@@ -46208,7 +46191,7 @@
       <c r="Q541" s="5" t="s">
         <v>1330</v>
       </c>
-      <c r="R541" s="77" t="s">
+      <c r="R541" s="70" t="s">
         <v>1338</v>
       </c>
       <c r="W541" s="5" t="s">
@@ -46239,1597 +46222,2141 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:39" s="73" customFormat="1" ht="14.25">
+    <row r="542" spans="1:39" s="5" customFormat="1" ht="14.25">
       <c r="A542" s="5">
         <v>541</v>
       </c>
-      <c r="B542" s="73">
+      <c r="B542" s="5">
         <v>10458</v>
       </c>
-      <c r="F542" s="73">
-        <v>1</v>
-      </c>
-      <c r="G542" s="73" t="s">
+      <c r="F542" s="5">
+        <v>0</v>
+      </c>
+      <c r="G542" s="5" t="s">
         <v>1362</v>
       </c>
-      <c r="I542" s="73" t="s">
+      <c r="I542" s="5" t="s">
         <v>2010</v>
       </c>
-      <c r="J542" s="73" t="s">
+      <c r="J542" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="L542" s="73">
+      <c r="L542" s="5">
         <v>-31</v>
       </c>
-      <c r="M542" s="73">
-        <v>0</v>
-      </c>
-      <c r="N542" s="73">
-        <v>0</v>
-      </c>
-      <c r="O542" s="73" t="s">
+      <c r="M542" s="5">
+        <v>0</v>
+      </c>
+      <c r="N542" s="5">
+        <v>0</v>
+      </c>
+      <c r="O542" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="P542" s="73">
+      <c r="P542" s="5">
         <v>99800</v>
       </c>
-      <c r="Q542" s="73" t="s">
+      <c r="Q542" s="5" t="s">
         <v>1707</v>
       </c>
-      <c r="R542" s="88" t="s">
+      <c r="R542" s="70" t="s">
         <v>1387</v>
       </c>
-      <c r="W542" s="73" t="s">
+      <c r="W542" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="X542" s="73">
+      <c r="X542" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y542" s="74">
+      <c r="Y542" s="11">
         <v>1614038400</v>
       </c>
-      <c r="Z542" s="74">
+      <c r="Z542" s="11">
         <v>1614614399</v>
       </c>
-      <c r="AH542" s="73">
-        <v>1</v>
-      </c>
-      <c r="AI542" s="73">
-        <v>1</v>
-      </c>
-      <c r="AL542" s="73">
-        <v>1</v>
-      </c>
-      <c r="AM542" s="73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="543" spans="1:39" s="73" customFormat="1" ht="14.25">
+      <c r="AH542" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI542" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL542" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM542" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:39" s="5" customFormat="1" ht="14.25">
       <c r="A543" s="5">
         <v>542</v>
       </c>
-      <c r="B543" s="73">
+      <c r="B543" s="5">
         <v>10459</v>
       </c>
-      <c r="F543" s="73">
-        <v>1</v>
-      </c>
-      <c r="G543" s="73" t="s">
+      <c r="F543" s="5">
+        <v>0</v>
+      </c>
+      <c r="G543" s="5" t="s">
         <v>1465</v>
       </c>
-      <c r="I543" s="73" t="s">
+      <c r="I543" s="5" t="s">
         <v>2010</v>
       </c>
-      <c r="J543" s="73" t="s">
+      <c r="J543" s="5" t="s">
         <v>1476</v>
       </c>
-      <c r="L543" s="73">
+      <c r="L543" s="5">
         <v>-31</v>
       </c>
-      <c r="M543" s="73">
-        <v>0</v>
-      </c>
-      <c r="N543" s="73">
-        <v>0</v>
-      </c>
-      <c r="O543" s="73" t="s">
+      <c r="M543" s="5">
+        <v>0</v>
+      </c>
+      <c r="N543" s="5">
+        <v>0</v>
+      </c>
+      <c r="O543" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P543" s="73">
+      <c r="P543" s="5">
         <v>49800</v>
       </c>
-      <c r="Q543" s="73" t="s">
+      <c r="Q543" s="5" t="s">
         <v>1707</v>
       </c>
-      <c r="R543" s="88" t="s">
+      <c r="R543" s="70" t="s">
         <v>1386</v>
       </c>
-      <c r="W543" s="73" t="s">
+      <c r="W543" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="X543" s="73">
+      <c r="X543" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y543" s="74">
+      <c r="Y543" s="11">
         <v>1614038400</v>
       </c>
-      <c r="Z543" s="74">
+      <c r="Z543" s="11">
         <v>1614614399</v>
       </c>
-      <c r="AH543" s="73">
-        <v>1</v>
-      </c>
-      <c r="AI543" s="73">
-        <v>1</v>
-      </c>
-      <c r="AL543" s="73">
-        <v>1</v>
-      </c>
-      <c r="AM543" s="73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="544" spans="1:39" s="73" customFormat="1" ht="14.25">
+      <c r="AH543" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI543" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL543" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM543" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:39" s="5" customFormat="1" ht="14.25">
       <c r="A544" s="5">
         <v>543</v>
       </c>
-      <c r="B544" s="73">
+      <c r="B544" s="5">
         <v>10460</v>
       </c>
-      <c r="F544" s="73">
-        <v>1</v>
-      </c>
-      <c r="G544" s="73" t="s">
+      <c r="F544" s="5">
+        <v>0</v>
+      </c>
+      <c r="G544" s="5" t="s">
         <v>1367</v>
       </c>
-      <c r="I544" s="73" t="s">
+      <c r="I544" s="5" t="s">
         <v>2010</v>
       </c>
-      <c r="J544" s="73" t="s">
+      <c r="J544" s="5" t="s">
         <v>1475</v>
       </c>
-      <c r="L544" s="73">
+      <c r="L544" s="5">
         <v>-31</v>
       </c>
-      <c r="M544" s="73">
-        <v>0</v>
-      </c>
-      <c r="N544" s="73">
-        <v>0</v>
-      </c>
-      <c r="O544" s="73" t="s">
+      <c r="M544" s="5">
+        <v>0</v>
+      </c>
+      <c r="N544" s="5">
+        <v>0</v>
+      </c>
+      <c r="O544" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P544" s="73">
+      <c r="P544" s="5">
         <v>29800</v>
       </c>
-      <c r="Q544" s="73" t="s">
+      <c r="Q544" s="5" t="s">
         <v>1499</v>
       </c>
-      <c r="R544" s="88" t="s">
+      <c r="R544" s="70" t="s">
         <v>1391</v>
       </c>
-      <c r="W544" s="73" t="s">
+      <c r="W544" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="X544" s="73">
+      <c r="X544" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y544" s="74">
+      <c r="Y544" s="11">
         <v>1614038400</v>
       </c>
-      <c r="Z544" s="74">
+      <c r="Z544" s="11">
         <v>1614614399</v>
       </c>
-      <c r="AH544" s="73">
-        <v>1</v>
-      </c>
-      <c r="AI544" s="73">
-        <v>1</v>
-      </c>
-      <c r="AL544" s="73">
-        <v>1</v>
-      </c>
-      <c r="AM544" s="73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="545" spans="1:39" s="73" customFormat="1" ht="14.25">
+      <c r="AH544" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI544" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL544" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM544" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:39" s="5" customFormat="1" ht="14.25">
       <c r="A545" s="5">
         <v>544</v>
       </c>
-      <c r="B545" s="73">
+      <c r="B545" s="5">
         <v>10461</v>
       </c>
-      <c r="F545" s="73">
-        <v>1</v>
-      </c>
-      <c r="G545" s="73" t="s">
+      <c r="F545" s="5">
+        <v>0</v>
+      </c>
+      <c r="G545" s="5" t="s">
         <v>1370</v>
       </c>
-      <c r="I545" s="73" t="s">
+      <c r="I545" s="5" t="s">
         <v>2010</v>
       </c>
-      <c r="J545" s="73" t="s">
+      <c r="J545" s="5" t="s">
         <v>1474</v>
       </c>
-      <c r="L545" s="73">
+      <c r="L545" s="5">
         <v>-31</v>
       </c>
-      <c r="M545" s="73">
-        <v>0</v>
-      </c>
-      <c r="N545" s="73">
-        <v>0</v>
-      </c>
-      <c r="O545" s="73" t="s">
+      <c r="M545" s="5">
+        <v>0</v>
+      </c>
+      <c r="N545" s="5">
+        <v>0</v>
+      </c>
+      <c r="O545" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P545" s="73">
+      <c r="P545" s="5">
         <v>19800</v>
       </c>
-      <c r="Q545" s="73" t="s">
+      <c r="Q545" s="5" t="s">
         <v>1499</v>
       </c>
-      <c r="R545" s="88" t="s">
+      <c r="R545" s="70" t="s">
         <v>1384</v>
       </c>
-      <c r="W545" s="73" t="s">
+      <c r="W545" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="X545" s="73">
+      <c r="X545" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y545" s="74">
+      <c r="Y545" s="11">
         <v>1614038400</v>
       </c>
-      <c r="Z545" s="74">
+      <c r="Z545" s="11">
         <v>1614614399</v>
       </c>
-      <c r="AH545" s="73">
-        <v>1</v>
-      </c>
-      <c r="AI545" s="73">
-        <v>1</v>
-      </c>
-      <c r="AL545" s="73">
-        <v>1</v>
-      </c>
-      <c r="AM545" s="73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="546" spans="1:39" s="73" customFormat="1" ht="14.25">
+      <c r="AH545" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI545" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL545" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM545" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:39" s="5" customFormat="1" ht="14.25">
       <c r="A546" s="5">
         <v>545</v>
       </c>
-      <c r="B546" s="73">
+      <c r="B546" s="5">
         <v>10462</v>
       </c>
-      <c r="F546" s="73">
-        <v>1</v>
-      </c>
-      <c r="G546" s="73" t="s">
+      <c r="F546" s="5">
+        <v>0</v>
+      </c>
+      <c r="G546" s="5" t="s">
         <v>1372</v>
       </c>
-      <c r="I546" s="73" t="s">
+      <c r="I546" s="5" t="s">
         <v>2010</v>
       </c>
-      <c r="J546" s="73" t="s">
+      <c r="J546" s="5" t="s">
         <v>1473</v>
       </c>
-      <c r="L546" s="73">
+      <c r="L546" s="5">
         <v>-31</v>
       </c>
-      <c r="M546" s="73">
-        <v>0</v>
-      </c>
-      <c r="N546" s="73">
-        <v>0</v>
-      </c>
-      <c r="O546" s="73" t="s">
+      <c r="M546" s="5">
+        <v>0</v>
+      </c>
+      <c r="N546" s="5">
+        <v>0</v>
+      </c>
+      <c r="O546" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P546" s="73">
+      <c r="P546" s="5">
         <v>9800</v>
       </c>
-      <c r="Q546" s="73" t="s">
+      <c r="Q546" s="5" t="s">
         <v>1499</v>
       </c>
-      <c r="R546" s="88" t="s">
+      <c r="R546" s="70" t="s">
         <v>1390</v>
       </c>
-      <c r="W546" s="73" t="s">
+      <c r="W546" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="X546" s="73">
+      <c r="X546" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y546" s="74">
+      <c r="Y546" s="11">
         <v>1614038400</v>
       </c>
-      <c r="Z546" s="74">
+      <c r="Z546" s="11">
         <v>1614614399</v>
       </c>
-      <c r="AH546" s="73">
-        <v>1</v>
-      </c>
-      <c r="AI546" s="73">
-        <v>1</v>
-      </c>
-      <c r="AL546" s="73">
-        <v>1</v>
-      </c>
-      <c r="AM546" s="73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="547" spans="1:39" s="73" customFormat="1" ht="14.25">
+      <c r="AH546" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI546" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL546" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM546" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:39" s="5" customFormat="1" ht="14.25">
       <c r="A547" s="5">
         <v>546</v>
       </c>
-      <c r="B547" s="73">
+      <c r="B547" s="5">
         <v>10463</v>
       </c>
-      <c r="F547" s="73">
-        <v>1</v>
-      </c>
-      <c r="G547" s="73" t="s">
+      <c r="F547" s="5">
+        <v>0</v>
+      </c>
+      <c r="G547" s="5" t="s">
         <v>1373</v>
       </c>
-      <c r="I547" s="73" t="s">
+      <c r="I547" s="5" t="s">
         <v>2010</v>
       </c>
-      <c r="J547" s="73" t="s">
+      <c r="J547" s="5" t="s">
         <v>1472</v>
       </c>
-      <c r="L547" s="73">
+      <c r="L547" s="5">
         <v>-31</v>
       </c>
-      <c r="M547" s="73">
-        <v>0</v>
-      </c>
-      <c r="N547" s="73">
-        <v>0</v>
-      </c>
-      <c r="O547" s="73" t="s">
+      <c r="M547" s="5">
+        <v>0</v>
+      </c>
+      <c r="N547" s="5">
+        <v>0</v>
+      </c>
+      <c r="O547" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P547" s="73">
+      <c r="P547" s="5">
         <v>4800</v>
       </c>
-      <c r="Q547" s="73" t="s">
+      <c r="Q547" s="5" t="s">
         <v>1705</v>
       </c>
-      <c r="R547" s="88" t="s">
+      <c r="R547" s="70" t="s">
         <v>1385</v>
       </c>
-      <c r="W547" s="73" t="s">
+      <c r="W547" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="X547" s="73">
+      <c r="X547" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y547" s="74">
+      <c r="Y547" s="11">
         <v>1614038400</v>
       </c>
-      <c r="Z547" s="74">
+      <c r="Z547" s="11">
         <v>1614614399</v>
       </c>
-      <c r="AH547" s="73">
-        <v>1</v>
-      </c>
-      <c r="AI547" s="73">
-        <v>1</v>
-      </c>
-      <c r="AL547" s="73">
-        <v>1</v>
-      </c>
-      <c r="AM547" s="73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="548" spans="1:39" s="73" customFormat="1" ht="14.25">
+      <c r="AH547" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI547" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL547" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM547" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:39" s="5" customFormat="1" ht="14.25">
       <c r="A548" s="5">
         <v>547</v>
       </c>
-      <c r="B548" s="73">
+      <c r="B548" s="5">
         <v>10464</v>
       </c>
-      <c r="F548" s="73">
-        <v>1</v>
-      </c>
-      <c r="G548" s="73" t="s">
+      <c r="F548" s="5">
+        <v>0</v>
+      </c>
+      <c r="G548" s="5" t="s">
         <v>1375</v>
       </c>
-      <c r="I548" s="73" t="s">
+      <c r="I548" s="5" t="s">
         <v>2010</v>
       </c>
-      <c r="J548" s="73" t="s">
+      <c r="J548" s="5" t="s">
         <v>1471</v>
       </c>
-      <c r="L548" s="73">
+      <c r="L548" s="5">
         <v>-31</v>
       </c>
-      <c r="M548" s="73">
-        <v>0</v>
-      </c>
-      <c r="N548" s="73">
-        <v>0</v>
-      </c>
-      <c r="O548" s="73" t="s">
+      <c r="M548" s="5">
+        <v>0</v>
+      </c>
+      <c r="N548" s="5">
+        <v>0</v>
+      </c>
+      <c r="O548" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P548" s="73">
+      <c r="P548" s="5">
         <v>1800</v>
       </c>
-      <c r="Q548" s="73" t="s">
+      <c r="Q548" s="5" t="s">
         <v>1705</v>
       </c>
-      <c r="R548" s="88" t="s">
+      <c r="R548" s="70" t="s">
         <v>1389</v>
       </c>
-      <c r="W548" s="73" t="s">
+      <c r="W548" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="X548" s="73">
+      <c r="X548" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y548" s="74">
+      <c r="Y548" s="11">
         <v>1614038400</v>
       </c>
-      <c r="Z548" s="74">
+      <c r="Z548" s="11">
         <v>1614614399</v>
       </c>
-      <c r="AH548" s="73">
-        <v>1</v>
-      </c>
-      <c r="AI548" s="73">
-        <v>1</v>
-      </c>
-      <c r="AL548" s="73">
-        <v>1</v>
-      </c>
-      <c r="AM548" s="73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="549" spans="1:39" s="71" customFormat="1">
+      <c r="AH548" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI548" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL548" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM548" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" spans="1:39" s="5" customFormat="1">
       <c r="A549" s="5">
         <v>548</v>
       </c>
-      <c r="B549" s="71">
+      <c r="B549" s="5">
         <v>10465</v>
       </c>
-      <c r="F549" s="71">
-        <v>1</v>
-      </c>
-      <c r="G549" s="71" t="s">
+      <c r="F549" s="5">
+        <v>0</v>
+      </c>
+      <c r="G549" s="5" t="s">
         <v>1976</v>
       </c>
-      <c r="I549" s="71" t="s">
+      <c r="I549" s="5" t="s">
         <v>1977</v>
       </c>
-      <c r="J549" s="71" t="s">
+      <c r="J549" s="5" t="s">
         <v>1981</v>
       </c>
-      <c r="L549" s="71">
+      <c r="L549" s="5">
         <v>-31</v>
       </c>
-      <c r="M549" s="71">
-        <v>0</v>
-      </c>
-      <c r="N549" s="71">
-        <v>0</v>
-      </c>
-      <c r="O549" s="71" t="s">
+      <c r="M549" s="5">
+        <v>0</v>
+      </c>
+      <c r="N549" s="5">
+        <v>0</v>
+      </c>
+      <c r="O549" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P549" s="71">
+      <c r="P549" s="5">
         <v>49800</v>
       </c>
-      <c r="Q549" s="71" t="s">
+      <c r="Q549" s="5" t="s">
         <v>1986</v>
       </c>
-      <c r="R549" s="89" t="s">
+      <c r="R549" s="70" t="s">
         <v>1987</v>
       </c>
-      <c r="W549" s="71" t="s">
+      <c r="W549" s="5" t="s">
         <v>1529</v>
       </c>
-      <c r="X549" s="71">
+      <c r="X549" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y549" s="71">
+      <c r="Y549" s="5">
         <v>1612828800</v>
       </c>
-      <c r="Z549" s="71">
+      <c r="Z549" s="5">
         <v>1613404799</v>
       </c>
-      <c r="AA549" s="71">
+      <c r="AA549" s="5">
         <v>66</v>
       </c>
-      <c r="AH549" s="71">
-        <v>1</v>
-      </c>
-      <c r="AI549" s="71">
-        <v>1</v>
-      </c>
-      <c r="AL549" s="71">
-        <v>1</v>
-      </c>
-      <c r="AM549" s="71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="550" spans="1:39" s="71" customFormat="1">
+      <c r="AH549" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI549" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL549" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM549" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" spans="1:39" s="5" customFormat="1">
       <c r="A550" s="5">
         <v>549</v>
       </c>
-      <c r="B550" s="71">
+      <c r="B550" s="5">
         <v>10466</v>
       </c>
-      <c r="F550" s="71">
-        <v>1</v>
-      </c>
-      <c r="G550" s="71" t="s">
+      <c r="F550" s="5">
+        <v>0</v>
+      </c>
+      <c r="G550" s="5" t="s">
         <v>1976</v>
       </c>
-      <c r="I550" s="71" t="s">
+      <c r="I550" s="5" t="s">
         <v>1978</v>
       </c>
-      <c r="J550" s="71" t="s">
+      <c r="J550" s="5" t="s">
         <v>1982</v>
       </c>
-      <c r="L550" s="71">
+      <c r="L550" s="5">
         <v>-31</v>
       </c>
-      <c r="M550" s="71">
-        <v>0</v>
-      </c>
-      <c r="N550" s="71">
-        <v>0</v>
-      </c>
-      <c r="O550" s="71" t="s">
+      <c r="M550" s="5">
+        <v>0</v>
+      </c>
+      <c r="N550" s="5">
+        <v>0</v>
+      </c>
+      <c r="O550" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P550" s="71">
+      <c r="P550" s="5">
         <v>19800</v>
       </c>
-      <c r="Q550" s="71" t="s">
+      <c r="Q550" s="5" t="s">
         <v>1986</v>
       </c>
-      <c r="R550" s="89" t="s">
+      <c r="R550" s="70" t="s">
         <v>1990</v>
       </c>
-      <c r="W550" s="71" t="s">
+      <c r="W550" s="5" t="s">
         <v>2011</v>
       </c>
-      <c r="X550" s="71">
+      <c r="X550" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y550" s="71">
+      <c r="Y550" s="5">
         <v>1612828800</v>
       </c>
-      <c r="Z550" s="71">
+      <c r="Z550" s="5">
         <v>1613404799</v>
       </c>
-      <c r="AA550" s="71">
+      <c r="AA550" s="5">
         <v>66</v>
       </c>
-      <c r="AH550" s="71">
-        <v>1</v>
-      </c>
-      <c r="AI550" s="71">
-        <v>1</v>
-      </c>
-      <c r="AL550" s="71">
-        <v>1</v>
-      </c>
-      <c r="AM550" s="71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="551" spans="1:39" s="71" customFormat="1">
+      <c r="AH550" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI550" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL550" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM550" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:39" s="5" customFormat="1">
       <c r="A551" s="5">
         <v>550</v>
       </c>
-      <c r="B551" s="71">
+      <c r="B551" s="5">
         <v>10467</v>
       </c>
-      <c r="F551" s="71">
-        <v>1</v>
-      </c>
-      <c r="G551" s="71" t="s">
+      <c r="F551" s="5">
+        <v>0</v>
+      </c>
+      <c r="G551" s="5" t="s">
         <v>1976</v>
       </c>
-      <c r="I551" s="71" t="s">
+      <c r="I551" s="5" t="s">
         <v>1979</v>
       </c>
-      <c r="J551" s="71" t="s">
+      <c r="J551" s="5" t="s">
         <v>1983</v>
       </c>
-      <c r="L551" s="71">
+      <c r="L551" s="5">
         <v>-31</v>
       </c>
-      <c r="M551" s="71">
-        <v>0</v>
-      </c>
-      <c r="N551" s="71">
-        <v>0</v>
-      </c>
-      <c r="O551" s="71" t="s">
+      <c r="M551" s="5">
+        <v>0</v>
+      </c>
+      <c r="N551" s="5">
+        <v>0</v>
+      </c>
+      <c r="O551" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P551" s="71">
+      <c r="P551" s="5">
         <v>9800</v>
       </c>
-      <c r="Q551" s="71" t="s">
+      <c r="Q551" s="5" t="s">
         <v>1986</v>
       </c>
-      <c r="R551" s="89" t="s">
+      <c r="R551" s="70" t="s">
         <v>1989</v>
       </c>
-      <c r="W551" s="71" t="s">
+      <c r="W551" s="5" t="s">
         <v>2011</v>
       </c>
-      <c r="X551" s="71">
+      <c r="X551" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y551" s="71">
+      <c r="Y551" s="5">
         <v>1612828800</v>
       </c>
-      <c r="Z551" s="71">
+      <c r="Z551" s="5">
         <v>1613404799</v>
       </c>
-      <c r="AA551" s="71">
+      <c r="AA551" s="5">
         <v>66</v>
       </c>
-      <c r="AH551" s="71">
-        <v>1</v>
-      </c>
-      <c r="AI551" s="71">
-        <v>1</v>
-      </c>
-      <c r="AL551" s="71">
-        <v>1</v>
-      </c>
-      <c r="AM551" s="71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="552" spans="1:39" s="71" customFormat="1">
+      <c r="AH551" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI551" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL551" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM551" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:39" s="5" customFormat="1">
       <c r="A552" s="5">
         <v>551</v>
       </c>
-      <c r="B552" s="71">
+      <c r="B552" s="5">
         <v>10468</v>
       </c>
-      <c r="F552" s="71">
-        <v>1</v>
-      </c>
-      <c r="G552" s="71" t="s">
+      <c r="F552" s="5">
+        <v>0</v>
+      </c>
+      <c r="G552" s="5" t="s">
         <v>1976</v>
       </c>
-      <c r="I552" s="71" t="s">
+      <c r="I552" s="5" t="s">
         <v>1980</v>
       </c>
-      <c r="J552" s="71" t="s">
+      <c r="J552" s="5" t="s">
         <v>1984</v>
       </c>
-      <c r="L552" s="71">
+      <c r="L552" s="5">
         <v>-31</v>
       </c>
-      <c r="M552" s="71">
-        <v>0</v>
-      </c>
-      <c r="N552" s="71">
-        <v>0</v>
-      </c>
-      <c r="O552" s="71" t="s">
+      <c r="M552" s="5">
+        <v>0</v>
+      </c>
+      <c r="N552" s="5">
+        <v>0</v>
+      </c>
+      <c r="O552" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P552" s="71">
+      <c r="P552" s="5">
         <v>4800</v>
       </c>
-      <c r="Q552" s="71" t="s">
+      <c r="Q552" s="5" t="s">
         <v>1986</v>
       </c>
-      <c r="R552" s="89" t="s">
+      <c r="R552" s="70" t="s">
         <v>1988</v>
       </c>
-      <c r="W552" s="71" t="s">
+      <c r="W552" s="5" t="s">
         <v>2011</v>
       </c>
-      <c r="X552" s="71">
+      <c r="X552" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y552" s="71">
+      <c r="Y552" s="5">
         <v>1612828800</v>
       </c>
-      <c r="Z552" s="71">
+      <c r="Z552" s="5">
         <v>1613404799</v>
       </c>
-      <c r="AA552" s="71">
+      <c r="AA552" s="5">
         <v>66</v>
       </c>
-      <c r="AH552" s="71">
-        <v>1</v>
-      </c>
-      <c r="AI552" s="71">
-        <v>1</v>
-      </c>
-      <c r="AL552" s="71">
-        <v>1</v>
-      </c>
-      <c r="AM552" s="71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="553" spans="1:39" s="72" customFormat="1">
+      <c r="AH552" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI552" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL552" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM552" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="1:39" s="5" customFormat="1">
       <c r="A553" s="5">
         <v>552</v>
       </c>
-      <c r="B553" s="72">
+      <c r="B553" s="5">
         <v>10469</v>
       </c>
-      <c r="F553" s="72">
-        <v>1</v>
-      </c>
-      <c r="G553" s="72" t="s">
+      <c r="F553" s="5">
+        <v>0</v>
+      </c>
+      <c r="G553" s="5" t="s">
         <v>1991</v>
       </c>
-      <c r="I553" s="72" t="s">
+      <c r="I553" s="5" t="s">
         <v>1977</v>
       </c>
-      <c r="J553" s="72" t="s">
+      <c r="J553" s="5" t="s">
         <v>1995</v>
       </c>
-      <c r="L553" s="72">
+      <c r="L553" s="5">
         <v>-31</v>
       </c>
-      <c r="M553" s="72">
-        <v>0</v>
-      </c>
-      <c r="N553" s="72">
-        <v>0</v>
-      </c>
-      <c r="O553" s="72" t="s">
+      <c r="M553" s="5">
+        <v>0</v>
+      </c>
+      <c r="N553" s="5">
+        <v>0</v>
+      </c>
+      <c r="O553" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P553" s="72">
+      <c r="P553" s="5">
         <v>49800</v>
       </c>
-      <c r="Q553" s="72" t="s">
+      <c r="Q553" s="5" t="s">
         <v>1992</v>
       </c>
-      <c r="R553" s="90" t="s">
+      <c r="R553" s="70" t="s">
         <v>1999</v>
       </c>
-      <c r="W553" s="72" t="s">
+      <c r="W553" s="5" t="s">
         <v>2012</v>
       </c>
-      <c r="X553" s="72">
+      <c r="X553" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y553" s="72">
+      <c r="Y553" s="5">
         <v>1612828800</v>
       </c>
-      <c r="Z553" s="72">
+      <c r="Z553" s="5">
         <v>1613404799</v>
       </c>
-      <c r="AA553" s="72">
+      <c r="AA553" s="5">
         <v>67</v>
       </c>
-      <c r="AH553" s="72">
-        <v>1</v>
-      </c>
-      <c r="AI553" s="72">
-        <v>1</v>
-      </c>
-      <c r="AL553" s="72">
-        <v>1</v>
-      </c>
-      <c r="AM553" s="72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="554" spans="1:39" s="72" customFormat="1">
+      <c r="AH553" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI553" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL553" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM553" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:39" s="5" customFormat="1">
       <c r="A554" s="5">
         <v>553</v>
       </c>
-      <c r="B554" s="72">
+      <c r="B554" s="5">
         <v>10470</v>
       </c>
-      <c r="F554" s="72">
-        <v>1</v>
-      </c>
-      <c r="G554" s="72" t="s">
+      <c r="F554" s="5">
+        <v>0</v>
+      </c>
+      <c r="G554" s="5" t="s">
         <v>1991</v>
       </c>
-      <c r="I554" s="72" t="s">
+      <c r="I554" s="5" t="s">
         <v>1978</v>
       </c>
-      <c r="J554" s="72" t="s">
+      <c r="J554" s="5" t="s">
         <v>1996</v>
       </c>
-      <c r="L554" s="72">
+      <c r="L554" s="5">
         <v>-31</v>
       </c>
-      <c r="M554" s="72">
-        <v>0</v>
-      </c>
-      <c r="N554" s="72">
-        <v>0</v>
-      </c>
-      <c r="O554" s="72" t="s">
+      <c r="M554" s="5">
+        <v>0</v>
+      </c>
+      <c r="N554" s="5">
+        <v>0</v>
+      </c>
+      <c r="O554" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P554" s="72">
+      <c r="P554" s="5">
         <v>19800</v>
       </c>
-      <c r="Q554" s="72" t="s">
+      <c r="Q554" s="5" t="s">
         <v>1992</v>
       </c>
-      <c r="R554" s="90" t="s">
+      <c r="R554" s="70" t="s">
         <v>2000</v>
       </c>
-      <c r="W554" s="72" t="s">
+      <c r="W554" s="5" t="s">
         <v>2012</v>
       </c>
-      <c r="X554" s="72">
+      <c r="X554" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y554" s="72">
+      <c r="Y554" s="5">
         <v>1612828800</v>
       </c>
-      <c r="Z554" s="72">
+      <c r="Z554" s="5">
         <v>1613404799</v>
       </c>
-      <c r="AA554" s="72">
+      <c r="AA554" s="5">
         <v>67</v>
       </c>
-      <c r="AH554" s="72">
-        <v>1</v>
-      </c>
-      <c r="AI554" s="72">
-        <v>1</v>
-      </c>
-      <c r="AL554" s="72">
-        <v>1</v>
-      </c>
-      <c r="AM554" s="72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="555" spans="1:39" s="72" customFormat="1">
+      <c r="AH554" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI554" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL554" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM554" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" spans="1:39" s="5" customFormat="1">
       <c r="A555" s="5">
         <v>554</v>
       </c>
-      <c r="B555" s="72">
+      <c r="B555" s="5">
         <v>10471</v>
       </c>
-      <c r="F555" s="72">
-        <v>1</v>
-      </c>
-      <c r="G555" s="72" t="s">
+      <c r="F555" s="5">
+        <v>0</v>
+      </c>
+      <c r="G555" s="5" t="s">
         <v>1991</v>
       </c>
-      <c r="I555" s="72" t="s">
+      <c r="I555" s="5" t="s">
         <v>1979</v>
       </c>
-      <c r="J555" s="72" t="s">
+      <c r="J555" s="5" t="s">
         <v>1997</v>
       </c>
-      <c r="L555" s="72">
+      <c r="L555" s="5">
         <v>-31</v>
       </c>
-      <c r="M555" s="72">
-        <v>0</v>
-      </c>
-      <c r="N555" s="72">
-        <v>0</v>
-      </c>
-      <c r="O555" s="72" t="s">
+      <c r="M555" s="5">
+        <v>0</v>
+      </c>
+      <c r="N555" s="5">
+        <v>0</v>
+      </c>
+      <c r="O555" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P555" s="72">
+      <c r="P555" s="5">
         <v>9800</v>
       </c>
-      <c r="Q555" s="72" t="s">
+      <c r="Q555" s="5" t="s">
         <v>1993</v>
       </c>
-      <c r="R555" s="90" t="s">
+      <c r="R555" s="70" t="s">
         <v>2001</v>
       </c>
-      <c r="W555" s="72" t="s">
+      <c r="W555" s="5" t="s">
         <v>2012</v>
       </c>
-      <c r="X555" s="72">
+      <c r="X555" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y555" s="72">
+      <c r="Y555" s="5">
         <v>1612828800</v>
       </c>
-      <c r="Z555" s="72">
+      <c r="Z555" s="5">
         <v>1613404799</v>
       </c>
-      <c r="AA555" s="72">
+      <c r="AA555" s="5">
         <v>67</v>
       </c>
-      <c r="AH555" s="72">
-        <v>1</v>
-      </c>
-      <c r="AI555" s="72">
-        <v>1</v>
-      </c>
-      <c r="AL555" s="72">
-        <v>1</v>
-      </c>
-      <c r="AM555" s="72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="556" spans="1:39" s="72" customFormat="1">
+      <c r="AH555" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI555" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL555" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM555" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:39" s="5" customFormat="1">
       <c r="A556" s="5">
         <v>555</v>
       </c>
-      <c r="B556" s="72">
+      <c r="B556" s="5">
         <v>10472</v>
       </c>
-      <c r="F556" s="72">
-        <v>1</v>
-      </c>
-      <c r="G556" s="72" t="s">
+      <c r="F556" s="5">
+        <v>0</v>
+      </c>
+      <c r="G556" s="5" t="s">
         <v>1991</v>
       </c>
-      <c r="I556" s="72" t="s">
+      <c r="I556" s="5" t="s">
         <v>1980</v>
       </c>
-      <c r="J556" s="72" t="s">
+      <c r="J556" s="5" t="s">
         <v>1998</v>
       </c>
-      <c r="L556" s="72">
+      <c r="L556" s="5">
         <v>-31</v>
       </c>
-      <c r="M556" s="72">
-        <v>0</v>
-      </c>
-      <c r="N556" s="72">
-        <v>0</v>
-      </c>
-      <c r="O556" s="72" t="s">
+      <c r="M556" s="5">
+        <v>0</v>
+      </c>
+      <c r="N556" s="5">
+        <v>0</v>
+      </c>
+      <c r="O556" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P556" s="72">
+      <c r="P556" s="5">
         <v>4800</v>
       </c>
-      <c r="Q556" s="72" t="s">
+      <c r="Q556" s="5" t="s">
         <v>1994</v>
       </c>
-      <c r="R556" s="90" t="s">
+      <c r="R556" s="70" t="s">
         <v>2002</v>
       </c>
-      <c r="W556" s="72" t="s">
+      <c r="W556" s="5" t="s">
         <v>2012</v>
       </c>
-      <c r="X556" s="72">
+      <c r="X556" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y556" s="72">
+      <c r="Y556" s="5">
         <v>1612828800</v>
       </c>
-      <c r="Z556" s="72">
+      <c r="Z556" s="5">
         <v>1613404799</v>
       </c>
-      <c r="AA556" s="72">
+      <c r="AA556" s="5">
         <v>67</v>
       </c>
-      <c r="AH556" s="72">
-        <v>1</v>
-      </c>
-      <c r="AI556" s="72">
-        <v>1</v>
-      </c>
-      <c r="AL556" s="72">
-        <v>1</v>
-      </c>
-      <c r="AM556" s="72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="557" spans="1:39" s="19" customFormat="1">
+      <c r="AH556" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI556" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL556" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM556" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:39" s="5" customFormat="1">
       <c r="A557" s="5">
         <v>556</v>
       </c>
-      <c r="B557" s="19">
+      <c r="B557" s="5">
         <v>10473</v>
       </c>
-      <c r="F557" s="19">
-        <v>1</v>
-      </c>
-      <c r="G557" s="19" t="s">
+      <c r="F557" s="5">
+        <v>0</v>
+      </c>
+      <c r="G557" s="5" t="s">
         <v>584</v>
       </c>
-      <c r="I557" s="19" t="s">
+      <c r="I557" s="5" t="s">
         <v>2003</v>
       </c>
-      <c r="J557" s="19" t="s">
+      <c r="J557" s="5" t="s">
         <v>2014</v>
       </c>
-      <c r="L557" s="19">
+      <c r="L557" s="5">
         <v>-25</v>
       </c>
-      <c r="M557" s="19">
-        <v>0</v>
-      </c>
-      <c r="N557" s="19">
-        <v>0</v>
-      </c>
-      <c r="O557" s="19" t="s">
+      <c r="M557" s="5">
+        <v>0</v>
+      </c>
+      <c r="N557" s="5">
+        <v>0</v>
+      </c>
+      <c r="O557" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P557" s="19">
+      <c r="P557" s="5">
         <v>100</v>
       </c>
-      <c r="Q557" s="19" t="s">
+      <c r="Q557" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="R557" s="80" t="s">
+      <c r="R557" s="70" t="s">
         <v>1092</v>
       </c>
-      <c r="W557" s="19" t="s">
+      <c r="W557" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="X557" s="19">
+      <c r="X557" s="5">
         <v>50</v>
       </c>
-      <c r="Y557" s="19">
+      <c r="Y557" s="5">
         <v>1613433600</v>
       </c>
-      <c r="Z557" s="19">
+      <c r="Z557" s="5">
         <v>1613440800</v>
       </c>
-      <c r="AE557" s="19">
+      <c r="AE557" s="5">
         <f t="shared" ref="AE557:AE565" si="1">24*60*60</f>
         <v>86400</v>
       </c>
-      <c r="AF557" s="19">
+      <c r="AF557" s="5">
         <v>7</v>
       </c>
-      <c r="AH557" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI557" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="558" spans="1:39" s="19" customFormat="1">
+      <c r="AH557" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI557" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:39" s="5" customFormat="1">
       <c r="A558" s="5">
         <v>557</v>
       </c>
-      <c r="B558" s="19">
+      <c r="B558" s="5">
         <v>10474</v>
       </c>
-      <c r="F558" s="19">
-        <v>1</v>
-      </c>
-      <c r="G558" s="19" t="s">
+      <c r="F558" s="5">
+        <v>0</v>
+      </c>
+      <c r="G558" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="I558" s="19" t="s">
+      <c r="I558" s="5" t="s">
         <v>2003</v>
       </c>
-      <c r="J558" s="19" t="s">
+      <c r="J558" s="5" t="s">
         <v>2004</v>
       </c>
-      <c r="L558" s="19">
+      <c r="L558" s="5">
         <v>-25</v>
       </c>
-      <c r="M558" s="19">
-        <v>0</v>
-      </c>
-      <c r="N558" s="19">
-        <v>0</v>
-      </c>
-      <c r="O558" s="19" t="s">
+      <c r="M558" s="5">
+        <v>0</v>
+      </c>
+      <c r="N558" s="5">
+        <v>0</v>
+      </c>
+      <c r="O558" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P558" s="19">
+      <c r="P558" s="5">
         <v>1800</v>
       </c>
-      <c r="Q558" s="19" t="s">
+      <c r="Q558" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="R558" s="80" t="s">
+      <c r="R558" s="70" t="s">
         <v>697</v>
       </c>
-      <c r="W558" s="19" t="s">
+      <c r="W558" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="X558" s="19">
+      <c r="X558" s="5">
         <v>20</v>
       </c>
-      <c r="Y558" s="19">
+      <c r="Y558" s="5">
         <v>1613433600</v>
       </c>
-      <c r="Z558" s="19">
+      <c r="Z558" s="5">
         <v>1613440800</v>
       </c>
-      <c r="AE558" s="19">
+      <c r="AE558" s="5">
         <f t="shared" si="1"/>
         <v>86400</v>
       </c>
-      <c r="AF558" s="19">
+      <c r="AF558" s="5">
         <v>7</v>
       </c>
-      <c r="AH558" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI558" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="559" spans="1:39" s="19" customFormat="1">
+      <c r="AH558" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI558" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:39" s="5" customFormat="1">
       <c r="A559" s="5">
         <v>558</v>
       </c>
-      <c r="B559" s="19">
+      <c r="B559" s="5">
         <v>10475</v>
       </c>
-      <c r="F559" s="19">
-        <v>1</v>
-      </c>
-      <c r="G559" s="19" t="s">
+      <c r="F559" s="5">
+        <v>0</v>
+      </c>
+      <c r="G559" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="I559" s="19" t="s">
+      <c r="I559" s="5" t="s">
         <v>2003</v>
       </c>
-      <c r="J559" s="19" t="s">
+      <c r="J559" s="5" t="s">
         <v>2005</v>
       </c>
-      <c r="L559" s="19">
+      <c r="L559" s="5">
         <v>-25</v>
       </c>
-      <c r="M559" s="19">
-        <v>0</v>
-      </c>
-      <c r="N559" s="19">
-        <v>0</v>
-      </c>
-      <c r="O559" s="19" t="s">
+      <c r="M559" s="5">
+        <v>0</v>
+      </c>
+      <c r="N559" s="5">
+        <v>0</v>
+      </c>
+      <c r="O559" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P559" s="19">
+      <c r="P559" s="5">
         <v>4800</v>
       </c>
-      <c r="Q559" s="19" t="s">
+      <c r="Q559" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="R559" s="80" t="s">
+      <c r="R559" s="70" t="s">
         <v>2008</v>
       </c>
-      <c r="W559" s="19" t="s">
+      <c r="W559" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="X559" s="19">
+      <c r="X559" s="5">
         <v>10</v>
       </c>
-      <c r="Y559" s="19">
+      <c r="Y559" s="5">
         <v>1613433600</v>
       </c>
-      <c r="Z559" s="19">
+      <c r="Z559" s="5">
         <v>1613440800</v>
       </c>
-      <c r="AE559" s="19">
+      <c r="AE559" s="5">
         <f t="shared" si="1"/>
         <v>86400</v>
       </c>
-      <c r="AF559" s="19">
+      <c r="AF559" s="5">
         <v>7</v>
       </c>
-      <c r="AH559" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI559" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="560" spans="1:39" s="19" customFormat="1">
+      <c r="AH559" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI559" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" spans="1:39" s="5" customFormat="1">
       <c r="A560" s="5">
         <v>559</v>
       </c>
-      <c r="B560" s="19">
+      <c r="B560" s="5">
         <v>10476</v>
       </c>
-      <c r="F560" s="19">
-        <v>1</v>
-      </c>
-      <c r="G560" s="19" t="s">
+      <c r="F560" s="5">
+        <v>0</v>
+      </c>
+      <c r="G560" s="5" t="s">
         <v>584</v>
       </c>
-      <c r="I560" s="19" t="s">
+      <c r="I560" s="5" t="s">
         <v>2003</v>
       </c>
-      <c r="J560" s="19" t="s">
+      <c r="J560" s="5" t="s">
         <v>2014</v>
       </c>
-      <c r="L560" s="19">
+      <c r="L560" s="5">
         <f>J55-25</f>
         <v>-25</v>
       </c>
-      <c r="M560" s="19">
-        <v>0</v>
-      </c>
-      <c r="N560" s="19">
-        <v>0</v>
-      </c>
-      <c r="O560" s="19" t="s">
+      <c r="M560" s="5">
+        <v>0</v>
+      </c>
+      <c r="N560" s="5">
+        <v>0</v>
+      </c>
+      <c r="O560" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P560" s="19">
+      <c r="P560" s="5">
         <v>100</v>
       </c>
-      <c r="Q560" s="19" t="s">
+      <c r="Q560" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="R560" s="80" t="s">
+      <c r="R560" s="70" t="s">
         <v>2013</v>
       </c>
-      <c r="W560" s="19" t="s">
+      <c r="W560" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="X560" s="19">
+      <c r="X560" s="5">
         <v>50</v>
       </c>
-      <c r="Y560" s="19">
+      <c r="Y560" s="5">
         <v>1613448000</v>
       </c>
-      <c r="Z560" s="19">
+      <c r="Z560" s="5">
         <v>1613455200</v>
       </c>
-      <c r="AE560" s="19">
+      <c r="AE560" s="5">
         <f t="shared" si="1"/>
         <v>86400</v>
       </c>
-      <c r="AF560" s="19">
+      <c r="AF560" s="5">
         <v>7</v>
       </c>
-      <c r="AH560" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI560" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="561" spans="1:35" s="19" customFormat="1">
+      <c r="AH560" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI560" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:39" s="5" customFormat="1">
       <c r="A561" s="5">
         <v>560</v>
       </c>
-      <c r="B561" s="19">
+      <c r="B561" s="5">
         <v>10477</v>
       </c>
-      <c r="F561" s="19">
-        <v>1</v>
-      </c>
-      <c r="G561" s="19" t="s">
+      <c r="F561" s="5">
+        <v>0</v>
+      </c>
+      <c r="G561" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="I561" s="19" t="s">
+      <c r="I561" s="5" t="s">
         <v>2003</v>
       </c>
-      <c r="J561" s="19" t="s">
+      <c r="J561" s="5" t="s">
         <v>2006</v>
       </c>
-      <c r="L561" s="19">
+      <c r="L561" s="5">
         <v>-25</v>
       </c>
-      <c r="M561" s="19">
-        <v>0</v>
-      </c>
-      <c r="N561" s="19">
-        <v>0</v>
-      </c>
-      <c r="O561" s="19" t="s">
+      <c r="M561" s="5">
+        <v>0</v>
+      </c>
+      <c r="N561" s="5">
+        <v>0</v>
+      </c>
+      <c r="O561" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P561" s="19">
+      <c r="P561" s="5">
         <v>2800</v>
       </c>
-      <c r="Q561" s="19" t="s">
+      <c r="Q561" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="R561" s="80" t="s">
+      <c r="R561" s="70" t="s">
         <v>2009</v>
       </c>
-      <c r="W561" s="19" t="s">
+      <c r="W561" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="X561" s="19">
+      <c r="X561" s="5">
         <v>20</v>
       </c>
-      <c r="Y561" s="19">
+      <c r="Y561" s="5">
         <v>1613448000</v>
       </c>
-      <c r="Z561" s="19">
+      <c r="Z561" s="5">
         <v>1613455200</v>
       </c>
-      <c r="AE561" s="19">
+      <c r="AE561" s="5">
         <f t="shared" si="1"/>
         <v>86400</v>
       </c>
-      <c r="AF561" s="19">
+      <c r="AF561" s="5">
         <v>7</v>
       </c>
-      <c r="AH561" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI561" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="562" spans="1:35" s="19" customFormat="1">
+      <c r="AH561" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI561" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:39" s="5" customFormat="1">
       <c r="A562" s="5">
         <v>561</v>
       </c>
-      <c r="B562" s="19">
+      <c r="B562" s="5">
         <v>10478</v>
       </c>
-      <c r="F562" s="19">
-        <v>1</v>
-      </c>
-      <c r="G562" s="19" t="s">
+      <c r="F562" s="5">
+        <v>0</v>
+      </c>
+      <c r="G562" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="I562" s="19" t="s">
+      <c r="I562" s="5" t="s">
         <v>2003</v>
       </c>
-      <c r="J562" s="19" t="s">
+      <c r="J562" s="5" t="s">
         <v>2015</v>
       </c>
-      <c r="L562" s="19">
+      <c r="L562" s="5">
         <v>-25</v>
       </c>
-      <c r="M562" s="19">
-        <v>0</v>
-      </c>
-      <c r="N562" s="19">
-        <v>0</v>
-      </c>
-      <c r="O562" s="19" t="s">
+      <c r="M562" s="5">
+        <v>0</v>
+      </c>
+      <c r="N562" s="5">
+        <v>0</v>
+      </c>
+      <c r="O562" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P562" s="19">
+      <c r="P562" s="5">
         <v>9800</v>
       </c>
-      <c r="Q562" s="19" t="s">
+      <c r="Q562" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="R562" s="80" t="s">
+      <c r="R562" s="70" t="s">
         <v>2019</v>
       </c>
-      <c r="W562" s="19" t="s">
+      <c r="W562" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="X562" s="19">
+      <c r="X562" s="5">
         <v>10</v>
       </c>
-      <c r="Y562" s="19">
+      <c r="Y562" s="5">
         <v>1613448000</v>
       </c>
-      <c r="Z562" s="19">
+      <c r="Z562" s="5">
         <v>1613455200</v>
       </c>
-      <c r="AE562" s="19">
+      <c r="AE562" s="5">
         <f t="shared" si="1"/>
         <v>86400</v>
       </c>
-      <c r="AF562" s="19">
+      <c r="AF562" s="5">
         <v>7</v>
       </c>
-      <c r="AH562" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI562" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="563" spans="1:35" s="19" customFormat="1">
+      <c r="AH562" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI562" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:39" s="5" customFormat="1">
       <c r="A563" s="5">
         <v>562</v>
       </c>
-      <c r="B563" s="19">
+      <c r="B563" s="5">
         <v>10479</v>
       </c>
-      <c r="F563" s="19">
-        <v>1</v>
-      </c>
-      <c r="G563" s="19" t="s">
+      <c r="F563" s="5">
+        <v>0</v>
+      </c>
+      <c r="G563" s="5" t="s">
         <v>584</v>
       </c>
-      <c r="I563" s="19" t="s">
+      <c r="I563" s="5" t="s">
         <v>2003</v>
       </c>
-      <c r="J563" s="19" t="s">
+      <c r="J563" s="5" t="s">
         <v>2016</v>
       </c>
-      <c r="L563" s="19">
+      <c r="L563" s="5">
         <v>-25</v>
       </c>
-      <c r="M563" s="19">
-        <v>0</v>
-      </c>
-      <c r="N563" s="19">
-        <v>0</v>
-      </c>
-      <c r="O563" s="19" t="s">
+      <c r="M563" s="5">
+        <v>0</v>
+      </c>
+      <c r="N563" s="5">
+        <v>0</v>
+      </c>
+      <c r="O563" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P563" s="19">
+      <c r="P563" s="5">
         <v>100</v>
       </c>
-      <c r="Q563" s="19" t="s">
+      <c r="Q563" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="R563" s="80" t="s">
+      <c r="R563" s="70" t="s">
         <v>2018</v>
       </c>
-      <c r="W563" s="19" t="s">
+      <c r="W563" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="X563" s="19">
+      <c r="X563" s="5">
         <v>50</v>
       </c>
-      <c r="Y563" s="19">
+      <c r="Y563" s="5">
         <v>1613469600</v>
       </c>
-      <c r="Z563" s="19">
+      <c r="Z563" s="5">
         <v>1613484000</v>
       </c>
-      <c r="AE563" s="19">
+      <c r="AE563" s="5">
         <f t="shared" si="1"/>
         <v>86400</v>
       </c>
-      <c r="AF563" s="19">
+      <c r="AF563" s="5">
         <v>7</v>
       </c>
-      <c r="AH563" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI563" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="564" spans="1:35" s="19" customFormat="1">
+      <c r="AH563" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI563" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:39" s="5" customFormat="1">
       <c r="A564" s="5">
         <v>563</v>
       </c>
-      <c r="B564" s="19">
+      <c r="B564" s="5">
         <v>10480</v>
       </c>
-      <c r="F564" s="19">
-        <v>1</v>
-      </c>
-      <c r="G564" s="19" t="s">
+      <c r="F564" s="5">
+        <v>0</v>
+      </c>
+      <c r="G564" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="I564" s="19" t="s">
+      <c r="I564" s="5" t="s">
         <v>2003</v>
       </c>
-      <c r="J564" s="19" t="s">
+      <c r="J564" s="5" t="s">
         <v>2007</v>
       </c>
-      <c r="L564" s="19">
+      <c r="L564" s="5">
         <v>-25</v>
       </c>
-      <c r="M564" s="19">
-        <v>0</v>
-      </c>
-      <c r="N564" s="19">
-        <v>0</v>
-      </c>
-      <c r="O564" s="19" t="s">
+      <c r="M564" s="5">
+        <v>0</v>
+      </c>
+      <c r="N564" s="5">
+        <v>0</v>
+      </c>
+      <c r="O564" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P564" s="19">
+      <c r="P564" s="5">
         <v>4800</v>
       </c>
-      <c r="Q564" s="19" t="s">
+      <c r="Q564" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="R564" s="80" t="s">
+      <c r="R564" s="70" t="s">
         <v>2008</v>
       </c>
-      <c r="W564" s="19" t="s">
+      <c r="W564" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="X564" s="19">
+      <c r="X564" s="5">
         <v>20</v>
       </c>
-      <c r="Y564" s="19">
+      <c r="Y564" s="5">
         <v>1613469600</v>
       </c>
-      <c r="Z564" s="19">
+      <c r="Z564" s="5">
         <v>1613484000</v>
       </c>
-      <c r="AE564" s="19">
+      <c r="AE564" s="5">
         <f t="shared" si="1"/>
         <v>86400</v>
       </c>
-      <c r="AF564" s="19">
+      <c r="AF564" s="5">
         <v>7</v>
       </c>
-      <c r="AH564" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI564" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="565" spans="1:35" s="19" customFormat="1">
+      <c r="AH564" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI564" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" spans="1:39" s="5" customFormat="1">
       <c r="A565" s="5">
         <v>564</v>
       </c>
-      <c r="B565" s="19">
+      <c r="B565" s="5">
         <v>10481</v>
       </c>
-      <c r="F565" s="19">
-        <v>1</v>
-      </c>
-      <c r="G565" s="19" t="s">
+      <c r="F565" s="5">
+        <v>0</v>
+      </c>
+      <c r="G565" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="I565" s="19" t="s">
+      <c r="I565" s="5" t="s">
         <v>2003</v>
       </c>
-      <c r="J565" s="19" t="s">
+      <c r="J565" s="5" t="s">
         <v>2017</v>
       </c>
-      <c r="L565" s="19">
+      <c r="L565" s="5">
         <v>-25</v>
       </c>
-      <c r="M565" s="19">
-        <v>0</v>
-      </c>
-      <c r="N565" s="19">
-        <v>0</v>
-      </c>
-      <c r="O565" s="19" t="s">
+      <c r="M565" s="5">
+        <v>0</v>
+      </c>
+      <c r="N565" s="5">
+        <v>0</v>
+      </c>
+      <c r="O565" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P565" s="19">
+      <c r="P565" s="5">
         <v>19800</v>
       </c>
-      <c r="Q565" s="19" t="s">
+      <c r="Q565" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="R565" s="80" t="s">
+      <c r="R565" s="70" t="s">
         <v>2020</v>
       </c>
-      <c r="W565" s="19" t="s">
+      <c r="W565" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="X565" s="19">
+      <c r="X565" s="5">
         <v>10</v>
       </c>
-      <c r="Y565" s="19">
+      <c r="Y565" s="5">
         <v>1613469600</v>
       </c>
-      <c r="Z565" s="19">
+      <c r="Z565" s="5">
         <v>1613484000</v>
       </c>
-      <c r="AE565" s="19">
+      <c r="AE565" s="5">
         <f t="shared" si="1"/>
         <v>86400</v>
       </c>
-      <c r="AF565" s="19">
+      <c r="AF565" s="5">
         <v>7</v>
       </c>
-      <c r="AH565" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI565" s="19">
+      <c r="AH565" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI565" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566" spans="1:39" s="22" customFormat="1">
+      <c r="A566" s="5">
+        <v>565</v>
+      </c>
+      <c r="B566" s="5">
+        <v>10482</v>
+      </c>
+      <c r="F566" s="22">
+        <v>0</v>
+      </c>
+      <c r="G566" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="I566" s="22" t="s">
+        <v>2022</v>
+      </c>
+      <c r="J566" s="22" t="s">
+        <v>1887</v>
+      </c>
+      <c r="L566" s="22">
+        <v>-33</v>
+      </c>
+      <c r="M566" s="22">
+        <v>0</v>
+      </c>
+      <c r="N566" s="22">
+        <v>0</v>
+      </c>
+      <c r="O566" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="P566" s="22">
+        <v>49800</v>
+      </c>
+      <c r="Q566" s="22" t="s">
+        <v>2023</v>
+      </c>
+      <c r="R566" s="71" t="s">
+        <v>1875</v>
+      </c>
+      <c r="W566" s="22" t="s">
+        <v>592</v>
+      </c>
+      <c r="X566" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y566" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z566" s="22">
+        <v>1615219199</v>
+      </c>
+      <c r="AA566" s="22">
+        <v>68</v>
+      </c>
+      <c r="AH566" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI566" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL566" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM566" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:39" s="22" customFormat="1">
+      <c r="A567" s="5">
+        <v>566</v>
+      </c>
+      <c r="B567" s="5">
+        <v>10483</v>
+      </c>
+      <c r="F567" s="22">
+        <v>0</v>
+      </c>
+      <c r="G567" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="I567" s="22" t="s">
+        <v>2022</v>
+      </c>
+      <c r="J567" s="22" t="s">
+        <v>1889</v>
+      </c>
+      <c r="L567" s="22">
+        <v>-33</v>
+      </c>
+      <c r="M567" s="22">
+        <v>0</v>
+      </c>
+      <c r="N567" s="22">
+        <v>0</v>
+      </c>
+      <c r="O567" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="P567" s="22">
+        <v>19800</v>
+      </c>
+      <c r="Q567" s="22" t="s">
+        <v>2023</v>
+      </c>
+      <c r="R567" s="71" t="s">
+        <v>1876</v>
+      </c>
+      <c r="W567" s="22" t="s">
+        <v>592</v>
+      </c>
+      <c r="X567" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y567" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z567" s="22">
+        <v>1615219199</v>
+      </c>
+      <c r="AA567" s="22">
+        <v>68</v>
+      </c>
+      <c r="AH567" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI567" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL567" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM567" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:39" s="22" customFormat="1">
+      <c r="A568" s="5">
+        <v>567</v>
+      </c>
+      <c r="B568" s="5">
+        <v>10484</v>
+      </c>
+      <c r="F568" s="22">
+        <v>0</v>
+      </c>
+      <c r="G568" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="I568" s="22" t="s">
+        <v>2022</v>
+      </c>
+      <c r="J568" s="22" t="s">
+        <v>1870</v>
+      </c>
+      <c r="L568" s="22">
+        <v>-33</v>
+      </c>
+      <c r="M568" s="22">
+        <v>0</v>
+      </c>
+      <c r="N568" s="22">
+        <v>0</v>
+      </c>
+      <c r="O568" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="P568" s="22">
+        <v>9800</v>
+      </c>
+      <c r="Q568" s="22" t="s">
+        <v>2024</v>
+      </c>
+      <c r="R568" s="71" t="s">
+        <v>1877</v>
+      </c>
+      <c r="W568" s="22" t="s">
+        <v>592</v>
+      </c>
+      <c r="X568" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y568" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z568" s="22">
+        <v>1615219199</v>
+      </c>
+      <c r="AA568" s="22">
+        <v>68</v>
+      </c>
+      <c r="AH568" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI568" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL568" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM568" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:39" s="22" customFormat="1">
+      <c r="A569" s="5">
+        <v>568</v>
+      </c>
+      <c r="B569" s="5">
+        <v>10485</v>
+      </c>
+      <c r="F569" s="22">
+        <v>0</v>
+      </c>
+      <c r="G569" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="I569" s="22" t="s">
+        <v>2022</v>
+      </c>
+      <c r="J569" s="22" t="s">
+        <v>1869</v>
+      </c>
+      <c r="L569" s="22">
+        <v>-33</v>
+      </c>
+      <c r="M569" s="22">
+        <v>0</v>
+      </c>
+      <c r="N569" s="22">
+        <v>0</v>
+      </c>
+      <c r="O569" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="P569" s="22">
+        <v>4800</v>
+      </c>
+      <c r="Q569" s="22" t="s">
+        <v>2025</v>
+      </c>
+      <c r="R569" s="71" t="s">
+        <v>1878</v>
+      </c>
+      <c r="W569" s="22" t="s">
+        <v>592</v>
+      </c>
+      <c r="X569" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y569" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z569" s="22">
+        <v>1615219199</v>
+      </c>
+      <c r="AA569" s="22">
+        <v>68</v>
+      </c>
+      <c r="AH569" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI569" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL569" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM569" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570" spans="1:39" s="22" customFormat="1">
+      <c r="A570" s="5">
+        <v>569</v>
+      </c>
+      <c r="B570" s="5">
+        <v>10486</v>
+      </c>
+      <c r="F570" s="22">
+        <v>0</v>
+      </c>
+      <c r="G570" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="I570" s="22" t="s">
+        <v>2021</v>
+      </c>
+      <c r="J570" s="22" t="s">
+        <v>1893</v>
+      </c>
+      <c r="L570" s="22">
+        <v>-33</v>
+      </c>
+      <c r="M570" s="22">
+        <v>0</v>
+      </c>
+      <c r="N570" s="22">
+        <v>0</v>
+      </c>
+      <c r="O570" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="P570" s="22">
+        <v>49800</v>
+      </c>
+      <c r="Q570" s="22" t="s">
+        <v>2026</v>
+      </c>
+      <c r="R570" s="71" t="s">
+        <v>1896</v>
+      </c>
+      <c r="W570" s="22" t="s">
+        <v>592</v>
+      </c>
+      <c r="X570" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y570" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z570" s="22">
+        <v>1615219199</v>
+      </c>
+      <c r="AA570" s="22">
+        <v>69</v>
+      </c>
+      <c r="AH570" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI570" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL570" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM570" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:39" s="22" customFormat="1">
+      <c r="A571" s="5">
+        <v>570</v>
+      </c>
+      <c r="B571" s="5">
+        <v>10487</v>
+      </c>
+      <c r="F571" s="22">
+        <v>0</v>
+      </c>
+      <c r="G571" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="I571" s="22" t="s">
+        <v>2021</v>
+      </c>
+      <c r="J571" s="22" t="s">
+        <v>1897</v>
+      </c>
+      <c r="L571" s="22">
+        <v>-33</v>
+      </c>
+      <c r="M571" s="22">
+        <v>0</v>
+      </c>
+      <c r="N571" s="22">
+        <v>0</v>
+      </c>
+      <c r="O571" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="P571" s="22">
+        <v>19800</v>
+      </c>
+      <c r="Q571" s="22" t="s">
+        <v>2026</v>
+      </c>
+      <c r="R571" s="71" t="s">
+        <v>1898</v>
+      </c>
+      <c r="W571" s="22" t="s">
+        <v>592</v>
+      </c>
+      <c r="X571" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y571" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z571" s="22">
+        <v>1615219199</v>
+      </c>
+      <c r="AA571" s="22">
+        <v>69</v>
+      </c>
+      <c r="AH571" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI571" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL571" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM571" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:39" s="22" customFormat="1">
+      <c r="A572" s="5">
+        <v>571</v>
+      </c>
+      <c r="B572" s="5">
+        <v>10488</v>
+      </c>
+      <c r="F572" s="22">
+        <v>0</v>
+      </c>
+      <c r="G572" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="I572" s="22" t="s">
+        <v>2021</v>
+      </c>
+      <c r="J572" s="22" t="s">
+        <v>1899</v>
+      </c>
+      <c r="L572" s="22">
+        <v>-33</v>
+      </c>
+      <c r="M572" s="22">
+        <v>0</v>
+      </c>
+      <c r="N572" s="22">
+        <v>0</v>
+      </c>
+      <c r="O572" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="P572" s="22">
+        <v>9800</v>
+      </c>
+      <c r="Q572" s="22" t="s">
+        <v>2027</v>
+      </c>
+      <c r="R572" s="71" t="s">
+        <v>1882</v>
+      </c>
+      <c r="W572" s="22" t="s">
+        <v>592</v>
+      </c>
+      <c r="X572" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y572" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z572" s="22">
+        <v>1615219199</v>
+      </c>
+      <c r="AA572" s="22">
+        <v>69</v>
+      </c>
+      <c r="AH572" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI572" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL572" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM572" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:39" s="22" customFormat="1">
+      <c r="A573" s="5">
+        <v>572</v>
+      </c>
+      <c r="B573" s="5">
+        <v>10489</v>
+      </c>
+      <c r="F573" s="22">
+        <v>0</v>
+      </c>
+      <c r="G573" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="I573" s="22" t="s">
+        <v>2021</v>
+      </c>
+      <c r="J573" s="22" t="s">
+        <v>1900</v>
+      </c>
+      <c r="L573" s="22">
+        <v>-33</v>
+      </c>
+      <c r="M573" s="22">
+        <v>0</v>
+      </c>
+      <c r="N573" s="22">
+        <v>0</v>
+      </c>
+      <c r="O573" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="P573" s="22">
+        <v>4800</v>
+      </c>
+      <c r="Q573" s="22" t="s">
+        <v>2028</v>
+      </c>
+      <c r="R573" s="71" t="s">
+        <v>1902</v>
+      </c>
+      <c r="W573" s="22" t="s">
+        <v>592</v>
+      </c>
+      <c r="X573" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y573" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z573" s="22">
+        <v>1615219199</v>
+      </c>
+      <c r="AA573" s="22">
+        <v>69</v>
+      </c>
+      <c r="AH573" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI573" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL573" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM573" s="22">
         <v>1</v>
       </c>
     </row>

--- a/config_3.2/shoping_config.xlsx
+++ b/config_3.2/shoping_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -9674,8 +9674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH883"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -15105,11 +15105,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN579"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="K560" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="M114" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C585" sqref="C585"/>
+      <selection pane="bottomRight" activeCell="Q121" sqref="Q121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -15152,7 +15152,7 @@
     <col min="41" max="16384" width="8.75" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="1" customFormat="1" ht="94.5">
+    <row r="1" spans="1:40" s="1" customFormat="1" ht="135">
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
